--- a/InputData/land/BLAPE/BAU LULUCF Anthro Pollutant Emis.xlsx
+++ b/InputData/land/BLAPE/BAU LULUCF Anthro Pollutant Emis.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganM\Documents\eps-us\InputData\land\BLAPE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pembinainstitute.sharepoint.com/sites/PRO-EnergyPolicySimulator2021/Shared Documents/Research and Analysis/CANADA-inputData/land/BLAPE/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="136" documentId="11_5405EDD4148383FD4B3BD6143CB5EE8768C9057E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{631B912B-FEBB-4991-A5CE-945AEE0E0370}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="Calcs" sheetId="2" r:id="rId2"/>
-    <sheet name="EPA Table 6-1" sheetId="5" r:id="rId3"/>
-    <sheet name="data from RPEpUACE" sheetId="4" r:id="rId4"/>
-    <sheet name="BLAPE" sheetId="3" r:id="rId5"/>
+    <sheet name="Data" sheetId="6" r:id="rId2"/>
+    <sheet name="Calculations" sheetId="7" r:id="rId3"/>
+    <sheet name="BLAPE" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,14 +34,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -56,178 +56,145 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
+  <si>
+    <t>BLAPE BAU LULUCF Anthropogenic Pollutant Emissions</t>
+  </si>
   <si>
     <t>Source:</t>
   </si>
   <si>
-    <t>Land Use and Forestry (high sequestration)</t>
-  </si>
-  <si>
-    <t>Land Use and Forestry (low sequestration)</t>
-  </si>
-  <si>
-    <t>Excerpt from Table 3:</t>
-  </si>
-  <si>
-    <t>Average</t>
-  </si>
-  <si>
-    <t>Emissions (Tg CO2e)</t>
-  </si>
-  <si>
-    <t>We assume that all of the sequestered CO2e in the Land Use and Forestry sector is in the form of</t>
-  </si>
-  <si>
-    <t>CO2, not other GHGs.</t>
+    <t>CO2 Sequestration Start Year</t>
+  </si>
+  <si>
+    <t>Environment and Climate Change Canada</t>
+  </si>
+  <si>
+    <t>Canada's Greenhouse Gas and Air Pollutant Emissions Projections 2020</t>
+  </si>
+  <si>
+    <t>https://publications.gc.ca/collections/collection_2021/eccc/En1-78-2020-eng.pdf</t>
+  </si>
+  <si>
+    <t>Table A.35</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>We only have projections for 2030. Using a straight line method to fill values for 2020-2030, then projecting constant value onwards.</t>
+  </si>
+  <si>
+    <t>Canada’s Greenhouse Gas and Air Pollutant Emissions Projections 2020</t>
+  </si>
+  <si>
+    <t>kt CO2 eq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">⁰ Historical estimates and projections do not include net emissions from drainage, as these projections are not yet available. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">¹ Negative sign indicates net removals of CO₂ from the atmosphere. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">² Historical estimates and projections do not include net emissions from agricultural woody biomass, as these projections are not yet </t>
+  </si>
+  <si>
+    <t xml:space="preserve">available. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">³ Historical estimates and projections are only for Forest Land converted to Cropland. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">⁴ No projections are available for grasslands. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">⁵ Historical estimates and projections are only for Forest Land converted to Wetlands. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">⁶ Historical estimates and projections are only for Forest Land converted to Settlements. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">⁷ Totals may not add up to due to rounding. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">⁸ Shown for information only. Forest Conversion overlaps with the sub-sectors of Cropland remaining Cropland (CLCL), Land converted to </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cropland (LCL), Wetlands remaining Wetlands (WLWL), Land converted to Wetlands (LWL), Land converted to Settlements (LSL) and </t>
+  </si>
+  <si>
+    <t>Harvested Wood Products (HWP).</t>
+  </si>
+  <si>
+    <t>For reference:</t>
+  </si>
+  <si>
+    <t>Table 6-1, NIR 2021</t>
   </si>
   <si>
     <t>Year</t>
   </si>
   <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>BLAPE BAU LULUCF Anthropogenic Pollutant Emissions</t>
+    <t>CO2 (kt)</t>
+  </si>
+  <si>
+    <t>CO2 (g)</t>
+  </si>
+  <si>
+    <t>straight line calculation from 2020 to 2030</t>
+  </si>
+  <si>
+    <t>step 1</t>
+  </si>
+  <si>
+    <t>change each year</t>
+  </si>
+  <si>
+    <t>conversion</t>
+  </si>
+  <si>
+    <t>1 kt =  10^9 g</t>
+  </si>
+  <si>
+    <t>VOCs (g)</t>
+  </si>
+  <si>
+    <t>CO (g)</t>
+  </si>
+  <si>
+    <t>NOx (g)</t>
+  </si>
+  <si>
+    <t>PM10 (g)</t>
+  </si>
+  <si>
+    <t>PM25 (g)</t>
+  </si>
+  <si>
+    <t>SOx (g)</t>
+  </si>
+  <si>
+    <t>BC (g)</t>
+  </si>
+  <si>
+    <t>OC (g)</t>
+  </si>
+  <si>
+    <t>CH4 (g)</t>
+  </si>
+  <si>
+    <t>N2O (g)</t>
   </si>
   <si>
     <t>F gases (g CO2e)</t>
-  </si>
-  <si>
-    <t>CO2 (g)</t>
-  </si>
-  <si>
-    <t>VOCs (g)</t>
-  </si>
-  <si>
-    <t>CO (g)</t>
-  </si>
-  <si>
-    <t>NOx (g)</t>
-  </si>
-  <si>
-    <t>PM10 (g)</t>
-  </si>
-  <si>
-    <t>PM25 (g)</t>
-  </si>
-  <si>
-    <t>SOx (g)</t>
-  </si>
-  <si>
-    <t>BC (g)</t>
-  </si>
-  <si>
-    <t>OC (g)</t>
-  </si>
-  <si>
-    <t>CH4 (g)</t>
-  </si>
-  <si>
-    <t>N2O (g)</t>
-  </si>
-  <si>
-    <t>Rebound Emis Factor</t>
-  </si>
-  <si>
-    <t>CO2</t>
-  </si>
-  <si>
-    <t>VOC</t>
-  </si>
-  <si>
-    <t>CO</t>
-  </si>
-  <si>
-    <t>NOx</t>
-  </si>
-  <si>
-    <t>PM10</t>
-  </si>
-  <si>
-    <t>PM25</t>
-  </si>
-  <si>
-    <t>SOx</t>
-  </si>
-  <si>
-    <t>BC</t>
-  </si>
-  <si>
-    <t>OC</t>
-  </si>
-  <si>
-    <t>CH4</t>
-  </si>
-  <si>
-    <t>N2O</t>
-  </si>
-  <si>
-    <t>F gases</t>
-  </si>
-  <si>
-    <t>Rebound CH4 and N2O Emissions</t>
-  </si>
-  <si>
-    <t>See land/RPEpUACE</t>
-  </si>
-  <si>
-    <t>Table 6-1</t>
-  </si>
-  <si>
-    <t>LULUCF Carbon Stock Change</t>
-  </si>
-  <si>
-    <t>EPS</t>
-  </si>
-  <si>
-    <t>Start Year Forecast</t>
-  </si>
-  <si>
-    <t>MMTCO2e</t>
-  </si>
-  <si>
-    <t>CO2 Sequestration Start Year</t>
-  </si>
-  <si>
-    <t>US EPA</t>
-  </si>
-  <si>
-    <t>https://www.epa.gov/sites/production/files/2021-02/documents/us-ghg-inventory-2021-main-text.pdf</t>
-  </si>
-  <si>
-    <t>Draft Inventory of US Greenhouse Gas Emissions Emissions and Sinks</t>
-  </si>
-  <si>
-    <t>Table 6-1, page 6-3 (467)</t>
-  </si>
-  <si>
-    <t>We project the previous 5 years of LULUCF emissions forward to 2050.</t>
-  </si>
-  <si>
-    <t>These are relatively constant.</t>
-  </si>
-  <si>
-    <t>CO2 Sequestration</t>
-  </si>
-  <si>
-    <t>U.S. State Department</t>
-  </si>
-  <si>
-    <t>Second Biennial Report of the United States of America</t>
-  </si>
-  <si>
-    <t>https://unfccc.int/files/national_reports/biennial_reports_and_iar/submitted_biennial_reports/application/pdf/2016_second_biennial_report_of_the_united_states_.pdf</t>
-  </si>
-  <si>
-    <t>Page 34, Table 3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -251,16 +218,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -276,12 +235,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -308,7 +261,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -318,18 +271,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -424,6 +371,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -459,6 +423,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -634,493 +615,758 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.3984375" customWidth="1"/>
-    <col min="2" max="2" width="51.59765625" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" customWidth="1"/>
+    <col min="2" max="2" width="51.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="B4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="B5" s="6">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="B6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="B7" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="B8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B10" s="12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B12" s="6">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B14" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B15" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B17" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" s="16" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" s="16" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="20" spans="1:2" s="16" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B20"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A27" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A28" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A29" t="s">
-        <v>49</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B7" r:id="rId1" xr:uid="{DC8C7731-97D0-46C5-AAC0-9AB1D9F50189}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDC65964-AC57-4F16-9CCC-2FF63904A811}">
+  <dimension ref="A2:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="63.265625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B3">
+    <row r="6" spans="1:11">
+      <c r="B6">
+        <v>1990</v>
+      </c>
+      <c r="C6">
+        <v>2005</v>
+      </c>
+      <c r="D6">
+        <v>2013</v>
+      </c>
+      <c r="E6">
+        <v>2014</v>
+      </c>
+      <c r="F6">
         <v>2015</v>
       </c>
-      <c r="C3" s="14">
+      <c r="G6">
+        <v>2016</v>
+      </c>
+      <c r="H6">
+        <v>2017</v>
+      </c>
+      <c r="I6">
+        <v>2018</v>
+      </c>
+      <c r="J6">
         <v>2020</v>
       </c>
-      <c r="D3">
-        <v>2025</v>
-      </c>
-      <c r="E3">
+      <c r="K6">
         <v>2030</v>
       </c>
-      <c r="F3" s="8">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>-970</v>
-      </c>
-      <c r="C4" s="14">
-        <f>G13</f>
-        <v>-818.39999999999986</v>
-      </c>
-      <c r="D4" cm="1">
-        <f t="array" ref="D4">TREND($B$13:$F$13,$B$12:$F$12,D3)</f>
-        <v>-823.7</v>
-      </c>
-      <c r="E4" cm="1">
-        <f t="array" ref="E4">TREND($B$13:$F$13,$B$12:$F$12,E3)</f>
-        <v>-829.00000000000023</v>
-      </c>
-      <c r="F4" cm="1">
-        <f t="array" ref="F4">TREND($B$13:$F$13,$B$12:$F$12,F3)</f>
-        <v>-850.2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <v>-928</v>
-      </c>
-      <c r="C5" s="14">
-        <f>G13</f>
-        <v>-818.39999999999986</v>
-      </c>
-      <c r="D5">
-        <f>D4</f>
-        <v>-823.7</v>
-      </c>
-      <c r="E5">
-        <f t="shared" ref="E5:F5" si="0">E4</f>
-        <v>-829.00000000000023</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="0"/>
-        <v>-850.2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <f t="shared" ref="B7:F7" si="1">AVERAGE(B4:B5)</f>
-        <v>-949</v>
-      </c>
-      <c r="C7" s="7">
-        <f t="shared" si="1"/>
-        <v>-818.39999999999986</v>
-      </c>
-      <c r="D7" s="7">
-        <f t="shared" si="1"/>
-        <v>-823.7</v>
-      </c>
-      <c r="E7" s="7">
-        <f t="shared" si="1"/>
-        <v>-829.00000000000023</v>
-      </c>
-      <c r="F7" s="7">
-        <f t="shared" si="1"/>
-        <v>-850.2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+        <v>-58000</v>
+      </c>
+      <c r="C7">
+        <v>-10000</v>
+      </c>
+      <c r="D7">
+        <v>-23000</v>
+      </c>
+      <c r="E7">
+        <v>-23000</v>
+      </c>
+      <c r="F7">
+        <v>-16000</v>
+      </c>
+      <c r="G7">
+        <v>-17000</v>
+      </c>
+      <c r="H7">
+        <v>-15000</v>
+      </c>
+      <c r="I7">
+        <v>-11000</v>
+      </c>
+      <c r="J7">
+        <v>-13000</v>
+      </c>
+      <c r="K7">
+        <v>-9500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="G11" s="15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="B30">
+        <v>1990</v>
+      </c>
+      <c r="C30">
+        <v>2005</v>
+      </c>
+      <c r="D30">
+        <v>2014</v>
+      </c>
+      <c r="E30">
         <v>2015</v>
       </c>
-      <c r="C12">
+      <c r="F30">
         <v>2016</v>
       </c>
-      <c r="D12">
+      <c r="G30">
         <v>2017</v>
       </c>
-      <c r="E12">
+      <c r="H30">
         <v>2018</v>
       </c>
-      <c r="F12">
+      <c r="I30">
         <v>2019</v>
       </c>
-      <c r="G12" s="14">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13">
-        <f>'EPA Table 6-1'!D2</f>
-        <v>-791.5</v>
-      </c>
-      <c r="C13">
-        <f>'EPA Table 6-1'!E2</f>
-        <v>-855.8</v>
-      </c>
-      <c r="D13">
-        <f>'EPA Table 6-1'!F2</f>
-        <v>-791.8</v>
-      </c>
-      <c r="E13">
-        <f>'EPA Table 6-1'!G2</f>
-        <v>-824.6</v>
-      </c>
-      <c r="F13">
-        <f>'EPA Table 6-1'!H2</f>
-        <v>-812.4</v>
-      </c>
-      <c r="G13" s="14" cm="1">
-        <f t="array" ref="G13">TREND(B13:F13,B12:F12,G12)</f>
-        <v>-818.39999999999986</v>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31">
+        <v>-57000</v>
+      </c>
+      <c r="C31">
+        <v>8200</v>
+      </c>
+      <c r="D31">
+        <v>-3500</v>
+      </c>
+      <c r="E31">
+        <v>4000</v>
+      </c>
+      <c r="F31">
+        <v>95</v>
+      </c>
+      <c r="G31">
+        <v>700</v>
+      </c>
+      <c r="H31">
+        <v>8400</v>
+      </c>
+      <c r="I31">
+        <v>9900</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A4" r:id="rId1" xr:uid="{45CCF0DA-37F2-49FF-9C9E-D12904583B27}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="B7:E7" formulaRange="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F50C48F9-6946-F243-8F07-D84A3D2FE82A}">
+  <dimension ref="A1:AK13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="21.59765625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
-        <v>38</v>
+    <row r="1" spans="1:37">
+      <c r="A1" t="s">
+        <v>25</v>
       </c>
       <c r="B1">
-        <v>1990</v>
+        <v>2015</v>
       </c>
       <c r="C1">
-        <v>2005</v>
+        <v>2016</v>
       </c>
       <c r="D1">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="E1">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="F1">
-        <v>2017</v>
-      </c>
-      <c r="G1">
-        <v>2018</v>
+        <v>2019</v>
+      </c>
+      <c r="G1" s="3">
+        <v>2020</v>
       </c>
       <c r="H1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+        <v>2021</v>
+      </c>
+      <c r="I1">
+        <v>2022</v>
+      </c>
+      <c r="J1">
+        <v>2023</v>
+      </c>
+      <c r="K1">
+        <v>2024</v>
+      </c>
+      <c r="L1" s="3">
+        <v>2025</v>
+      </c>
+      <c r="M1">
+        <v>2026</v>
+      </c>
+      <c r="N1">
+        <v>2027</v>
+      </c>
+      <c r="O1">
+        <v>2028</v>
+      </c>
+      <c r="P1">
+        <v>2029</v>
+      </c>
+      <c r="Q1" s="3">
+        <v>2030</v>
+      </c>
+      <c r="R1">
+        <v>2031</v>
+      </c>
+      <c r="S1">
+        <v>2032</v>
+      </c>
+      <c r="T1">
+        <v>2033</v>
+      </c>
+      <c r="U1">
+        <v>2034</v>
+      </c>
+      <c r="V1">
+        <v>2035</v>
+      </c>
+      <c r="W1">
+        <v>2036</v>
+      </c>
+      <c r="X1">
+        <v>2037</v>
+      </c>
+      <c r="Y1">
+        <v>2038</v>
+      </c>
+      <c r="Z1">
+        <v>2039</v>
+      </c>
+      <c r="AA1">
+        <v>2040</v>
+      </c>
+      <c r="AB1">
+        <v>2041</v>
+      </c>
+      <c r="AC1">
+        <v>2042</v>
+      </c>
+      <c r="AD1">
+        <v>2043</v>
+      </c>
+      <c r="AE1">
+        <v>2044</v>
+      </c>
+      <c r="AF1">
+        <v>2045</v>
+      </c>
+      <c r="AG1">
+        <v>2046</v>
+      </c>
+      <c r="AH1">
+        <v>2047</v>
+      </c>
+      <c r="AI1">
+        <v>2048</v>
+      </c>
+      <c r="AJ1">
+        <v>2049</v>
+      </c>
+      <c r="AK1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37">
       <c r="A2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2">
-        <v>-908.7</v>
-      </c>
-      <c r="C2">
-        <v>-804.8</v>
-      </c>
-      <c r="D2">
-        <v>-791.5</v>
-      </c>
-      <c r="E2">
-        <v>-855.8</v>
-      </c>
-      <c r="F2">
-        <v>-791.8</v>
-      </c>
-      <c r="G2">
-        <v>-824.6</v>
-      </c>
-      <c r="H2">
-        <v>-812.4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="2" max="2" width="23" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B1" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
         <v>26</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
+      <c r="B2" s="4">
+        <f>Data!F7</f>
+        <v>-16000</v>
+      </c>
+      <c r="C2" s="4">
+        <f>Data!G7</f>
+        <v>-17000</v>
+      </c>
+      <c r="D2" s="4">
+        <f>Data!H7</f>
+        <v>-15000</v>
+      </c>
+      <c r="E2" s="4">
+        <f>Data!I7</f>
+        <v>-11000</v>
+      </c>
+      <c r="F2" s="4" cm="1">
+        <f t="array" ref="F2">TREND(B2:E2,B1:E1,F1)</f>
+        <v>-10500</v>
+      </c>
+      <c r="G2" s="5">
+        <f>Data!J7</f>
+        <v>-13000</v>
+      </c>
+      <c r="H2" s="4">
+        <f>G2-$B$9</f>
+        <v>-12650</v>
+      </c>
+      <c r="I2" s="4">
+        <f>H2-$B$9</f>
+        <v>-12300</v>
+      </c>
+      <c r="J2" s="4">
+        <f>I2-$B$9</f>
+        <v>-11950</v>
+      </c>
+      <c r="K2" s="4">
+        <f>J2-$B$9</f>
+        <v>-11600</v>
+      </c>
+      <c r="L2" s="4">
+        <f>K2-$B$9</f>
+        <v>-11250</v>
+      </c>
+      <c r="M2" s="4">
+        <f>L2-$B$9</f>
+        <v>-10900</v>
+      </c>
+      <c r="N2" s="4">
+        <f>M2-$B$9</f>
+        <v>-10550</v>
+      </c>
+      <c r="O2" s="4">
+        <f>N2-$B$9</f>
+        <v>-10200</v>
+      </c>
+      <c r="P2" s="4">
+        <f>O2-$B$9</f>
+        <v>-9850</v>
+      </c>
+      <c r="Q2" s="5">
+        <f>Data!K7</f>
+        <v>-9500</v>
+      </c>
+      <c r="R2" s="4">
+        <f>$Q$2</f>
+        <v>-9500</v>
+      </c>
+      <c r="S2" s="4">
+        <f t="shared" ref="S2:AK2" si="0">$Q$2</f>
+        <v>-9500</v>
+      </c>
+      <c r="T2" s="4">
+        <f t="shared" si="0"/>
+        <v>-9500</v>
+      </c>
+      <c r="U2" s="4">
+        <f t="shared" si="0"/>
+        <v>-9500</v>
+      </c>
+      <c r="V2" s="4">
+        <f t="shared" si="0"/>
+        <v>-9500</v>
+      </c>
+      <c r="W2" s="4">
+        <f t="shared" si="0"/>
+        <v>-9500</v>
+      </c>
+      <c r="X2" s="4">
+        <f t="shared" si="0"/>
+        <v>-9500</v>
+      </c>
+      <c r="Y2" s="4">
+        <f t="shared" si="0"/>
+        <v>-9500</v>
+      </c>
+      <c r="Z2" s="4">
+        <f t="shared" si="0"/>
+        <v>-9500</v>
+      </c>
+      <c r="AA2" s="4">
+        <f t="shared" si="0"/>
+        <v>-9500</v>
+      </c>
+      <c r="AB2" s="4">
+        <f t="shared" si="0"/>
+        <v>-9500</v>
+      </c>
+      <c r="AC2" s="4">
+        <f t="shared" si="0"/>
+        <v>-9500</v>
+      </c>
+      <c r="AD2" s="4">
+        <f t="shared" si="0"/>
+        <v>-9500</v>
+      </c>
+      <c r="AE2" s="4">
+        <f t="shared" si="0"/>
+        <v>-9500</v>
+      </c>
+      <c r="AF2" s="4">
+        <f t="shared" si="0"/>
+        <v>-9500</v>
+      </c>
+      <c r="AG2" s="4">
+        <f t="shared" si="0"/>
+        <v>-9500</v>
+      </c>
+      <c r="AH2" s="4">
+        <f t="shared" si="0"/>
+        <v>-9500</v>
+      </c>
+      <c r="AI2" s="4">
+        <f t="shared" si="0"/>
+        <v>-9500</v>
+      </c>
+      <c r="AJ2" s="4">
+        <f t="shared" si="0"/>
+        <v>-9500</v>
+      </c>
+      <c r="AK2" s="4">
+        <f t="shared" si="0"/>
+        <v>-9500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37">
+      <c r="A3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
+      <c r="B3" s="9">
+        <f>B2/(10^9)</f>
+        <v>-1.5999999999999999E-5</v>
+      </c>
+      <c r="C3" s="9">
+        <f t="shared" ref="C3:F3" si="1">C2/(10^9)</f>
+        <v>-1.7E-5</v>
+      </c>
+      <c r="D3" s="9">
+        <f t="shared" si="1"/>
+        <v>-1.5E-5</v>
+      </c>
+      <c r="E3" s="9">
+        <f t="shared" si="1"/>
+        <v>-1.1E-5</v>
+      </c>
+      <c r="F3" s="9">
+        <f t="shared" si="1"/>
+        <v>-1.0499999999999999E-5</v>
+      </c>
+      <c r="G3" s="9">
+        <f t="shared" ref="G3" si="2">G2/(10^9)</f>
+        <v>-1.2999999999999999E-5</v>
+      </c>
+      <c r="H3" s="9">
+        <f t="shared" ref="H3" si="3">H2/(10^9)</f>
+        <v>-1.2649999999999999E-5</v>
+      </c>
+      <c r="I3" s="9">
+        <f t="shared" ref="I3" si="4">I2/(10^9)</f>
+        <v>-1.2300000000000001E-5</v>
+      </c>
+      <c r="J3" s="9">
+        <f t="shared" ref="J3" si="5">J2/(10^9)</f>
+        <v>-1.1950000000000001E-5</v>
+      </c>
+      <c r="K3" s="9">
+        <f t="shared" ref="K3" si="6">K2/(10^9)</f>
+        <v>-1.1600000000000001E-5</v>
+      </c>
+      <c r="L3" s="9">
+        <f t="shared" ref="L3" si="7">L2/(10^9)</f>
+        <v>-1.1250000000000001E-5</v>
+      </c>
+      <c r="M3" s="9">
+        <f t="shared" ref="M3" si="8">M2/(10^9)</f>
+        <v>-1.0900000000000001E-5</v>
+      </c>
+      <c r="N3" s="9">
+        <f t="shared" ref="N3" si="9">N2/(10^9)</f>
+        <v>-1.0550000000000001E-5</v>
+      </c>
+      <c r="O3" s="9">
+        <f t="shared" ref="O3" si="10">O2/(10^9)</f>
+        <v>-1.0200000000000001E-5</v>
+      </c>
+      <c r="P3" s="9">
+        <f t="shared" ref="P3" si="11">P2/(10^9)</f>
+        <v>-9.8500000000000006E-6</v>
+      </c>
+      <c r="Q3" s="9">
+        <f t="shared" ref="Q3" si="12">Q2/(10^9)</f>
+        <v>-9.5000000000000005E-6</v>
+      </c>
+      <c r="R3" s="9">
+        <f t="shared" ref="R3" si="13">R2/(10^9)</f>
+        <v>-9.5000000000000005E-6</v>
+      </c>
+      <c r="S3" s="9">
+        <f t="shared" ref="S3" si="14">S2/(10^9)</f>
+        <v>-9.5000000000000005E-6</v>
+      </c>
+      <c r="T3" s="9">
+        <f t="shared" ref="T3" si="15">T2/(10^9)</f>
+        <v>-9.5000000000000005E-6</v>
+      </c>
+      <c r="U3" s="9">
+        <f t="shared" ref="U3" si="16">U2/(10^9)</f>
+        <v>-9.5000000000000005E-6</v>
+      </c>
+      <c r="V3" s="9">
+        <f t="shared" ref="V3" si="17">V2/(10^9)</f>
+        <v>-9.5000000000000005E-6</v>
+      </c>
+      <c r="W3" s="9">
+        <f t="shared" ref="W3" si="18">W2/(10^9)</f>
+        <v>-9.5000000000000005E-6</v>
+      </c>
+      <c r="X3" s="9">
+        <f t="shared" ref="X3" si="19">X2/(10^9)</f>
+        <v>-9.5000000000000005E-6</v>
+      </c>
+      <c r="Y3" s="9">
+        <f t="shared" ref="Y3" si="20">Y2/(10^9)</f>
+        <v>-9.5000000000000005E-6</v>
+      </c>
+      <c r="Z3" s="9">
+        <f t="shared" ref="Z3" si="21">Z2/(10^9)</f>
+        <v>-9.5000000000000005E-6</v>
+      </c>
+      <c r="AA3" s="9">
+        <f t="shared" ref="AA3" si="22">AA2/(10^9)</f>
+        <v>-9.5000000000000005E-6</v>
+      </c>
+      <c r="AB3" s="9">
+        <f t="shared" ref="AB3" si="23">AB2/(10^9)</f>
+        <v>-9.5000000000000005E-6</v>
+      </c>
+      <c r="AC3" s="9">
+        <f t="shared" ref="AC3" si="24">AC2/(10^9)</f>
+        <v>-9.5000000000000005E-6</v>
+      </c>
+      <c r="AD3" s="9">
+        <f t="shared" ref="AD3" si="25">AD2/(10^9)</f>
+        <v>-9.5000000000000005E-6</v>
+      </c>
+      <c r="AE3" s="9">
+        <f t="shared" ref="AE3" si="26">AE2/(10^9)</f>
+        <v>-9.5000000000000005E-6</v>
+      </c>
+      <c r="AF3" s="9">
+        <f t="shared" ref="AF3" si="27">AF2/(10^9)</f>
+        <v>-9.5000000000000005E-6</v>
+      </c>
+      <c r="AG3" s="9">
+        <f t="shared" ref="AG3" si="28">AG2/(10^9)</f>
+        <v>-9.5000000000000005E-6</v>
+      </c>
+      <c r="AH3" s="9">
+        <f t="shared" ref="AH3" si="29">AH2/(10^9)</f>
+        <v>-9.5000000000000005E-6</v>
+      </c>
+      <c r="AI3" s="9">
+        <f t="shared" ref="AI3" si="30">AI2/(10^9)</f>
+        <v>-9.5000000000000005E-6</v>
+      </c>
+      <c r="AJ3" s="9">
+        <f t="shared" ref="AJ3" si="31">AJ2/(10^9)</f>
+        <v>-9.5000000000000005E-6</v>
+      </c>
+      <c r="AK3" s="9">
+        <f t="shared" ref="AK3" si="32">AK2/(10^9)</f>
+        <v>-9.5000000000000005E-6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37">
+      <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
+    </row>
+    <row r="8" spans="1:37">
+      <c r="A8" t="s">
         <v>29</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
+      <c r="B8" s="4">
+        <f>G2-Q2</f>
+        <v>-3500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" ht="30">
+      <c r="A9" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
+      <c r="B9" s="4">
+        <f>B8/10</f>
+        <v>-350</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37">
+      <c r="A11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
+    </row>
+    <row r="13" spans="1:37">
+      <c r="A13" t="s">
         <v>32</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="4">
-        <v>6.6417418588509813E-4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="4">
-        <v>3.8529345186784264E-5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1128,26 +1374,26 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AK13"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="AK2" sqref="AK2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.73046875" customWidth="1"/>
-    <col min="2" max="17" width="11.265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="17" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:37">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="B1">
         <v>2015</v>
@@ -1209,10 +1455,10 @@
       <c r="U1">
         <v>2034</v>
       </c>
-      <c r="V1" s="9">
+      <c r="V1">
         <v>2035</v>
       </c>
-      <c r="W1" s="9">
+      <c r="W1">
         <v>2036</v>
       </c>
       <c r="X1">
@@ -1258,158 +1504,158 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:37">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="B2" s="4">
-        <f>TREND(Calcs!$B7:$C7,Calcs!$B3:$C3,BLAPE!B1)*10^12</f>
-        <v>-948999999999992.75</v>
+        <f>Calculations!B3</f>
+        <v>-1.5999999999999999E-5</v>
       </c>
       <c r="C2" s="4">
-        <f>TREND(Calcs!$B7:$C7,Calcs!$B3:$C3,BLAPE!C1)*10^12</f>
-        <v>-922879999999997.38</v>
+        <f>Calculations!C3</f>
+        <v>-1.7E-5</v>
       </c>
       <c r="D2" s="4">
-        <f>TREND(Calcs!$B7:$C7,Calcs!$B3:$C3,BLAPE!D1)*10^12</f>
-        <v>-896759999999994.75</v>
+        <f>Calculations!D3</f>
+        <v>-1.5E-5</v>
       </c>
       <c r="E2" s="4">
-        <f>TREND(Calcs!$B7:$C7,Calcs!$B3:$C3,BLAPE!E1)*10^12</f>
-        <v>-870639999999992.13</v>
+        <f>Calculations!E3</f>
+        <v>-1.1E-5</v>
       </c>
       <c r="F2" s="4">
-        <f>TREND(Calcs!$B7:$C7,Calcs!$B3:$C3,BLAPE!F1)*10^12</f>
-        <v>-844519999999996.75</v>
-      </c>
-      <c r="G2" s="5">
-        <f>TREND(Calcs!$B7:$C7,Calcs!$B3:$C3,BLAPE!G1)*10^12</f>
-        <v>-818399999999994.13</v>
+        <f>Calculations!F3</f>
+        <v>-1.0499999999999999E-5</v>
+      </c>
+      <c r="G2" s="4">
+        <f>Calculations!G3</f>
+        <v>-1.2999999999999999E-5</v>
       </c>
       <c r="H2" s="4">
-        <f>TREND(Calcs!$C7:$D7,Calcs!$C3:$D3,BLAPE!H1)*10^12</f>
-        <v>-819460000000000.25</v>
+        <f>Calculations!H3</f>
+        <v>-1.2649999999999999E-5</v>
       </c>
       <c r="I2" s="4">
-        <f>TREND(Calcs!$C7:$D7,Calcs!$C3:$D3,BLAPE!I1)*10^12</f>
-        <v>-820520000000000.25</v>
+        <f>Calculations!I3</f>
+        <v>-1.2300000000000001E-5</v>
       </c>
       <c r="J2" s="4">
-        <f>TREND(Calcs!$C7:$D7,Calcs!$C3:$D3,BLAPE!J1)*10^12</f>
-        <v>-821580000000000.13</v>
+        <f>Calculations!J3</f>
+        <v>-1.1950000000000001E-5</v>
       </c>
       <c r="K2" s="4">
-        <f>TREND(Calcs!$C7:$D7,Calcs!$C3:$D3,BLAPE!K1)*10^12</f>
-        <v>-822640000000000.13</v>
-      </c>
-      <c r="L2" s="5">
-        <f>TREND(Calcs!$C7:$D7,Calcs!$C3:$D3,BLAPE!L1)*10^12</f>
-        <v>-823700000000000</v>
+        <f>Calculations!K3</f>
+        <v>-1.1600000000000001E-5</v>
+      </c>
+      <c r="L2" s="4">
+        <f>Calculations!L3</f>
+        <v>-1.1250000000000001E-5</v>
       </c>
       <c r="M2" s="4">
-        <f>TREND(Calcs!$D7:$E7,Calcs!$D3:$E3,BLAPE!M1)*10^12</f>
-        <v>-824760000000000.5</v>
+        <f>Calculations!M3</f>
+        <v>-1.0900000000000001E-5</v>
       </c>
       <c r="N2" s="4">
-        <f>TREND(Calcs!$D7:$E7,Calcs!$D3:$E3,BLAPE!N1)*10^12</f>
-        <v>-825820000000000.38</v>
+        <f>Calculations!N3</f>
+        <v>-1.0550000000000001E-5</v>
       </c>
       <c r="O2" s="4">
-        <f>TREND(Calcs!$D7:$E7,Calcs!$D3:$E3,BLAPE!O1)*10^12</f>
-        <v>-826880000000000.38</v>
+        <f>Calculations!O3</f>
+        <v>-1.0200000000000001E-5</v>
       </c>
       <c r="P2" s="4">
-        <f>TREND(Calcs!$D7:$E7,Calcs!$D3:$E3,BLAPE!P1)*10^12</f>
-        <v>-827940000000000.25</v>
-      </c>
-      <c r="Q2" s="5">
-        <f>TREND(Calcs!$D7:$E7,Calcs!$D3:$E3,BLAPE!Q1)*10^12</f>
-        <v>-829000000000000.25</v>
+        <f>Calculations!P3</f>
+        <v>-9.8500000000000006E-6</v>
+      </c>
+      <c r="Q2" s="4">
+        <f>Calculations!Q3</f>
+        <v>-9.5000000000000005E-6</v>
       </c>
       <c r="R2" s="4">
-        <f>TREND(Calcs!$E7:$F7,Calcs!$E3:$F3,BLAPE!R1)*10^12</f>
-        <v>-830060000000000.13</v>
+        <f>Calculations!R3</f>
+        <v>-9.5000000000000005E-6</v>
       </c>
       <c r="S2" s="4">
-        <f>TREND(Calcs!$E7:$F7,Calcs!$E3:$F3,BLAPE!S1)*10^12</f>
-        <v>-831120000000000.13</v>
+        <f>Calculations!S3</f>
+        <v>-9.5000000000000005E-6</v>
       </c>
       <c r="T2" s="4">
-        <f>TREND(Calcs!$E7:$F7,Calcs!$E3:$F3,BLAPE!T1)*10^12</f>
-        <v>-832180000000000.5</v>
+        <f>Calculations!T3</f>
+        <v>-9.5000000000000005E-6</v>
       </c>
       <c r="U2" s="4">
-        <f>TREND(Calcs!$E7:$F7,Calcs!$E3:$F3,BLAPE!U1)*10^12</f>
-        <v>-833240000000000.5</v>
-      </c>
-      <c r="V2" s="10">
-        <f>TREND(Calcs!$E7:$F7,Calcs!$E3:$F3,BLAPE!V1)*10^12</f>
-        <v>-834300000000000.38</v>
-      </c>
-      <c r="W2" s="10">
-        <f>TREND(Calcs!$E7:$F7,Calcs!$E3:$F3,BLAPE!W1)*10^12</f>
-        <v>-835360000000000.38</v>
+        <f>Calculations!U3</f>
+        <v>-9.5000000000000005E-6</v>
+      </c>
+      <c r="V2" s="4">
+        <f>Calculations!V3</f>
+        <v>-9.5000000000000005E-6</v>
+      </c>
+      <c r="W2" s="4">
+        <f>Calculations!W3</f>
+        <v>-9.5000000000000005E-6</v>
       </c>
       <c r="X2" s="4">
-        <f>TREND(Calcs!$E7:$F7,Calcs!$E3:$F3,BLAPE!X1)*10^12</f>
-        <v>-836420000000000.25</v>
+        <f>Calculations!X3</f>
+        <v>-9.5000000000000005E-6</v>
       </c>
       <c r="Y2" s="4">
-        <f>TREND(Calcs!$E7:$F7,Calcs!$E3:$F3,BLAPE!Y1)*10^12</f>
-        <v>-837480000000000.25</v>
+        <f>Calculations!Y3</f>
+        <v>-9.5000000000000005E-6</v>
       </c>
       <c r="Z2" s="4">
-        <f>TREND(Calcs!$E7:$F7,Calcs!$E3:$F3,BLAPE!Z1)*10^12</f>
-        <v>-838540000000000.25</v>
+        <f>Calculations!Z3</f>
+        <v>-9.5000000000000005E-6</v>
       </c>
       <c r="AA2" s="4">
-        <f>TREND(Calcs!$E7:$F7,Calcs!$E3:$F3,BLAPE!AA1)*10^12</f>
-        <v>-839600000000000.13</v>
+        <f>Calculations!AA3</f>
+        <v>-9.5000000000000005E-6</v>
       </c>
       <c r="AB2" s="4">
-        <f>TREND(Calcs!$E7:$F7,Calcs!$E3:$F3,BLAPE!AB1)*10^12</f>
-        <v>-840660000000000.13</v>
+        <f>Calculations!AB3</f>
+        <v>-9.5000000000000005E-6</v>
       </c>
       <c r="AC2" s="4">
-        <f>TREND(Calcs!$E7:$F7,Calcs!$E3:$F3,BLAPE!AC1)*10^12</f>
-        <v>-841720000000000</v>
+        <f>Calculations!AC3</f>
+        <v>-9.5000000000000005E-6</v>
       </c>
       <c r="AD2" s="4">
-        <f>TREND(Calcs!$E7:$F7,Calcs!$E3:$F3,BLAPE!AD1)*10^12</f>
-        <v>-842780000000000.38</v>
+        <f>Calculations!AD3</f>
+        <v>-9.5000000000000005E-6</v>
       </c>
       <c r="AE2" s="4">
-        <f>TREND(Calcs!$E7:$F7,Calcs!$E3:$F3,BLAPE!AE1)*10^12</f>
-        <v>-843840000000000.38</v>
+        <f>Calculations!AE3</f>
+        <v>-9.5000000000000005E-6</v>
       </c>
       <c r="AF2" s="4">
-        <f>TREND(Calcs!$E7:$F7,Calcs!$E3:$F3,BLAPE!AF1)*10^12</f>
-        <v>-844900000000000.38</v>
+        <f>Calculations!AF3</f>
+        <v>-9.5000000000000005E-6</v>
       </c>
       <c r="AG2" s="4">
-        <f>TREND(Calcs!$E7:$F7,Calcs!$E3:$F3,BLAPE!AG1)*10^12</f>
-        <v>-845960000000000.25</v>
+        <f>Calculations!AG3</f>
+        <v>-9.5000000000000005E-6</v>
       </c>
       <c r="AH2" s="4">
-        <f>TREND(Calcs!$E7:$F7,Calcs!$E3:$F3,BLAPE!AH1)*10^12</f>
-        <v>-847020000000000.25</v>
+        <f>Calculations!AH3</f>
+        <v>-9.5000000000000005E-6</v>
       </c>
       <c r="AI2" s="4">
-        <f>TREND(Calcs!$E7:$F7,Calcs!$E3:$F3,BLAPE!AI1)*10^12</f>
-        <v>-848080000000000.13</v>
+        <f>Calculations!AI3</f>
+        <v>-9.5000000000000005E-6</v>
       </c>
       <c r="AJ2" s="4">
-        <f>TREND(Calcs!$E7:$F7,Calcs!$E3:$F3,BLAPE!AJ1)*10^12</f>
-        <v>-849140000000000.13</v>
+        <f>Calculations!AJ3</f>
+        <v>-9.5000000000000005E-6</v>
       </c>
       <c r="AK2" s="4">
-        <f>TREND(Calcs!$E7:$F7,Calcs!$E3:$F3,BLAPE!AK1)*10^12</f>
-        <v>-850200000000000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.45">
+        <f>Calculations!AK3</f>
+        <v>-9.5000000000000005E-6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1520,9 +1766,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:37">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1633,9 +1879,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:37">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1746,9 +1992,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:37">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1859,9 +2105,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:37">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1972,9 +2218,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:37">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -2085,9 +2331,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:37">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2198,9 +2444,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:37">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -2311,307 +2557,235 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:37">
       <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="4">
-        <f>B$2*-'data from RPEpUACE'!$B11</f>
-        <v>630301302404.95325</v>
-      </c>
-      <c r="C11" s="4">
-        <f>C$2*-'data from RPEpUACE'!$B11</f>
-        <v>612953072669.63757</v>
-      </c>
-      <c r="D11" s="4">
-        <f>D$2*-'data from RPEpUACE'!$B11</f>
-        <v>595604842934.31714</v>
-      </c>
-      <c r="E11" s="4">
-        <f>E$2*-'data from RPEpUACE'!$B11</f>
-        <v>578256613198.99658</v>
-      </c>
-      <c r="F11" s="4">
-        <f>F$2*-'data from RPEpUACE'!$B11</f>
-        <v>560908383463.68091</v>
-      </c>
-      <c r="G11" s="4">
-        <f>G$2*-'data from RPEpUACE'!$B11</f>
-        <v>543560153728.36041</v>
-      </c>
-      <c r="H11" s="4">
-        <f>H$2*-'data from RPEpUACE'!$B11</f>
-        <v>544264178365.40265</v>
-      </c>
-      <c r="I11" s="4">
-        <f>I$2*-'data from RPEpUACE'!$B11</f>
-        <v>544968203002.44086</v>
-      </c>
-      <c r="J11" s="4">
-        <f>J$2*-'data from RPEpUACE'!$B11</f>
-        <v>545672227639.479</v>
-      </c>
-      <c r="K11" s="4">
-        <f>K$2*-'data from RPEpUACE'!$B11</f>
-        <v>546376252276.51721</v>
-      </c>
-      <c r="L11" s="4">
-        <f>L$2*-'data from RPEpUACE'!$B11</f>
-        <v>547080276913.5553</v>
-      </c>
-      <c r="M11" s="4">
-        <f>M$2*-'data from RPEpUACE'!$B11</f>
-        <v>547784301550.59387</v>
-      </c>
-      <c r="N11" s="4">
-        <f>N$2*-'data from RPEpUACE'!$B11</f>
-        <v>548488326187.63196</v>
-      </c>
-      <c r="O11" s="4">
-        <f>O$2*-'data from RPEpUACE'!$B11</f>
-        <v>549192350824.67017</v>
-      </c>
-      <c r="P11" s="4">
-        <f>P$2*-'data from RPEpUACE'!$B11</f>
-        <v>549896375461.70825</v>
-      </c>
-      <c r="Q11" s="4">
-        <f>Q$2*-'data from RPEpUACE'!$B11</f>
-        <v>550600400098.74646</v>
-      </c>
-      <c r="R11" s="4">
-        <f>R$2*-'data from RPEpUACE'!$B11</f>
-        <v>551304424735.78467</v>
-      </c>
-      <c r="S11" s="4">
-        <f>S$2*-'data from RPEpUACE'!$B11</f>
-        <v>552008449372.82288</v>
-      </c>
-      <c r="T11" s="4">
-        <f>T$2*-'data from RPEpUACE'!$B11</f>
-        <v>552712474009.86133</v>
-      </c>
-      <c r="U11" s="4">
-        <f>U$2*-'data from RPEpUACE'!$B11</f>
-        <v>553416498646.89954</v>
-      </c>
-      <c r="V11" s="4">
-        <f>V$2*-'data from RPEpUACE'!$B11</f>
-        <v>554120523283.93762</v>
-      </c>
-      <c r="W11" s="4">
-        <f>W$2*-'data from RPEpUACE'!$B11</f>
-        <v>554824547920.97583</v>
-      </c>
-      <c r="X11" s="4">
-        <f>X$2*-'data from RPEpUACE'!$B11</f>
-        <v>555528572558.01392</v>
-      </c>
-      <c r="Y11" s="4">
-        <f>Y$2*-'data from RPEpUACE'!$B11</f>
-        <v>556232597195.05212</v>
-      </c>
-      <c r="Z11" s="4">
-        <f>Z$2*-'data from RPEpUACE'!$B11</f>
-        <v>556936621832.09033</v>
-      </c>
-      <c r="AA11" s="4">
-        <f>AA$2*-'data from RPEpUACE'!$B11</f>
-        <v>557640646469.12842</v>
-      </c>
-      <c r="AB11" s="4">
-        <f>AB$2*-'data from RPEpUACE'!$B11</f>
-        <v>558344671106.16663</v>
-      </c>
-      <c r="AC11" s="4">
-        <f>AC$2*-'data from RPEpUACE'!$B11</f>
-        <v>559048695743.20483</v>
-      </c>
-      <c r="AD11" s="4">
-        <f>AD$2*-'data from RPEpUACE'!$B11</f>
-        <v>559752720380.24329</v>
-      </c>
-      <c r="AE11" s="4">
-        <f>AE$2*-'data from RPEpUACE'!$B11</f>
-        <v>560456745017.28149</v>
-      </c>
-      <c r="AF11" s="4">
-        <f>AF$2*-'data from RPEpUACE'!$B11</f>
-        <v>561160769654.3197</v>
-      </c>
-      <c r="AG11" s="4">
-        <f>AG$2*-'data from RPEpUACE'!$B11</f>
-        <v>561864794291.35779</v>
-      </c>
-      <c r="AH11" s="4">
-        <f>AH$2*-'data from RPEpUACE'!$B11</f>
-        <v>562568818928.396</v>
-      </c>
-      <c r="AI11" s="4">
-        <f>AI$2*-'data from RPEpUACE'!$B11</f>
-        <v>563272843565.43408</v>
-      </c>
-      <c r="AJ11" s="4">
-        <f>AJ$2*-'data from RPEpUACE'!$B11</f>
-        <v>563976868202.47229</v>
-      </c>
-      <c r="AK11" s="4">
-        <f>AK$2*-'data from RPEpUACE'!$B11</f>
-        <v>564680892839.51038</v>
-      </c>
-    </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.45">
+        <v>41</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
+      </c>
+      <c r="AJ11">
+        <v>0</v>
+      </c>
+      <c r="AK11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37">
       <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="4">
-        <f>B$2*-'data from RPEpUACE'!$B12</f>
-        <v>36564348582.257988</v>
-      </c>
-      <c r="C12" s="4">
-        <f>C$2*-'data from RPEpUACE'!$B12</f>
-        <v>35557962085.979362</v>
-      </c>
-      <c r="D12" s="4">
-        <f>D$2*-'data from RPEpUACE'!$B12</f>
-        <v>34551575589.700455</v>
-      </c>
-      <c r="E12" s="4">
-        <f>E$2*-'data from RPEpUACE'!$B12</f>
-        <v>33545189093.421547</v>
-      </c>
-      <c r="F12" s="4">
-        <f>F$2*-'data from RPEpUACE'!$B12</f>
-        <v>32538802597.142921</v>
-      </c>
-      <c r="G12" s="4">
-        <f>G$2*-'data from RPEpUACE'!$B12</f>
-        <v>31532416100.864014</v>
-      </c>
-      <c r="H12" s="4">
-        <f>H$2*-'data from RPEpUACE'!$B12</f>
-        <v>31573257206.762241</v>
-      </c>
-      <c r="I12" s="4">
-        <f>I$2*-'data from RPEpUACE'!$B12</f>
-        <v>31614098312.660233</v>
-      </c>
-      <c r="J12" s="4">
-        <f>J$2*-'data from RPEpUACE'!$B12</f>
-        <v>31654939418.55822</v>
-      </c>
-      <c r="K12" s="4">
-        <f>K$2*-'data from RPEpUACE'!$B12</f>
-        <v>31695780524.456211</v>
-      </c>
-      <c r="L12" s="4">
-        <f>L$2*-'data from RPEpUACE'!$B12</f>
-        <v>31736621630.354198</v>
-      </c>
-      <c r="M12" s="4">
-        <f>M$2*-'data from RPEpUACE'!$B12</f>
-        <v>31777462736.252209</v>
-      </c>
-      <c r="N12" s="4">
-        <f>N$2*-'data from RPEpUACE'!$B12</f>
-        <v>31818303842.150196</v>
-      </c>
-      <c r="O12" s="4">
-        <f>O$2*-'data from RPEpUACE'!$B12</f>
-        <v>31859144948.048187</v>
-      </c>
-      <c r="P12" s="4">
-        <f>P$2*-'data from RPEpUACE'!$B12</f>
-        <v>31899986053.946175</v>
-      </c>
-      <c r="Q12" s="4">
-        <f>Q$2*-'data from RPEpUACE'!$B12</f>
-        <v>31940827159.844166</v>
-      </c>
-      <c r="R12" s="4">
-        <f>R$2*-'data from RPEpUACE'!$B12</f>
-        <v>31981668265.742149</v>
-      </c>
-      <c r="S12" s="4">
-        <f>S$2*-'data from RPEpUACE'!$B12</f>
-        <v>32022509371.640141</v>
-      </c>
-      <c r="T12" s="4">
-        <f>T$2*-'data from RPEpUACE'!$B12</f>
-        <v>32063350477.538147</v>
-      </c>
-      <c r="U12" s="4">
-        <f>U$2*-'data from RPEpUACE'!$B12</f>
-        <v>32104191583.436138</v>
-      </c>
-      <c r="V12" s="4">
-        <f>V$2*-'data from RPEpUACE'!$B12</f>
-        <v>32145032689.334126</v>
-      </c>
-      <c r="W12" s="4">
-        <f>W$2*-'data from RPEpUACE'!$B12</f>
-        <v>32185873795.232117</v>
-      </c>
-      <c r="X12" s="4">
-        <f>X$2*-'data from RPEpUACE'!$B12</f>
-        <v>32226714901.130104</v>
-      </c>
-      <c r="Y12" s="4">
-        <f>Y$2*-'data from RPEpUACE'!$B12</f>
-        <v>32267556007.028095</v>
-      </c>
-      <c r="Z12" s="4">
-        <f>Z$2*-'data from RPEpUACE'!$B12</f>
-        <v>32308397112.926086</v>
-      </c>
-      <c r="AA12" s="4">
-        <f>AA$2*-'data from RPEpUACE'!$B12</f>
-        <v>32349238218.824074</v>
-      </c>
-      <c r="AB12" s="4">
-        <f>AB$2*-'data from RPEpUACE'!$B12</f>
-        <v>32390079324.722065</v>
-      </c>
-      <c r="AC12" s="4">
-        <f>AC$2*-'data from RPEpUACE'!$B12</f>
-        <v>32430920430.620049</v>
-      </c>
-      <c r="AD12" s="4">
-        <f>AD$2*-'data from RPEpUACE'!$B12</f>
-        <v>32471761536.518055</v>
-      </c>
-      <c r="AE12" s="4">
-        <f>AE$2*-'data from RPEpUACE'!$B12</f>
-        <v>32512602642.416046</v>
-      </c>
-      <c r="AF12" s="4">
-        <f>AF$2*-'data from RPEpUACE'!$B12</f>
-        <v>32553443748.314037</v>
-      </c>
-      <c r="AG12" s="4">
-        <f>AG$2*-'data from RPEpUACE'!$B12</f>
-        <v>32594284854.212025</v>
-      </c>
-      <c r="AH12" s="4">
-        <f>AH$2*-'data from RPEpUACE'!$B12</f>
-        <v>32635125960.110016</v>
-      </c>
-      <c r="AI12" s="4">
-        <f>AI$2*-'data from RPEpUACE'!$B12</f>
-        <v>32675967066.008003</v>
-      </c>
-      <c r="AJ12" s="4">
-        <f>AJ$2*-'data from RPEpUACE'!$B12</f>
-        <v>32716808171.905994</v>
-      </c>
-      <c r="AK12" s="4">
-        <f>AK$2*-'data from RPEpUACE'!$B12</f>
-        <v>32757649277.803982</v>
-      </c>
-    </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.45">
+        <v>42</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
+      </c>
+      <c r="AJ12">
+        <v>0</v>
+      </c>
+      <c r="AK12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2725,4 +2899,288 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6681120aa8fa62dd7a0beb503524cb55">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b98e8ac0331400a99b3dbea3ee620024" ns2:_="" ns3:_="" ns4:_="">
+    <xsd:import namespace="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
+    <xsd:import namespace="de340059-046a-4f1a-8b62-ade039df3700"/>
+    <xsd:import namespace="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:l787e5950a9249679d0130235a9a791b" minOccurs="0"/>
+                <xsd:element ref="ns2:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:ff7c4ad8664a4671b57370e258acad6a" minOccurs="0"/>
+                <xsd:element ref="ns2:of2ed5e60f3c4f8984f283882cb94320" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="52604411-7aeb-406e-8b34-4ce79a7293cc" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="l787e5950a9249679d0130235a9a791b" ma:index="9" nillable="true" ma:taxonomy="true" ma:internalName="l787e5950a9249679d0130235a9a791b" ma:taxonomyFieldName="ProposedRetention" ma:displayName="ProposedRetention" ma:default="" ma:fieldId="{5787e595-0a92-4967-9d01-30235a9a791b}" ma:sspId="a296b89e-8abc-49db-b68e-edd9bb7809e5" ma:termSetId="1899fd67-b032-445b-9d35-9f66b9475fa9" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="10" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{e351e87d-f0a7-48fd-ab84-339d8843ff25}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="d580559a-617d-4d7d-8fb9-71ff64b58360">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="ff7c4ad8664a4671b57370e258acad6a" ma:index="12" nillable="true" ma:taxonomy="true" ma:internalName="ff7c4ad8664a4671b57370e258acad6a" ma:taxonomyFieldName="Region" ma:displayName="Region" ma:default="" ma:fieldId="{ff7c4ad8-664a-4671-b573-70e258acad6a}" ma:sspId="a296b89e-8abc-49db-b68e-edd9bb7809e5" ma:termSetId="d0ef5e64-ccf8-4d0f-8f9e-d1bc0965d8f9" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="of2ed5e60f3c4f8984f283882cb94320" ma:index="14" nillable="true" ma:taxonomy="true" ma:internalName="of2ed5e60f3c4f8984f283882cb94320" ma:taxonomyFieldName="Topics" ma:displayName="Topics" ma:default="" ma:fieldId="{8f2ed5e6-0f3c-4f89-84f2-83882cb94320}" ma:taxonomyMulti="true" ma:sspId="a296b89e-8abc-49db-b68e-edd9bb7809e5" ma:termSetId="638057b0-b21b-42a9-a985-95f1f9da3292" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="de340059-046a-4f1a-8b62-ade039df3700" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="15" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="16" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="19" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="20" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="21" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="22" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="23" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="24" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="d580559a-617d-4d7d-8fb9-71ff64b58360" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <of2ed5e60f3c4f8984f283882cb94320 xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </of2ed5e60f3c4f8984f283882cb94320>
+    <ff7c4ad8664a4671b57370e258acad6a xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ff7c4ad8664a4671b57370e258acad6a>
+    <l787e5950a9249679d0130235a9a791b xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </l787e5950a9249679d0130235a9a791b>
+    <TaxCatchAll xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36F99FC2-7078-44E3-8DBC-10C4812E7462}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18F5C38C-50C9-42E7-8E43-7E5467D45C6B}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA861F6F-5B78-491C-8A8D-F667F1C3C913}"/>
 </file>
--- a/InputData/land/BLAPE/BAU LULUCF Anthro Pollutant Emis.xlsx
+++ b/InputData/land/BLAPE/BAU LULUCF Anthro Pollutant Emis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25329"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pembinainstitute.sharepoint.com/sites/PRO-EnergyPolicySimulator2021/Shared Documents/Research and Analysis/CANADA-inputData/land/BLAPE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="136" documentId="11_5405EDD4148383FD4B3BD6143CB5EE8768C9057E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{631B912B-FEBB-4991-A5CE-945AEE0E0370}"/>
+  <xr:revisionPtr revIDLastSave="142" documentId="11_5405EDD4148383FD4B3BD6143CB5EE8768C9057E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ED03DE5E-D926-462F-87D4-CFA3F0C480B4}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -261,7 +262,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -277,6 +278,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -690,7 +692,7 @@
   <dimension ref="A2:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -919,8 +921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F50C48F9-6946-F243-8F07-D84A3D2FE82A}">
   <dimension ref="A1:AK13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -1192,148 +1194,148 @@
         <v>27</v>
       </c>
       <c r="B3" s="9">
-        <f>B2/(10^9)</f>
-        <v>-1.5999999999999999E-5</v>
+        <f>B2*(10^9)</f>
+        <v>-16000000000000</v>
       </c>
       <c r="C3" s="9">
-        <f t="shared" ref="C3:F3" si="1">C2/(10^9)</f>
-        <v>-1.7E-5</v>
+        <f t="shared" ref="C3:AK3" si="1">C2*(10^9)</f>
+        <v>-17000000000000</v>
       </c>
       <c r="D3" s="9">
         <f t="shared" si="1"/>
-        <v>-1.5E-5</v>
+        <v>-15000000000000</v>
       </c>
       <c r="E3" s="9">
         <f t="shared" si="1"/>
-        <v>-1.1E-5</v>
+        <v>-11000000000000</v>
       </c>
       <c r="F3" s="9">
         <f t="shared" si="1"/>
-        <v>-1.0499999999999999E-5</v>
+        <v>-10500000000000</v>
       </c>
       <c r="G3" s="9">
-        <f t="shared" ref="G3" si="2">G2/(10^9)</f>
-        <v>-1.2999999999999999E-5</v>
+        <f t="shared" si="1"/>
+        <v>-13000000000000</v>
       </c>
       <c r="H3" s="9">
-        <f t="shared" ref="H3" si="3">H2/(10^9)</f>
-        <v>-1.2649999999999999E-5</v>
+        <f t="shared" si="1"/>
+        <v>-12650000000000</v>
       </c>
       <c r="I3" s="9">
-        <f t="shared" ref="I3" si="4">I2/(10^9)</f>
-        <v>-1.2300000000000001E-5</v>
+        <f t="shared" si="1"/>
+        <v>-12300000000000</v>
       </c>
       <c r="J3" s="9">
-        <f t="shared" ref="J3" si="5">J2/(10^9)</f>
-        <v>-1.1950000000000001E-5</v>
+        <f t="shared" si="1"/>
+        <v>-11950000000000</v>
       </c>
       <c r="K3" s="9">
-        <f t="shared" ref="K3" si="6">K2/(10^9)</f>
-        <v>-1.1600000000000001E-5</v>
+        <f t="shared" si="1"/>
+        <v>-11600000000000</v>
       </c>
       <c r="L3" s="9">
-        <f t="shared" ref="L3" si="7">L2/(10^9)</f>
-        <v>-1.1250000000000001E-5</v>
+        <f t="shared" si="1"/>
+        <v>-11250000000000</v>
       </c>
       <c r="M3" s="9">
-        <f t="shared" ref="M3" si="8">M2/(10^9)</f>
-        <v>-1.0900000000000001E-5</v>
+        <f t="shared" si="1"/>
+        <v>-10900000000000</v>
       </c>
       <c r="N3" s="9">
-        <f t="shared" ref="N3" si="9">N2/(10^9)</f>
-        <v>-1.0550000000000001E-5</v>
+        <f t="shared" si="1"/>
+        <v>-10550000000000</v>
       </c>
       <c r="O3" s="9">
-        <f t="shared" ref="O3" si="10">O2/(10^9)</f>
-        <v>-1.0200000000000001E-5</v>
+        <f t="shared" si="1"/>
+        <v>-10200000000000</v>
       </c>
       <c r="P3" s="9">
-        <f t="shared" ref="P3" si="11">P2/(10^9)</f>
-        <v>-9.8500000000000006E-6</v>
+        <f t="shared" si="1"/>
+        <v>-9850000000000</v>
       </c>
       <c r="Q3" s="9">
-        <f t="shared" ref="Q3" si="12">Q2/(10^9)</f>
-        <v>-9.5000000000000005E-6</v>
+        <f t="shared" si="1"/>
+        <v>-9500000000000</v>
       </c>
       <c r="R3" s="9">
-        <f t="shared" ref="R3" si="13">R2/(10^9)</f>
-        <v>-9.5000000000000005E-6</v>
+        <f t="shared" si="1"/>
+        <v>-9500000000000</v>
       </c>
       <c r="S3" s="9">
-        <f t="shared" ref="S3" si="14">S2/(10^9)</f>
-        <v>-9.5000000000000005E-6</v>
+        <f t="shared" si="1"/>
+        <v>-9500000000000</v>
       </c>
       <c r="T3" s="9">
-        <f t="shared" ref="T3" si="15">T2/(10^9)</f>
-        <v>-9.5000000000000005E-6</v>
+        <f t="shared" si="1"/>
+        <v>-9500000000000</v>
       </c>
       <c r="U3" s="9">
-        <f t="shared" ref="U3" si="16">U2/(10^9)</f>
-        <v>-9.5000000000000005E-6</v>
+        <f t="shared" si="1"/>
+        <v>-9500000000000</v>
       </c>
       <c r="V3" s="9">
-        <f t="shared" ref="V3" si="17">V2/(10^9)</f>
-        <v>-9.5000000000000005E-6</v>
+        <f t="shared" si="1"/>
+        <v>-9500000000000</v>
       </c>
       <c r="W3" s="9">
-        <f t="shared" ref="W3" si="18">W2/(10^9)</f>
-        <v>-9.5000000000000005E-6</v>
+        <f t="shared" si="1"/>
+        <v>-9500000000000</v>
       </c>
       <c r="X3" s="9">
-        <f t="shared" ref="X3" si="19">X2/(10^9)</f>
-        <v>-9.5000000000000005E-6</v>
+        <f t="shared" si="1"/>
+        <v>-9500000000000</v>
       </c>
       <c r="Y3" s="9">
-        <f t="shared" ref="Y3" si="20">Y2/(10^9)</f>
-        <v>-9.5000000000000005E-6</v>
+        <f t="shared" si="1"/>
+        <v>-9500000000000</v>
       </c>
       <c r="Z3" s="9">
-        <f t="shared" ref="Z3" si="21">Z2/(10^9)</f>
-        <v>-9.5000000000000005E-6</v>
+        <f t="shared" si="1"/>
+        <v>-9500000000000</v>
       </c>
       <c r="AA3" s="9">
-        <f t="shared" ref="AA3" si="22">AA2/(10^9)</f>
-        <v>-9.5000000000000005E-6</v>
+        <f t="shared" si="1"/>
+        <v>-9500000000000</v>
       </c>
       <c r="AB3" s="9">
-        <f t="shared" ref="AB3" si="23">AB2/(10^9)</f>
-        <v>-9.5000000000000005E-6</v>
+        <f t="shared" si="1"/>
+        <v>-9500000000000</v>
       </c>
       <c r="AC3" s="9">
-        <f t="shared" ref="AC3" si="24">AC2/(10^9)</f>
-        <v>-9.5000000000000005E-6</v>
+        <f t="shared" si="1"/>
+        <v>-9500000000000</v>
       </c>
       <c r="AD3" s="9">
-        <f t="shared" ref="AD3" si="25">AD2/(10^9)</f>
-        <v>-9.5000000000000005E-6</v>
+        <f t="shared" si="1"/>
+        <v>-9500000000000</v>
       </c>
       <c r="AE3" s="9">
-        <f t="shared" ref="AE3" si="26">AE2/(10^9)</f>
-        <v>-9.5000000000000005E-6</v>
+        <f t="shared" si="1"/>
+        <v>-9500000000000</v>
       </c>
       <c r="AF3" s="9">
-        <f t="shared" ref="AF3" si="27">AF2/(10^9)</f>
-        <v>-9.5000000000000005E-6</v>
+        <f t="shared" si="1"/>
+        <v>-9500000000000</v>
       </c>
       <c r="AG3" s="9">
-        <f t="shared" ref="AG3" si="28">AG2/(10^9)</f>
-        <v>-9.5000000000000005E-6</v>
+        <f t="shared" si="1"/>
+        <v>-9500000000000</v>
       </c>
       <c r="AH3" s="9">
-        <f t="shared" ref="AH3" si="29">AH2/(10^9)</f>
-        <v>-9.5000000000000005E-6</v>
+        <f t="shared" si="1"/>
+        <v>-9500000000000</v>
       </c>
       <c r="AI3" s="9">
-        <f t="shared" ref="AI3" si="30">AI2/(10^9)</f>
-        <v>-9.5000000000000005E-6</v>
+        <f t="shared" si="1"/>
+        <v>-9500000000000</v>
       </c>
       <c r="AJ3" s="9">
-        <f t="shared" ref="AJ3" si="31">AJ2/(10^9)</f>
-        <v>-9.5000000000000005E-6</v>
+        <f t="shared" si="1"/>
+        <v>-9500000000000</v>
       </c>
       <c r="AK3" s="9">
-        <f t="shared" ref="AK3" si="32">AK2/(10^9)</f>
-        <v>-9.5000000000000005E-6</v>
+        <f t="shared" si="1"/>
+        <v>-9500000000000</v>
       </c>
     </row>
     <row r="6" spans="1:37">
@@ -1381,8 +1383,8 @@
   </sheetPr>
   <dimension ref="A1:AK13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1504,153 +1506,153 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:37">
-      <c r="A2" t="s">
+    <row r="2" spans="1:37" s="11" customFormat="1">
+      <c r="A2" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="11">
         <f>Calculations!B3</f>
-        <v>-1.5999999999999999E-5</v>
-      </c>
-      <c r="C2" s="4">
+        <v>-16000000000000</v>
+      </c>
+      <c r="C2" s="11">
         <f>Calculations!C3</f>
-        <v>-1.7E-5</v>
-      </c>
-      <c r="D2" s="4">
+        <v>-17000000000000</v>
+      </c>
+      <c r="D2" s="11">
         <f>Calculations!D3</f>
-        <v>-1.5E-5</v>
-      </c>
-      <c r="E2" s="4">
+        <v>-15000000000000</v>
+      </c>
+      <c r="E2" s="11">
         <f>Calculations!E3</f>
-        <v>-1.1E-5</v>
-      </c>
-      <c r="F2" s="4">
+        <v>-11000000000000</v>
+      </c>
+      <c r="F2" s="11">
         <f>Calculations!F3</f>
-        <v>-1.0499999999999999E-5</v>
-      </c>
-      <c r="G2" s="4">
+        <v>-10500000000000</v>
+      </c>
+      <c r="G2" s="11">
         <f>Calculations!G3</f>
-        <v>-1.2999999999999999E-5</v>
-      </c>
-      <c r="H2" s="4">
+        <v>-13000000000000</v>
+      </c>
+      <c r="H2" s="11">
         <f>Calculations!H3</f>
-        <v>-1.2649999999999999E-5</v>
-      </c>
-      <c r="I2" s="4">
+        <v>-12650000000000</v>
+      </c>
+      <c r="I2" s="11">
         <f>Calculations!I3</f>
-        <v>-1.2300000000000001E-5</v>
-      </c>
-      <c r="J2" s="4">
+        <v>-12300000000000</v>
+      </c>
+      <c r="J2" s="11">
         <f>Calculations!J3</f>
-        <v>-1.1950000000000001E-5</v>
-      </c>
-      <c r="K2" s="4">
+        <v>-11950000000000</v>
+      </c>
+      <c r="K2" s="11">
         <f>Calculations!K3</f>
-        <v>-1.1600000000000001E-5</v>
-      </c>
-      <c r="L2" s="4">
+        <v>-11600000000000</v>
+      </c>
+      <c r="L2" s="11">
         <f>Calculations!L3</f>
-        <v>-1.1250000000000001E-5</v>
-      </c>
-      <c r="M2" s="4">
+        <v>-11250000000000</v>
+      </c>
+      <c r="M2" s="11">
         <f>Calculations!M3</f>
-        <v>-1.0900000000000001E-5</v>
-      </c>
-      <c r="N2" s="4">
+        <v>-10900000000000</v>
+      </c>
+      <c r="N2" s="11">
         <f>Calculations!N3</f>
-        <v>-1.0550000000000001E-5</v>
-      </c>
-      <c r="O2" s="4">
+        <v>-10550000000000</v>
+      </c>
+      <c r="O2" s="11">
         <f>Calculations!O3</f>
-        <v>-1.0200000000000001E-5</v>
-      </c>
-      <c r="P2" s="4">
+        <v>-10200000000000</v>
+      </c>
+      <c r="P2" s="11">
         <f>Calculations!P3</f>
-        <v>-9.8500000000000006E-6</v>
-      </c>
-      <c r="Q2" s="4">
+        <v>-9850000000000</v>
+      </c>
+      <c r="Q2" s="11">
         <f>Calculations!Q3</f>
-        <v>-9.5000000000000005E-6</v>
-      </c>
-      <c r="R2" s="4">
+        <v>-9500000000000</v>
+      </c>
+      <c r="R2" s="11">
         <f>Calculations!R3</f>
-        <v>-9.5000000000000005E-6</v>
-      </c>
-      <c r="S2" s="4">
+        <v>-9500000000000</v>
+      </c>
+      <c r="S2" s="11">
         <f>Calculations!S3</f>
-        <v>-9.5000000000000005E-6</v>
-      </c>
-      <c r="T2" s="4">
+        <v>-9500000000000</v>
+      </c>
+      <c r="T2" s="11">
         <f>Calculations!T3</f>
-        <v>-9.5000000000000005E-6</v>
-      </c>
-      <c r="U2" s="4">
+        <v>-9500000000000</v>
+      </c>
+      <c r="U2" s="11">
         <f>Calculations!U3</f>
-        <v>-9.5000000000000005E-6</v>
-      </c>
-      <c r="V2" s="4">
+        <v>-9500000000000</v>
+      </c>
+      <c r="V2" s="11">
         <f>Calculations!V3</f>
-        <v>-9.5000000000000005E-6</v>
-      </c>
-      <c r="W2" s="4">
+        <v>-9500000000000</v>
+      </c>
+      <c r="W2" s="11">
         <f>Calculations!W3</f>
-        <v>-9.5000000000000005E-6</v>
-      </c>
-      <c r="X2" s="4">
+        <v>-9500000000000</v>
+      </c>
+      <c r="X2" s="11">
         <f>Calculations!X3</f>
-        <v>-9.5000000000000005E-6</v>
-      </c>
-      <c r="Y2" s="4">
+        <v>-9500000000000</v>
+      </c>
+      <c r="Y2" s="11">
         <f>Calculations!Y3</f>
-        <v>-9.5000000000000005E-6</v>
-      </c>
-      <c r="Z2" s="4">
+        <v>-9500000000000</v>
+      </c>
+      <c r="Z2" s="11">
         <f>Calculations!Z3</f>
-        <v>-9.5000000000000005E-6</v>
-      </c>
-      <c r="AA2" s="4">
+        <v>-9500000000000</v>
+      </c>
+      <c r="AA2" s="11">
         <f>Calculations!AA3</f>
-        <v>-9.5000000000000005E-6</v>
-      </c>
-      <c r="AB2" s="4">
+        <v>-9500000000000</v>
+      </c>
+      <c r="AB2" s="11">
         <f>Calculations!AB3</f>
-        <v>-9.5000000000000005E-6</v>
-      </c>
-      <c r="AC2" s="4">
+        <v>-9500000000000</v>
+      </c>
+      <c r="AC2" s="11">
         <f>Calculations!AC3</f>
-        <v>-9.5000000000000005E-6</v>
-      </c>
-      <c r="AD2" s="4">
+        <v>-9500000000000</v>
+      </c>
+      <c r="AD2" s="11">
         <f>Calculations!AD3</f>
-        <v>-9.5000000000000005E-6</v>
-      </c>
-      <c r="AE2" s="4">
+        <v>-9500000000000</v>
+      </c>
+      <c r="AE2" s="11">
         <f>Calculations!AE3</f>
-        <v>-9.5000000000000005E-6</v>
-      </c>
-      <c r="AF2" s="4">
+        <v>-9500000000000</v>
+      </c>
+      <c r="AF2" s="11">
         <f>Calculations!AF3</f>
-        <v>-9.5000000000000005E-6</v>
-      </c>
-      <c r="AG2" s="4">
+        <v>-9500000000000</v>
+      </c>
+      <c r="AG2" s="11">
         <f>Calculations!AG3</f>
-        <v>-9.5000000000000005E-6</v>
-      </c>
-      <c r="AH2" s="4">
+        <v>-9500000000000</v>
+      </c>
+      <c r="AH2" s="11">
         <f>Calculations!AH3</f>
-        <v>-9.5000000000000005E-6</v>
-      </c>
-      <c r="AI2" s="4">
+        <v>-9500000000000</v>
+      </c>
+      <c r="AI2" s="11">
         <f>Calculations!AI3</f>
-        <v>-9.5000000000000005E-6</v>
-      </c>
-      <c r="AJ2" s="4">
+        <v>-9500000000000</v>
+      </c>
+      <c r="AJ2" s="11">
         <f>Calculations!AJ3</f>
-        <v>-9.5000000000000005E-6</v>
-      </c>
-      <c r="AK2" s="4">
+        <v>-9500000000000</v>
+      </c>
+      <c r="AK2" s="11">
         <f>Calculations!AK3</f>
-        <v>-9.5000000000000005E-6</v>
+        <v>-9500000000000</v>
       </c>
     </row>
     <row r="3" spans="1:37">
@@ -2902,6 +2904,32 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <of2ed5e60f3c4f8984f283882cb94320 xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </of2ed5e60f3c4f8984f283882cb94320>
+    <ff7c4ad8664a4671b57370e258acad6a xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ff7c4ad8664a4671b57370e258acad6a>
+    <l787e5950a9249679d0130235a9a791b xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </l787e5950a9249679d0130235a9a791b>
+    <TaxCatchAll xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6681120aa8fa62dd7a0beb503524cb55">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b98e8ac0331400a99b3dbea3ee620024" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
@@ -3147,34 +3175,8 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <of2ed5e60f3c4f8984f283882cb94320 xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </of2ed5e60f3c4f8984f283882cb94320>
-    <ff7c4ad8664a4671b57370e258acad6a xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ff7c4ad8664a4671b57370e258acad6a>
-    <l787e5950a9249679d0130235a9a791b xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </l787e5950a9249679d0130235a9a791b>
-    <TaxCatchAll xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36F99FC2-7078-44E3-8DBC-10C4812E7462}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA861F6F-5B78-491C-8A8D-F667F1C3C913}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3182,5 +3184,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA861F6F-5B78-491C-8A8D-F667F1C3C913}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36F99FC2-7078-44E3-8DBC-10C4812E7462}"/>
 </file>
--- a/InputData/land/BLAPE/BAU LULUCF Anthro Pollutant Emis.xlsx
+++ b/InputData/land/BLAPE/BAU LULUCF Anthro Pollutant Emis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pembinainstitute.sharepoint.com/sites/PRO-EnergyPolicySimulator2021/Shared Documents/Research and Analysis/CANADA-inputData/land/BLAPE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="423" documentId="11_5405EDD4148383FD4B3BD6143CB5EE8768C9057E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A473F1FC-005F-4BF7-AD29-84E1F6DED234}"/>
+  <xr:revisionPtr revIDLastSave="476" documentId="11_5405EDD4148383FD4B3BD6143CB5EE8768C9057E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4D7D1A2E-C809-492B-B730-704FC55BB055}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1005" yWindow="3315" windowWidth="28830" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="78">
   <si>
     <t>BLAPE BAU LULUCF Anthropogenic Pollutant Emissions</t>
   </si>
@@ -286,6 +286,12 @@
   </si>
   <si>
     <t>Natural Climate Solutions for Canada</t>
+  </si>
+  <si>
+    <t>straight line calculation from 2035 to 2050</t>
+  </si>
+  <si>
+    <t>Straight line calculation applied to smooth out trend from 2035 to 2050, based on average</t>
   </si>
 </sst>
 </file>
@@ -1038,6 +1044,2187 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Calculations!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CO2 (kt)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Calculations!$B$1:$AK$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2036</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2037</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2038</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2041</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2042</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2043</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2046</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2047</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2050</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Calculations!$B$2:$AK$2</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-9500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-16000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-7200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-15000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-5700</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-6130</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-6560</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-6990</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-7420</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-7850</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-8280</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-8710</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-9140</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-9570</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-10000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-9660</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-9320</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-8980</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-8640</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-8300</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-9882.5850340136094</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-9954.2857142857101</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-10025.986394557811</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-10097.687074829912</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-10169.387755102041</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-10241.088435374142</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-10312.789115646243</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-10384.489795918373</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-10456.190476190473</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-10527.891156462574</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-10599.591836734675</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-10671.292517006805</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-10742.993197278905</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-10814.693877551006</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-10886.394557823136</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7D52-4596-9254-608D5DD9A027}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Calculations!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CO2 (g)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Calculations!$B$1:$AK$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2036</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2037</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2038</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2041</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2042</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2043</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2046</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2047</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2050</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Calculations!$B$3:$AK$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>1100000000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-9500000000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-16000000000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-7200000000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-15000000000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-5700000000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-6130000000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-6560000000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-6990000000000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-7420000000000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-7850000000000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-8280000000000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-8710000000000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-9140000000000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-9570000000000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-10000000000000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-9660000000000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-9320000000000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-8980000000000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-8640000000000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-8300000000000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-9882585034013.6094</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-9954285714285.7109</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-10025986394557.811</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-10097687074829.912</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-10169387755102.041</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-10241088435374.143</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-10312789115646.242</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-10384489795918.373</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-10456190476190.473</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-10527891156462.574</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-10599591836734.676</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-10671292517006.805</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-10742993197278.906</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-10814693877551.006</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-10886394557823.137</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7D52-4596-9254-608D5DD9A027}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1083718095"/>
+        <c:axId val="1083735375"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1083718095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1083735375"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1083735375"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1083718095"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Calculations!$A$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CO2 (kt)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Calculations!$F$26:$AK$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2036</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2037</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2038</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2041</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2042</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2043</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2046</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2047</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2050</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Calculations!$F$27:$AK$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>-15000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-5700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-6130</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-6560</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-6990</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-7420</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-7850</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-8280</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-8710</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-9140</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-9570</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-10000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-9660</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-9320</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-8980</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-8640</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="#,##0">
+                  <c:v>-8300</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="#,##0">
+                  <c:v>-8472.4263038548761</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="#,##0">
+                  <c:v>-8644.8526077097522</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="#,##0">
+                  <c:v>-8817.2789115646283</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="#,##0">
+                  <c:v>-8989.7052154195044</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="#,##0">
+                  <c:v>-9162.1315192743805</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="#,##0">
+                  <c:v>-9334.5578231292566</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="#,##0">
+                  <c:v>-9506.9841269841327</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="#,##0">
+                  <c:v>-9679.4104308390088</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="#,##0">
+                  <c:v>-9851.8367346938849</c:v>
+                </c:pt>
+                <c:pt idx="26" formatCode="#,##0">
+                  <c:v>-10024.263038548761</c:v>
+                </c:pt>
+                <c:pt idx="27" formatCode="#,##0">
+                  <c:v>-10196.689342403637</c:v>
+                </c:pt>
+                <c:pt idx="28" formatCode="#,##0">
+                  <c:v>-10369.115646258513</c:v>
+                </c:pt>
+                <c:pt idx="29" formatCode="#,##0">
+                  <c:v>-10541.541950113389</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="#,##0">
+                  <c:v>-10713.968253968265</c:v>
+                </c:pt>
+                <c:pt idx="31" formatCode="#,##0">
+                  <c:v>-10886.394557823136</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-00C6-4E85-8C44-B075FFD19194}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Calculations!$A$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CO2 (g)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Calculations!$F$26:$AK$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2036</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2037</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2038</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2041</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2042</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2043</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2046</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2047</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2050</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Calculations!$F$28:$AK$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>-15000000000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-5700000000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-6130000000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-6560000000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-6990000000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-7420000000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-7850000000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-8280000000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-8710000000000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-9140000000000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-9570000000000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-10000000000000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-9660000000000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-9320000000000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-8980000000000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-8640000000000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-8300000000000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-8472426303854.876</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-8644852607709.752</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-8817278911564.6289</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-8989705215419.5039</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-9162131519274.3809</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-9334557823129.2559</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-9506984126984.1328</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-9679410430839.0078</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-9851836734693.8848</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-10024263038548.762</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-10196689342403.637</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-10369115646258.514</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-10541541950113.389</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-10713968253968.266</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-10886394557823.137</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-00C6-4E85-8C44-B075FFD19194}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="448963840"/>
+        <c:axId val="448988800"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="448963840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="448988800"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="448988800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="448963840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Calculations!$A$48</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CO2 (kt)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Calculations!$F$47:$AK$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2036</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2037</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2038</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2041</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2042</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2043</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2046</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2047</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2050</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Calculations!$F$48:$AK$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>-15000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-5700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-6130</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-6560</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-6990</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-7420</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-7850</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-8280</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-8710</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-9140</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-9570</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-10000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-9524.0816326530476</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-9595.7823129251774</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-9667.4829931972781</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-9739.1836734693788</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-9810.8843537414796</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-9882.5850340136094</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-9954.2857142857101</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-10025.986394557811</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-10097.687074829912</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-10169.387755102041</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-10241.088435374142</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-10312.789115646243</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-10384.489795918373</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-10456.190476190473</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-10527.891156462574</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-10599.591836734675</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-10671.292517006805</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-10742.993197278905</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-10814.693877551006</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-10886.394557823136</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AE99-4532-BEEE-FDF01157AC04}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Calculations!$A$49</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CO2 (g)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Calculations!$F$47:$AK$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2036</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2037</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2038</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2041</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2042</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2043</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2046</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2047</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2050</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Calculations!$F$49:$AK$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>-15000000000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-5700000000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-6130000000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-6560000000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-6990000000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-7420000000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-7850000000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-8280000000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-8710000000000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-9140000000000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-9570000000000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-10000000000000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-9524081632653.0469</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-9595782312925.1777</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-9667482993197.2773</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-9739183673469.3789</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-9810884353741.4805</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-9882585034013.6094</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-9954285714285.7109</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-10025986394557.811</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-10097687074829.912</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-10169387755102.041</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-10241088435374.143</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-10312789115646.242</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-10384489795918.373</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-10456190476190.473</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-10527891156462.574</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-10599591836734.676</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-10671292517006.805</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-10742993197278.906</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-10814693877551.006</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-10886394557823.137</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AE99-4532-BEEE-FDF01157AC04}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1085389503"/>
+        <c:axId val="1085385183"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1085389503"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1085385183"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1085385183"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1085389503"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1118,6 +3305,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -1635,6 +3942,1554 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2219,6 +6074,119 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2628523-BAE6-9DF0-607B-8D14B27A82E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3953C987-DE57-E70C-C3D9-5599271FC9B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5046B429-150A-D6FA-CD00-52CB79BB2CA9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2550,8 +6518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2631,8 +6599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDC65964-AC57-4F16-9CCC-2FF63904A811}">
   <dimension ref="A2:O72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3179,13 +7147,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F50C48F9-6946-F243-8F07-D84A3D2FE82A}">
-  <dimension ref="A1:AK16"/>
+  <dimension ref="A1:AK49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="N24" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47:AK49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="23" max="24" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -3743,9 +7714,822 @@
         <v>29</v>
       </c>
     </row>
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26">
+        <v>2015</v>
+      </c>
+      <c r="C26">
+        <v>2016</v>
+      </c>
+      <c r="D26">
+        <v>2017</v>
+      </c>
+      <c r="E26">
+        <v>2018</v>
+      </c>
+      <c r="F26">
+        <v>2019</v>
+      </c>
+      <c r="G26">
+        <v>2020</v>
+      </c>
+      <c r="H26">
+        <v>2021</v>
+      </c>
+      <c r="I26">
+        <v>2022</v>
+      </c>
+      <c r="J26">
+        <v>2023</v>
+      </c>
+      <c r="K26">
+        <v>2024</v>
+      </c>
+      <c r="L26">
+        <v>2025</v>
+      </c>
+      <c r="M26">
+        <v>2026</v>
+      </c>
+      <c r="N26">
+        <v>2027</v>
+      </c>
+      <c r="O26">
+        <v>2028</v>
+      </c>
+      <c r="P26">
+        <v>2029</v>
+      </c>
+      <c r="Q26">
+        <v>2030</v>
+      </c>
+      <c r="R26">
+        <v>2031</v>
+      </c>
+      <c r="S26">
+        <v>2032</v>
+      </c>
+      <c r="T26">
+        <v>2033</v>
+      </c>
+      <c r="U26">
+        <v>2034</v>
+      </c>
+      <c r="V26">
+        <v>2035</v>
+      </c>
+      <c r="W26">
+        <v>2036</v>
+      </c>
+      <c r="X26">
+        <v>2037</v>
+      </c>
+      <c r="Y26">
+        <v>2038</v>
+      </c>
+      <c r="Z26">
+        <v>2039</v>
+      </c>
+      <c r="AA26">
+        <v>2040</v>
+      </c>
+      <c r="AB26">
+        <v>2041</v>
+      </c>
+      <c r="AC26">
+        <v>2042</v>
+      </c>
+      <c r="AD26">
+        <v>2043</v>
+      </c>
+      <c r="AE26">
+        <v>2044</v>
+      </c>
+      <c r="AF26">
+        <v>2045</v>
+      </c>
+      <c r="AG26">
+        <v>2046</v>
+      </c>
+      <c r="AH26">
+        <v>2047</v>
+      </c>
+      <c r="AI26">
+        <v>2048</v>
+      </c>
+      <c r="AJ26">
+        <v>2049</v>
+      </c>
+      <c r="AK26">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27">
+        <v>1100</v>
+      </c>
+      <c r="C27">
+        <v>-9500</v>
+      </c>
+      <c r="D27">
+        <v>-16000</v>
+      </c>
+      <c r="E27">
+        <v>-7200</v>
+      </c>
+      <c r="F27">
+        <v>-15000</v>
+      </c>
+      <c r="G27">
+        <v>-5700</v>
+      </c>
+      <c r="H27">
+        <v>-6130</v>
+      </c>
+      <c r="I27">
+        <v>-6560</v>
+      </c>
+      <c r="J27">
+        <v>-6990</v>
+      </c>
+      <c r="K27">
+        <v>-7420</v>
+      </c>
+      <c r="L27">
+        <v>-7850</v>
+      </c>
+      <c r="M27">
+        <v>-8280</v>
+      </c>
+      <c r="N27">
+        <v>-8710</v>
+      </c>
+      <c r="O27">
+        <v>-9140</v>
+      </c>
+      <c r="P27">
+        <v>-9570</v>
+      </c>
+      <c r="Q27">
+        <v>-10000</v>
+      </c>
+      <c r="R27">
+        <v>-9660</v>
+      </c>
+      <c r="S27">
+        <v>-9320</v>
+      </c>
+      <c r="T27">
+        <v>-8980</v>
+      </c>
+      <c r="U27">
+        <v>-8640</v>
+      </c>
+      <c r="V27" s="11">
+        <v>-8300</v>
+      </c>
+      <c r="W27" s="11">
+        <f>V27-$B$33</f>
+        <v>-8472.4263038548761</v>
+      </c>
+      <c r="X27" s="11">
+        <f>W27-$B$33</f>
+        <v>-8644.8526077097522</v>
+      </c>
+      <c r="Y27" s="11">
+        <f>X27-$B$33</f>
+        <v>-8817.2789115646283</v>
+      </c>
+      <c r="Z27" s="11">
+        <f>Y27-$B$33</f>
+        <v>-8989.7052154195044</v>
+      </c>
+      <c r="AA27" s="11">
+        <f>Z27-$B$33</f>
+        <v>-9162.1315192743805</v>
+      </c>
+      <c r="AB27" s="11">
+        <f>AA27-$B$33</f>
+        <v>-9334.5578231292566</v>
+      </c>
+      <c r="AC27" s="11">
+        <f>AB27-$B$33</f>
+        <v>-9506.9841269841327</v>
+      </c>
+      <c r="AD27" s="11">
+        <f>AC27-$B$33</f>
+        <v>-9679.4104308390088</v>
+      </c>
+      <c r="AE27" s="11">
+        <f>AD27-$B$33</f>
+        <v>-9851.8367346938849</v>
+      </c>
+      <c r="AF27" s="11">
+        <f>AE27-$B$33</f>
+        <v>-10024.263038548761</v>
+      </c>
+      <c r="AG27" s="11">
+        <f>AF27-$B$33</f>
+        <v>-10196.689342403637</v>
+      </c>
+      <c r="AH27" s="11">
+        <f>AG27-$B$33</f>
+        <v>-10369.115646258513</v>
+      </c>
+      <c r="AI27" s="11">
+        <f>AH27-$B$33</f>
+        <v>-10541.541950113389</v>
+      </c>
+      <c r="AJ27" s="11">
+        <f>AI27-$B$33</f>
+        <v>-10713.968253968265</v>
+      </c>
+      <c r="AK27" s="11">
+        <v>-10886.394557823136</v>
+      </c>
+    </row>
+    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28">
+        <f t="shared" ref="B28:V28" si="5">B27*(10^9)</f>
+        <v>1100000000000</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="5"/>
+        <v>-9500000000000</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="5"/>
+        <v>-16000000000000</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="5"/>
+        <v>-7200000000000</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="5"/>
+        <v>-15000000000000</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="5"/>
+        <v>-5700000000000</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="5"/>
+        <v>-6130000000000</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="5"/>
+        <v>-6560000000000</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="5"/>
+        <v>-6990000000000</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="5"/>
+        <v>-7420000000000</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="5"/>
+        <v>-7850000000000</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="5"/>
+        <v>-8280000000000</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="5"/>
+        <v>-8710000000000</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="5"/>
+        <v>-9140000000000</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="5"/>
+        <v>-9570000000000</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="5"/>
+        <v>-10000000000000</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="5"/>
+        <v>-9660000000000</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="5"/>
+        <v>-9320000000000</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="5"/>
+        <v>-8980000000000</v>
+      </c>
+      <c r="U28">
+        <f t="shared" si="5"/>
+        <v>-8640000000000</v>
+      </c>
+      <c r="V28">
+        <f t="shared" si="5"/>
+        <v>-8300000000000</v>
+      </c>
+      <c r="W28">
+        <f>W27*(10^9)</f>
+        <v>-8472426303854.876</v>
+      </c>
+      <c r="X28">
+        <f>X27*(10^9)</f>
+        <v>-8644852607709.752</v>
+      </c>
+      <c r="Y28">
+        <f t="shared" ref="X28:AK28" si="6">Y27*(10^9)</f>
+        <v>-8817278911564.6289</v>
+      </c>
+      <c r="Z28">
+        <f t="shared" si="6"/>
+        <v>-8989705215419.5039</v>
+      </c>
+      <c r="AA28">
+        <f t="shared" si="6"/>
+        <v>-9162131519274.3809</v>
+      </c>
+      <c r="AB28">
+        <f t="shared" si="6"/>
+        <v>-9334557823129.2559</v>
+      </c>
+      <c r="AC28">
+        <f t="shared" si="6"/>
+        <v>-9506984126984.1328</v>
+      </c>
+      <c r="AD28">
+        <f t="shared" si="6"/>
+        <v>-9679410430839.0078</v>
+      </c>
+      <c r="AE28">
+        <f t="shared" si="6"/>
+        <v>-9851836734693.8848</v>
+      </c>
+      <c r="AF28">
+        <f t="shared" si="6"/>
+        <v>-10024263038548.762</v>
+      </c>
+      <c r="AG28">
+        <f t="shared" si="6"/>
+        <v>-10196689342403.637</v>
+      </c>
+      <c r="AH28">
+        <f t="shared" si="6"/>
+        <v>-10369115646258.514</v>
+      </c>
+      <c r="AI28">
+        <f t="shared" si="6"/>
+        <v>-10541541950113.389</v>
+      </c>
+      <c r="AJ28">
+        <f t="shared" si="6"/>
+        <v>-10713968253968.266</v>
+      </c>
+      <c r="AK28">
+        <f t="shared" si="6"/>
+        <v>-10886394557823.137</v>
+      </c>
+    </row>
+    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" s="4">
+        <f>K7-AK2</f>
+        <v>2586.394557823136</v>
+      </c>
+    </row>
+    <row r="33" spans="1:37" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" s="4">
+        <f>B32/15</f>
+        <v>172.42630385487573</v>
+      </c>
+    </row>
+    <row r="47" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>22</v>
+      </c>
+      <c r="B47">
+        <v>2015</v>
+      </c>
+      <c r="C47">
+        <v>2016</v>
+      </c>
+      <c r="D47">
+        <v>2017</v>
+      </c>
+      <c r="E47">
+        <v>2018</v>
+      </c>
+      <c r="F47">
+        <v>2019</v>
+      </c>
+      <c r="G47">
+        <v>2020</v>
+      </c>
+      <c r="H47">
+        <v>2021</v>
+      </c>
+      <c r="I47">
+        <v>2022</v>
+      </c>
+      <c r="J47">
+        <v>2023</v>
+      </c>
+      <c r="K47">
+        <v>2024</v>
+      </c>
+      <c r="L47">
+        <v>2025</v>
+      </c>
+      <c r="M47">
+        <v>2026</v>
+      </c>
+      <c r="N47">
+        <v>2027</v>
+      </c>
+      <c r="O47">
+        <v>2028</v>
+      </c>
+      <c r="P47">
+        <v>2029</v>
+      </c>
+      <c r="Q47">
+        <v>2030</v>
+      </c>
+      <c r="R47">
+        <v>2031</v>
+      </c>
+      <c r="S47">
+        <v>2032</v>
+      </c>
+      <c r="T47">
+        <v>2033</v>
+      </c>
+      <c r="U47">
+        <v>2034</v>
+      </c>
+      <c r="V47">
+        <v>2035</v>
+      </c>
+      <c r="W47">
+        <v>2036</v>
+      </c>
+      <c r="X47">
+        <v>2037</v>
+      </c>
+      <c r="Y47">
+        <v>2038</v>
+      </c>
+      <c r="Z47">
+        <v>2039</v>
+      </c>
+      <c r="AA47">
+        <v>2040</v>
+      </c>
+      <c r="AB47">
+        <v>2041</v>
+      </c>
+      <c r="AC47">
+        <v>2042</v>
+      </c>
+      <c r="AD47">
+        <v>2043</v>
+      </c>
+      <c r="AE47">
+        <v>2044</v>
+      </c>
+      <c r="AF47">
+        <v>2045</v>
+      </c>
+      <c r="AG47">
+        <v>2046</v>
+      </c>
+      <c r="AH47">
+        <v>2047</v>
+      </c>
+      <c r="AI47">
+        <v>2048</v>
+      </c>
+      <c r="AJ47">
+        <v>2049</v>
+      </c>
+      <c r="AK47">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="48" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>23</v>
+      </c>
+      <c r="B48">
+        <v>1100</v>
+      </c>
+      <c r="C48">
+        <v>-9500</v>
+      </c>
+      <c r="D48">
+        <v>-16000</v>
+      </c>
+      <c r="E48">
+        <v>-7200</v>
+      </c>
+      <c r="F48">
+        <v>-15000</v>
+      </c>
+      <c r="G48">
+        <v>-5700</v>
+      </c>
+      <c r="H48">
+        <v>-6130</v>
+      </c>
+      <c r="I48">
+        <v>-6560</v>
+      </c>
+      <c r="J48">
+        <v>-6990</v>
+      </c>
+      <c r="K48">
+        <v>-7420</v>
+      </c>
+      <c r="L48">
+        <v>-7850</v>
+      </c>
+      <c r="M48">
+        <v>-8280</v>
+      </c>
+      <c r="N48">
+        <v>-8710</v>
+      </c>
+      <c r="O48">
+        <v>-9140</v>
+      </c>
+      <c r="P48">
+        <v>-9570</v>
+      </c>
+      <c r="Q48">
+        <v>-10000</v>
+      </c>
+      <c r="R48" cm="1">
+        <f t="array" ref="R48">TREND($D7:$K7,$D$6:$K$6,R$47)</f>
+        <v>-9524.0816326530476</v>
+      </c>
+      <c r="S48" cm="1">
+        <f t="array" ref="S48">TREND($D7:$K7,$D$6:$K$6,S$47)</f>
+        <v>-9595.7823129251774</v>
+      </c>
+      <c r="T48" cm="1">
+        <f t="array" ref="T48">TREND($D7:$K7,$D$6:$K$6,T$47)</f>
+        <v>-9667.4829931972781</v>
+      </c>
+      <c r="U48" cm="1">
+        <f t="array" ref="U48">TREND($D7:$K7,$D$6:$K$6,U$47)</f>
+        <v>-9739.1836734693788</v>
+      </c>
+      <c r="V48" cm="1">
+        <f t="array" ref="V48">TREND($D7:$K7,$D$6:$K$6,V$47)</f>
+        <v>-9810.8843537414796</v>
+      </c>
+      <c r="W48" cm="1">
+        <f t="array" ref="W48">TREND($D7:$K7,$D$6:$K$6,W$47)</f>
+        <v>-9882.5850340136094</v>
+      </c>
+      <c r="X48" cm="1">
+        <f t="array" ref="X48">TREND($D7:$K7,$D$6:$K$6,X$47)</f>
+        <v>-9954.2857142857101</v>
+      </c>
+      <c r="Y48" cm="1">
+        <f t="array" ref="Y48">TREND($D7:$K7,$D$6:$K$6,Y$47)</f>
+        <v>-10025.986394557811</v>
+      </c>
+      <c r="Z48" cm="1">
+        <f t="array" ref="Z48">TREND($D7:$K7,$D$6:$K$6,Z$47)</f>
+        <v>-10097.687074829912</v>
+      </c>
+      <c r="AA48" cm="1">
+        <f t="array" ref="AA48">TREND($D7:$K7,$D$6:$K$6,AA$47)</f>
+        <v>-10169.387755102041</v>
+      </c>
+      <c r="AB48" cm="1">
+        <f t="array" ref="AB48">TREND($D7:$K7,$D$6:$K$6,AB$47)</f>
+        <v>-10241.088435374142</v>
+      </c>
+      <c r="AC48" cm="1">
+        <f t="array" ref="AC48">TREND($D7:$K7,$D$6:$K$6,AC$47)</f>
+        <v>-10312.789115646243</v>
+      </c>
+      <c r="AD48" cm="1">
+        <f t="array" ref="AD48">TREND($D7:$K7,$D$6:$K$6,AD$47)</f>
+        <v>-10384.489795918373</v>
+      </c>
+      <c r="AE48" cm="1">
+        <f t="array" ref="AE48">TREND($D7:$K7,$D$6:$K$6,AE$47)</f>
+        <v>-10456.190476190473</v>
+      </c>
+      <c r="AF48" cm="1">
+        <f t="array" ref="AF48">TREND($D7:$K7,$D$6:$K$6,AF$47)</f>
+        <v>-10527.891156462574</v>
+      </c>
+      <c r="AG48" cm="1">
+        <f t="array" ref="AG48">TREND($D7:$K7,$D$6:$K$6,AG$47)</f>
+        <v>-10599.591836734675</v>
+      </c>
+      <c r="AH48" cm="1">
+        <f t="array" ref="AH48">TREND($D7:$K7,$D$6:$K$6,AH$47)</f>
+        <v>-10671.292517006805</v>
+      </c>
+      <c r="AI48" cm="1">
+        <f t="array" ref="AI48">TREND($D7:$K7,$D$6:$K$6,AI$47)</f>
+        <v>-10742.993197278905</v>
+      </c>
+      <c r="AJ48" cm="1">
+        <f t="array" ref="AJ48">TREND($D7:$K7,$D$6:$K$6,AJ$47)</f>
+        <v>-10814.693877551006</v>
+      </c>
+      <c r="AK48" cm="1">
+        <f t="array" ref="AK48">TREND($D7:$K7,$D$6:$K$6,AK$47)</f>
+        <v>-10886.394557823136</v>
+      </c>
+    </row>
+    <row r="49" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>24</v>
+      </c>
+      <c r="B49">
+        <f>B48*(10^9)</f>
+        <v>1100000000000</v>
+      </c>
+      <c r="C49">
+        <f t="shared" ref="C49:AK49" si="7">C48*(10^9)</f>
+        <v>-9500000000000</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="7"/>
+        <v>-16000000000000</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="7"/>
+        <v>-7200000000000</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="7"/>
+        <v>-15000000000000</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="7"/>
+        <v>-5700000000000</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="7"/>
+        <v>-6130000000000</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="7"/>
+        <v>-6560000000000</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="7"/>
+        <v>-6990000000000</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="7"/>
+        <v>-7420000000000</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="7"/>
+        <v>-7850000000000</v>
+      </c>
+      <c r="M49">
+        <f t="shared" si="7"/>
+        <v>-8280000000000</v>
+      </c>
+      <c r="N49">
+        <f t="shared" si="7"/>
+        <v>-8710000000000</v>
+      </c>
+      <c r="O49">
+        <f t="shared" si="7"/>
+        <v>-9140000000000</v>
+      </c>
+      <c r="P49">
+        <f t="shared" si="7"/>
+        <v>-9570000000000</v>
+      </c>
+      <c r="Q49">
+        <f t="shared" si="7"/>
+        <v>-10000000000000</v>
+      </c>
+      <c r="R49">
+        <f t="shared" si="7"/>
+        <v>-9524081632653.0469</v>
+      </c>
+      <c r="S49">
+        <f t="shared" si="7"/>
+        <v>-9595782312925.1777</v>
+      </c>
+      <c r="T49">
+        <f t="shared" si="7"/>
+        <v>-9667482993197.2773</v>
+      </c>
+      <c r="U49">
+        <f t="shared" si="7"/>
+        <v>-9739183673469.3789</v>
+      </c>
+      <c r="V49">
+        <f t="shared" si="7"/>
+        <v>-9810884353741.4805</v>
+      </c>
+      <c r="W49">
+        <f t="shared" si="7"/>
+        <v>-9882585034013.6094</v>
+      </c>
+      <c r="X49">
+        <f t="shared" si="7"/>
+        <v>-9954285714285.7109</v>
+      </c>
+      <c r="Y49">
+        <f t="shared" si="7"/>
+        <v>-10025986394557.811</v>
+      </c>
+      <c r="Z49">
+        <f t="shared" si="7"/>
+        <v>-10097687074829.912</v>
+      </c>
+      <c r="AA49">
+        <f t="shared" si="7"/>
+        <v>-10169387755102.041</v>
+      </c>
+      <c r="AB49">
+        <f t="shared" si="7"/>
+        <v>-10241088435374.143</v>
+      </c>
+      <c r="AC49">
+        <f t="shared" si="7"/>
+        <v>-10312789115646.242</v>
+      </c>
+      <c r="AD49">
+        <f t="shared" si="7"/>
+        <v>-10384489795918.373</v>
+      </c>
+      <c r="AE49">
+        <f t="shared" si="7"/>
+        <v>-10456190476190.473</v>
+      </c>
+      <c r="AF49">
+        <f t="shared" si="7"/>
+        <v>-10527891156462.574</v>
+      </c>
+      <c r="AG49">
+        <f t="shared" si="7"/>
+        <v>-10599591836734.676</v>
+      </c>
+      <c r="AH49">
+        <f t="shared" si="7"/>
+        <v>-10671292517006.805</v>
+      </c>
+      <c r="AI49">
+        <f t="shared" si="7"/>
+        <v>-10742993197278.906</v>
+      </c>
+      <c r="AJ49">
+        <f t="shared" si="7"/>
+        <v>-10814693877551.006</v>
+      </c>
+      <c r="AK49">
+        <f t="shared" si="7"/>
+        <v>-10886394557823.137</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3757,7 +8541,7 @@
   <dimension ref="A1:AK13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5277,35 +10061,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <of2ed5e60f3c4f8984f283882cb94320 xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </of2ed5e60f3c4f8984f283882cb94320>
-    <ff7c4ad8664a4671b57370e258acad6a xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ff7c4ad8664a4671b57370e258acad6a>
-    <l787e5950a9249679d0130235a9a791b xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </l787e5950a9249679d0130235a9a791b>
-    <TaxCatchAll xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="de340059-046a-4f1a-8b62-ade039df3700">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="21" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b14dc5c440242a7f7d08dacad5c84df8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="71a713f9ca42e4f2f02aa83a9b465f65" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
@@ -5571,33 +10326,36 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA861F6F-5B78-491C-8A8D-F667F1C3C913}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
-    <ds:schemaRef ds:uri="de340059-046a-4f1a-8b62-ade039df3700"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18F5C38C-50C9-42E7-8E43-7E5467D45C6B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <of2ed5e60f3c4f8984f283882cb94320 xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </of2ed5e60f3c4f8984f283882cb94320>
+    <ff7c4ad8664a4671b57370e258acad6a xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ff7c4ad8664a4671b57370e258acad6a>
+    <l787e5950a9249679d0130235a9a791b xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </l787e5950a9249679d0130235a9a791b>
+    <TaxCatchAll xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="de340059-046a-4f1a-8b62-ade039df3700">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B19BA2D7-6A7B-4801-AF36-6A025FF1D347}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5615,4 +10373,30 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18F5C38C-50C9-42E7-8E43-7E5467D45C6B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA861F6F-5B78-491C-8A8D-F667F1C3C913}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="de340059-046a-4f1a-8b62-ade039df3700"/>
+    <ds:schemaRef ds:uri="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/InputData/land/BLAPE/BAU LULUCF Anthro Pollutant Emis.xlsx
+++ b/InputData/land/BLAPE/BAU LULUCF Anthro Pollutant Emis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pembinainstitute.sharepoint.com/sites/PRO-EnergyPolicySimulator2021/Shared Documents/Research and Analysis/CANADA-inputData/land/BLAPE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="476" documentId="11_5405EDD4148383FD4B3BD6143CB5EE8768C9057E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4D7D1A2E-C809-492B-B730-704FC55BB055}"/>
+  <xr:revisionPtr revIDLastSave="506" documentId="11_5405EDD4148383FD4B3BD6143CB5EE8768C9057E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DE2352FC-B9A9-4F8E-8497-974452311E0D}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="77">
   <si>
     <t>BLAPE BAU LULUCF Anthropogenic Pollutant Emissions</t>
   </si>
@@ -192,9 +192,6 @@
   </si>
   <si>
     <t>Table A.35, Canada's Greenhouse Gas and Air Pollutant Emissions Projections 2021</t>
-  </si>
-  <si>
-    <t>straight line calculation from 2030 to 2035</t>
   </si>
   <si>
     <t>a) Negative sign indicates net removals of CO2 from the atmosphere.</t>
@@ -1229,97 +1226,97 @@
                   <c:v>-15000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-5700</c:v>
+                  <c:v>-16363.636363636364</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-6130</c:v>
+                  <c:v>-17727.272727272728</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-6560</c:v>
+                  <c:v>-19090.909090909092</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-6990</c:v>
+                  <c:v>-20454.545454545456</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-7420</c:v>
+                  <c:v>-21818.18181818182</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-7850</c:v>
+                  <c:v>-23181.818181818184</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-8280</c:v>
+                  <c:v>-24545.454545454548</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-8710</c:v>
+                  <c:v>-25909.090909090912</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-9140</c:v>
+                  <c:v>-27272.727272727276</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-9570</c:v>
+                  <c:v>-28636.36363636364</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-10000</c:v>
+                  <c:v>-30000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-9660</c:v>
+                  <c:v>-30000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-9320</c:v>
+                  <c:v>-30000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-8980</c:v>
+                  <c:v>-30000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-8640</c:v>
+                  <c:v>-30000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-8300</c:v>
+                  <c:v>-30000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-9882.5850340136094</c:v>
+                  <c:v>-30000</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-9954.2857142857101</c:v>
+                  <c:v>-30000</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-10025.986394557811</c:v>
+                  <c:v>-30000</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-10097.687074829912</c:v>
+                  <c:v>-30000</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-10169.387755102041</c:v>
+                  <c:v>-30000</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-10241.088435374142</c:v>
+                  <c:v>-30000</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-10312.789115646243</c:v>
+                  <c:v>-30000</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-10384.489795918373</c:v>
+                  <c:v>-30000</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-10456.190476190473</c:v>
+                  <c:v>-30000</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-10527.891156462574</c:v>
+                  <c:v>-30000</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-10599.591836734675</c:v>
+                  <c:v>-30000</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-10671.292517006805</c:v>
+                  <c:v>-30000</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-10742.993197278905</c:v>
+                  <c:v>-30000</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-10814.693877551006</c:v>
+                  <c:v>-30000</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-10886.394557823136</c:v>
+                  <c:v>-30000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1496,97 +1493,97 @@
                   <c:v>-15000000000000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-5700000000000</c:v>
+                  <c:v>-16363636363636.363</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-6130000000000</c:v>
+                  <c:v>-17727272727272.727</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-6560000000000</c:v>
+                  <c:v>-19090909090909.094</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-6990000000000</c:v>
+                  <c:v>-20454545454545.457</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-7420000000000</c:v>
+                  <c:v>-21818181818181.82</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-7850000000000</c:v>
+                  <c:v>-23181818181818.184</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-8280000000000</c:v>
+                  <c:v>-24545454545454.547</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-8710000000000</c:v>
+                  <c:v>-25909090909090.91</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-9140000000000</c:v>
+                  <c:v>-27272727272727.277</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-9570000000000</c:v>
+                  <c:v>-28636363636363.641</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-10000000000000</c:v>
+                  <c:v>-30000000000000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-9660000000000</c:v>
+                  <c:v>-30000000000000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-9320000000000</c:v>
+                  <c:v>-30000000000000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-8980000000000</c:v>
+                  <c:v>-30000000000000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-8640000000000</c:v>
+                  <c:v>-30000000000000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-8300000000000</c:v>
+                  <c:v>-30000000000000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-9882585034013.6094</c:v>
+                  <c:v>-30000000000000</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-9954285714285.7109</c:v>
+                  <c:v>-30000000000000</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-10025986394557.811</c:v>
+                  <c:v>-30000000000000</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-10097687074829.912</c:v>
+                  <c:v>-30000000000000</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-10169387755102.041</c:v>
+                  <c:v>-30000000000000</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-10241088435374.143</c:v>
+                  <c:v>-30000000000000</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-10312789115646.242</c:v>
+                  <c:v>-30000000000000</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-10384489795918.373</c:v>
+                  <c:v>-30000000000000</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-10456190476190.473</c:v>
+                  <c:v>-30000000000000</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-10527891156462.574</c:v>
+                  <c:v>-30000000000000</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-10599591836734.676</c:v>
+                  <c:v>-30000000000000</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-10671292517006.805</c:v>
+                  <c:v>-30000000000000</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-10742993197278.906</c:v>
+                  <c:v>-30000000000000</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-10814693877551.006</c:v>
+                  <c:v>-30000000000000</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-10886394557823.137</c:v>
+                  <c:v>-30000000000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2002,46 +1999,46 @@
                   <c:v>-8300</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="#,##0">
-                  <c:v>-8472.4263038548761</c:v>
+                  <c:v>-9746.6666666666661</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="#,##0">
-                  <c:v>-8644.8526077097522</c:v>
+                  <c:v>-11193.333333333332</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="#,##0">
-                  <c:v>-8817.2789115646283</c:v>
+                  <c:v>-12639.999999999998</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="#,##0">
-                  <c:v>-8989.7052154195044</c:v>
+                  <c:v>-14086.666666666664</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="#,##0">
-                  <c:v>-9162.1315192743805</c:v>
+                  <c:v>-15533.33333333333</c:v>
                 </c:pt>
                 <c:pt idx="22" formatCode="#,##0">
-                  <c:v>-9334.5578231292566</c:v>
+                  <c:v>-16979.999999999996</c:v>
                 </c:pt>
                 <c:pt idx="23" formatCode="#,##0">
-                  <c:v>-9506.9841269841327</c:v>
+                  <c:v>-18426.666666666664</c:v>
                 </c:pt>
                 <c:pt idx="24" formatCode="#,##0">
-                  <c:v>-9679.4104308390088</c:v>
+                  <c:v>-19873.333333333332</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="#,##0">
-                  <c:v>-9851.8367346938849</c:v>
+                  <c:v>-21320</c:v>
                 </c:pt>
                 <c:pt idx="26" formatCode="#,##0">
-                  <c:v>-10024.263038548761</c:v>
+                  <c:v>-22766.666666666668</c:v>
                 </c:pt>
                 <c:pt idx="27" formatCode="#,##0">
-                  <c:v>-10196.689342403637</c:v>
+                  <c:v>-24213.333333333336</c:v>
                 </c:pt>
                 <c:pt idx="28" formatCode="#,##0">
-                  <c:v>-10369.115646258513</c:v>
+                  <c:v>-25660.000000000004</c:v>
                 </c:pt>
                 <c:pt idx="29" formatCode="#,##0">
-                  <c:v>-10541.541950113389</c:v>
+                  <c:v>-27106.666666666672</c:v>
                 </c:pt>
                 <c:pt idx="30" formatCode="#,##0">
-                  <c:v>-10713.968253968265</c:v>
+                  <c:v>-28553.333333333339</c:v>
                 </c:pt>
                 <c:pt idx="31" formatCode="#,##0">
                   <c:v>-10886.394557823136</c:v>
@@ -2245,46 +2242,46 @@
                   <c:v>-8300000000000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-8472426303854.876</c:v>
+                  <c:v>-9746666666666.666</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-8644852607709.752</c:v>
+                  <c:v>-11193333333333.332</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-8817278911564.6289</c:v>
+                  <c:v>-12639999999999.998</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-8989705215419.5039</c:v>
+                  <c:v>-14086666666666.664</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-9162131519274.3809</c:v>
+                  <c:v>-15533333333333.33</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-9334557823129.2559</c:v>
+                  <c:v>-16979999999999.996</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-9506984126984.1328</c:v>
+                  <c:v>-18426666666666.664</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-9679410430839.0078</c:v>
+                  <c:v>-19873333333333.332</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-9851836734693.8848</c:v>
+                  <c:v>-21320000000000</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-10024263038548.762</c:v>
+                  <c:v>-22766666666666.668</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-10196689342403.637</c:v>
+                  <c:v>-24213333333333.336</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-10369115646258.514</c:v>
+                  <c:v>-25660000000000.004</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-10541541950113.389</c:v>
+                  <c:v>-27106666666666.672</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-10713968253968.266</c:v>
+                  <c:v>-28553333333333.34</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>-10886394557823.137</c:v>
@@ -3146,6 +3143,737 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1085389503"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Calculations!$A$72</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CO2 (kt)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Calculations!$F$71:$AK$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2036</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2037</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2038</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2041</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2042</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2043</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2046</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2047</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2050</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Calculations!$F$72:$AK$72</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>-15000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-16363.636363636364</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-17727.272727272728</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-19090.909090909092</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-20454.545454545456</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-21818.18181818182</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-23181.818181818184</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-24545.454545454548</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-25909.090909090912</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-27272.727272727276</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-28636.36363636364</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>-30000</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>-30000</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>-30000</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
+                  <c:v>-30000</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="General">
+                  <c:v>-30000</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="General">
+                  <c:v>-30000</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="General">
+                  <c:v>-30000</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="General">
+                  <c:v>-30000</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="General">
+                  <c:v>-30000</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="General">
+                  <c:v>-30000</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="General">
+                  <c:v>-30000</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="General">
+                  <c:v>-30000</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="General">
+                  <c:v>-30000</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="General">
+                  <c:v>-30000</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="General">
+                  <c:v>-30000</c:v>
+                </c:pt>
+                <c:pt idx="26" formatCode="General">
+                  <c:v>-30000</c:v>
+                </c:pt>
+                <c:pt idx="27" formatCode="General">
+                  <c:v>-30000</c:v>
+                </c:pt>
+                <c:pt idx="28" formatCode="General">
+                  <c:v>-30000</c:v>
+                </c:pt>
+                <c:pt idx="29" formatCode="General">
+                  <c:v>-30000</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="General">
+                  <c:v>-30000</c:v>
+                </c:pt>
+                <c:pt idx="31" formatCode="General">
+                  <c:v>-30000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-161B-4CB2-B64C-B54224D549B1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Calculations!$A$73</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CO2 (g)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Calculations!$F$71:$AK$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2036</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2037</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2038</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2041</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2042</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2043</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2046</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2047</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2050</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Calculations!$F$73:$AK$73</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>-15000000000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-16363636363636.363</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-17727272727272.727</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-19090909090909.094</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-20454545454545.457</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-21818181818181.82</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-23181818181818.184</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-24545454545454.547</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-25909090909090.91</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-27272727272727.277</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-28636363636363.641</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-30000000000000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-30000000000000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-30000000000000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-30000000000000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-30000000000000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-30000000000000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-30000000000000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-30000000000000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-30000000000000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-30000000000000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-30000000000000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-30000000000000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-30000000000000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-30000000000000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-30000000000000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-30000000000000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-30000000000000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-30000000000000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-30000000000000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-30000000000000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-30000000000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-161B-4CB2-B64C-B54224D549B1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="863951408"/>
+        <c:axId val="863952368"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="863951408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="863952368"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="863952368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="863951408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3425,6 +4153,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -5490,6 +6258,522 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6187,6 +7471,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52BB4DD2-8FB5-55B1-DEFB-7E0503CF5AED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6543,7 +7863,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -6553,17 +7873,17 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -6573,17 +7893,17 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -6599,8 +7919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDC65964-AC57-4F16-9CCC-2FF63904A811}">
   <dimension ref="A2:O72"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="L55" sqref="L55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7023,115 +8343,115 @@
         <v>1</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O55" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -7147,10 +8467,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F50C48F9-6946-F243-8F07-D84A3D2FE82A}">
-  <dimension ref="A1:AK49"/>
+  <dimension ref="A1:AK73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N24" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47:AK49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7296,128 +8616,107 @@
         <v>-15000</v>
       </c>
       <c r="G2" s="5">
-        <f t="shared" si="0"/>
-        <v>-5700</v>
-      </c>
-      <c r="H2" s="4">
-        <f>G2-$B$12</f>
-        <v>-6130</v>
-      </c>
-      <c r="I2" s="4">
-        <f t="shared" ref="I2:P2" si="1">H2-$B$12</f>
-        <v>-6560</v>
-      </c>
-      <c r="J2" s="4">
+        <f>F2-$F$12</f>
+        <v>-16363.636363636364</v>
+      </c>
+      <c r="H2" s="5">
+        <f t="shared" ref="H2:P2" si="1">G2-$F$12</f>
+        <v>-17727.272727272728</v>
+      </c>
+      <c r="I2" s="5">
         <f t="shared" si="1"/>
-        <v>-6990</v>
-      </c>
-      <c r="K2" s="4">
+        <v>-19090.909090909092</v>
+      </c>
+      <c r="J2" s="5">
         <f t="shared" si="1"/>
-        <v>-7420</v>
-      </c>
-      <c r="L2" s="4">
+        <v>-20454.545454545456</v>
+      </c>
+      <c r="K2" s="5">
         <f t="shared" si="1"/>
-        <v>-7850</v>
-      </c>
-      <c r="M2" s="4">
+        <v>-21818.18181818182</v>
+      </c>
+      <c r="L2" s="5">
         <f t="shared" si="1"/>
-        <v>-8280</v>
-      </c>
-      <c r="N2" s="4">
+        <v>-23181.818181818184</v>
+      </c>
+      <c r="M2" s="5">
         <f t="shared" si="1"/>
-        <v>-8710</v>
-      </c>
-      <c r="O2" s="4">
+        <v>-24545.454545454548</v>
+      </c>
+      <c r="N2" s="5">
         <f t="shared" si="1"/>
-        <v>-9140</v>
-      </c>
-      <c r="P2" s="4">
+        <v>-25909.090909090912</v>
+      </c>
+      <c r="O2" s="5">
         <f t="shared" si="1"/>
-        <v>-9570</v>
-      </c>
-      <c r="Q2" s="5">
-        <f>J7</f>
-        <v>-10000</v>
+        <v>-27272.727272727276</v>
+      </c>
+      <c r="P2" s="5">
+        <f t="shared" si="1"/>
+        <v>-28636.36363636364</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>-30000</v>
       </c>
       <c r="R2" s="4">
-        <f>Q2-$F$12</f>
-        <v>-9660</v>
+        <v>-30000</v>
       </c>
       <c r="S2" s="4">
-        <f t="shared" ref="S2:U2" si="2">R2-$F$12</f>
-        <v>-9320</v>
+        <v>-30000</v>
       </c>
       <c r="T2" s="4">
-        <f t="shared" si="2"/>
-        <v>-8980</v>
+        <v>-30000</v>
       </c>
       <c r="U2" s="4">
-        <f t="shared" si="2"/>
-        <v>-8640</v>
+        <v>-30000</v>
       </c>
       <c r="V2" s="4">
-        <f>K7</f>
-        <v>-8300</v>
-      </c>
-      <c r="W2" s="4" cm="1">
-        <f t="array" ref="W2">TREND($D7:$K7,$D$6:$K$6,W$1)</f>
-        <v>-9882.5850340136094</v>
-      </c>
-      <c r="X2" s="4" cm="1">
-        <f t="array" ref="X2">TREND($D7:$K7,$D$6:$K$6,X$1)</f>
-        <v>-9954.2857142857101</v>
-      </c>
-      <c r="Y2" s="4" cm="1">
-        <f t="array" ref="Y2">TREND($D7:$K7,$D$6:$K$6,Y$1)</f>
-        <v>-10025.986394557811</v>
-      </c>
-      <c r="Z2" s="4" cm="1">
-        <f t="array" ref="Z2">TREND($D7:$K7,$D$6:$K$6,Z$1)</f>
-        <v>-10097.687074829912</v>
-      </c>
-      <c r="AA2" s="4" cm="1">
-        <f t="array" ref="AA2">TREND($D7:$K7,$D$6:$K$6,AA$1)</f>
-        <v>-10169.387755102041</v>
-      </c>
-      <c r="AB2" s="4" cm="1">
-        <f t="array" ref="AB2">TREND($D7:$K7,$D$6:$K$6,AB$1)</f>
-        <v>-10241.088435374142</v>
-      </c>
-      <c r="AC2" s="4" cm="1">
-        <f t="array" ref="AC2">TREND($D7:$K7,$D$6:$K$6,AC$1)</f>
-        <v>-10312.789115646243</v>
-      </c>
-      <c r="AD2" s="4" cm="1">
-        <f t="array" ref="AD2">TREND($D7:$K7,$D$6:$K$6,AD$1)</f>
-        <v>-10384.489795918373</v>
-      </c>
-      <c r="AE2" s="4" cm="1">
-        <f t="array" ref="AE2">TREND($D7:$K7,$D$6:$K$6,AE$1)</f>
-        <v>-10456.190476190473</v>
-      </c>
-      <c r="AF2" s="4" cm="1">
-        <f t="array" ref="AF2">TREND($D7:$K7,$D$6:$K$6,AF$1)</f>
-        <v>-10527.891156462574</v>
-      </c>
-      <c r="AG2" s="4" cm="1">
-        <f t="array" ref="AG2">TREND($D7:$K7,$D$6:$K$6,AG$1)</f>
-        <v>-10599.591836734675</v>
-      </c>
-      <c r="AH2" s="4" cm="1">
-        <f t="array" ref="AH2">TREND($D7:$K7,$D$6:$K$6,AH$1)</f>
-        <v>-10671.292517006805</v>
-      </c>
-      <c r="AI2" s="4" cm="1">
-        <f t="array" ref="AI2">TREND($D7:$K7,$D$6:$K$6,AI$1)</f>
-        <v>-10742.993197278905</v>
-      </c>
-      <c r="AJ2" s="4" cm="1">
-        <f t="array" ref="AJ2">TREND($D7:$K7,$D$6:$K$6,AJ$1)</f>
-        <v>-10814.693877551006</v>
-      </c>
-      <c r="AK2" s="4" cm="1">
-        <f t="array" ref="AK2">TREND($D7:$K7,$D$6:$K$6,AK$1)</f>
-        <v>-10886.394557823136</v>
+        <v>-30000</v>
+      </c>
+      <c r="W2" s="4">
+        <v>-30000</v>
+      </c>
+      <c r="X2" s="4">
+        <v>-30000</v>
+      </c>
+      <c r="Y2" s="4">
+        <v>-30000</v>
+      </c>
+      <c r="Z2" s="4">
+        <v>-30000</v>
+      </c>
+      <c r="AA2" s="4">
+        <v>-30000</v>
+      </c>
+      <c r="AB2" s="4">
+        <v>-30000</v>
+      </c>
+      <c r="AC2" s="4">
+        <v>-30000</v>
+      </c>
+      <c r="AD2" s="4">
+        <v>-30000</v>
+      </c>
+      <c r="AE2" s="4">
+        <v>-30000</v>
+      </c>
+      <c r="AF2" s="4">
+        <v>-30000</v>
+      </c>
+      <c r="AG2" s="4">
+        <v>-30000</v>
+      </c>
+      <c r="AH2" s="4">
+        <v>-30000</v>
+      </c>
+      <c r="AI2" s="4">
+        <v>-30000</v>
+      </c>
+      <c r="AJ2" s="4">
+        <v>-30000</v>
+      </c>
+      <c r="AK2" s="4">
+        <v>-30000</v>
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
@@ -7429,149 +8728,149 @@
         <v>1100000000000</v>
       </c>
       <c r="C3" s="9">
-        <f t="shared" ref="C3:V3" si="3">C2*(10^9)</f>
+        <f t="shared" ref="C3:V3" si="2">C2*(10^9)</f>
         <v>-9500000000000</v>
       </c>
       <c r="D3" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-16000000000000</v>
       </c>
       <c r="E3" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-7200000000000</v>
       </c>
       <c r="F3" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-15000000000000</v>
       </c>
       <c r="G3" s="9">
-        <f t="shared" si="3"/>
-        <v>-5700000000000</v>
+        <f t="shared" si="2"/>
+        <v>-16363636363636.363</v>
       </c>
       <c r="H3" s="9">
-        <f t="shared" si="3"/>
-        <v>-6130000000000</v>
+        <f t="shared" si="2"/>
+        <v>-17727272727272.727</v>
       </c>
       <c r="I3" s="9">
-        <f t="shared" si="3"/>
-        <v>-6560000000000</v>
+        <f t="shared" si="2"/>
+        <v>-19090909090909.094</v>
       </c>
       <c r="J3" s="9">
-        <f t="shared" si="3"/>
-        <v>-6990000000000</v>
+        <f t="shared" si="2"/>
+        <v>-20454545454545.457</v>
       </c>
       <c r="K3" s="9">
-        <f t="shared" si="3"/>
-        <v>-7420000000000</v>
+        <f t="shared" si="2"/>
+        <v>-21818181818181.82</v>
       </c>
       <c r="L3" s="9">
-        <f t="shared" si="3"/>
-        <v>-7850000000000</v>
+        <f t="shared" si="2"/>
+        <v>-23181818181818.184</v>
       </c>
       <c r="M3" s="9">
-        <f t="shared" si="3"/>
-        <v>-8280000000000</v>
+        <f t="shared" si="2"/>
+        <v>-24545454545454.547</v>
       </c>
       <c r="N3" s="9">
-        <f t="shared" si="3"/>
-        <v>-8710000000000</v>
+        <f t="shared" si="2"/>
+        <v>-25909090909090.91</v>
       </c>
       <c r="O3" s="9">
-        <f t="shared" si="3"/>
-        <v>-9140000000000</v>
+        <f t="shared" si="2"/>
+        <v>-27272727272727.277</v>
       </c>
       <c r="P3" s="9">
-        <f t="shared" si="3"/>
-        <v>-9570000000000</v>
+        <f t="shared" si="2"/>
+        <v>-28636363636363.641</v>
       </c>
       <c r="Q3" s="9">
-        <f t="shared" si="3"/>
-        <v>-10000000000000</v>
+        <f t="shared" si="2"/>
+        <v>-30000000000000</v>
       </c>
       <c r="R3" s="9">
         <f>R2*(10^9)</f>
-        <v>-9660000000000</v>
+        <v>-30000000000000</v>
       </c>
       <c r="S3" s="9">
+        <f t="shared" si="2"/>
+        <v>-30000000000000</v>
+      </c>
+      <c r="T3" s="9">
+        <f t="shared" si="2"/>
+        <v>-30000000000000</v>
+      </c>
+      <c r="U3" s="9">
+        <f t="shared" si="2"/>
+        <v>-30000000000000</v>
+      </c>
+      <c r="V3" s="9">
+        <f t="shared" si="2"/>
+        <v>-30000000000000</v>
+      </c>
+      <c r="W3" s="9">
+        <f t="shared" ref="W3:AK3" si="3">W2*(10^9)</f>
+        <v>-30000000000000</v>
+      </c>
+      <c r="X3" s="9">
         <f t="shared" si="3"/>
-        <v>-9320000000000</v>
-      </c>
-      <c r="T3" s="9">
+        <v>-30000000000000</v>
+      </c>
+      <c r="Y3" s="9">
         <f t="shared" si="3"/>
-        <v>-8980000000000</v>
-      </c>
-      <c r="U3" s="9">
+        <v>-30000000000000</v>
+      </c>
+      <c r="Z3" s="9">
         <f t="shared" si="3"/>
-        <v>-8640000000000</v>
-      </c>
-      <c r="V3" s="9">
+        <v>-30000000000000</v>
+      </c>
+      <c r="AA3" s="9">
         <f t="shared" si="3"/>
-        <v>-8300000000000</v>
-      </c>
-      <c r="W3" s="9">
-        <f t="shared" ref="W3:AK3" si="4">W2*(10^9)</f>
-        <v>-9882585034013.6094</v>
-      </c>
-      <c r="X3" s="9">
-        <f t="shared" si="4"/>
-        <v>-9954285714285.7109</v>
-      </c>
-      <c r="Y3" s="9">
-        <f t="shared" si="4"/>
-        <v>-10025986394557.811</v>
-      </c>
-      <c r="Z3" s="9">
-        <f t="shared" si="4"/>
-        <v>-10097687074829.912</v>
-      </c>
-      <c r="AA3" s="9">
-        <f t="shared" si="4"/>
-        <v>-10169387755102.041</v>
+        <v>-30000000000000</v>
       </c>
       <c r="AB3" s="9">
-        <f t="shared" si="4"/>
-        <v>-10241088435374.143</v>
+        <f t="shared" si="3"/>
+        <v>-30000000000000</v>
       </c>
       <c r="AC3" s="9">
-        <f t="shared" si="4"/>
-        <v>-10312789115646.242</v>
+        <f t="shared" si="3"/>
+        <v>-30000000000000</v>
       </c>
       <c r="AD3" s="9">
-        <f t="shared" si="4"/>
-        <v>-10384489795918.373</v>
+        <f t="shared" si="3"/>
+        <v>-30000000000000</v>
       </c>
       <c r="AE3" s="9">
-        <f t="shared" si="4"/>
-        <v>-10456190476190.473</v>
+        <f t="shared" si="3"/>
+        <v>-30000000000000</v>
       </c>
       <c r="AF3" s="9">
-        <f t="shared" si="4"/>
-        <v>-10527891156462.574</v>
+        <f t="shared" si="3"/>
+        <v>-30000000000000</v>
       </c>
       <c r="AG3" s="9">
-        <f t="shared" si="4"/>
-        <v>-10599591836734.676</v>
+        <f t="shared" si="3"/>
+        <v>-30000000000000</v>
       </c>
       <c r="AH3" s="9">
-        <f t="shared" si="4"/>
-        <v>-10671292517006.805</v>
+        <f t="shared" si="3"/>
+        <v>-30000000000000</v>
       </c>
       <c r="AI3" s="9">
-        <f t="shared" si="4"/>
-        <v>-10742993197278.906</v>
+        <f t="shared" si="3"/>
+        <v>-30000000000000</v>
       </c>
       <c r="AJ3" s="9">
-        <f t="shared" si="4"/>
-        <v>-10814693877551.006</v>
+        <f t="shared" si="3"/>
+        <v>-30000000000000</v>
       </c>
       <c r="AK3" s="9">
-        <f t="shared" si="4"/>
-        <v>-10886394557823.137</v>
+        <f t="shared" si="3"/>
+        <v>-30000000000000</v>
       </c>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.25">
@@ -7669,7 +8968,7 @@
         <v>25</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.25">
@@ -7684,8 +8983,8 @@
         <v>26</v>
       </c>
       <c r="F11" s="4">
-        <f>J7-K7</f>
-        <v>-1700</v>
+        <f>F2-Q2</f>
+        <v>15000</v>
       </c>
     </row>
     <row r="12" spans="1:37" ht="30" x14ac:dyDescent="0.25">
@@ -7700,8 +8999,8 @@
         <v>27</v>
       </c>
       <c r="F12" s="4">
-        <f>F11/5</f>
-        <v>-340</v>
+        <f>F11/11</f>
+        <v>1363.6363636363637</v>
       </c>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.25">
@@ -7716,7 +9015,7 @@
     </row>
     <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:37" x14ac:dyDescent="0.25">
@@ -7900,60 +9199,60 @@
         <v>-8300</v>
       </c>
       <c r="W27" s="11">
-        <f>V27-$B$33</f>
-        <v>-8472.4263038548761</v>
+        <f t="shared" ref="W27:AJ27" si="4">V27-$B$33</f>
+        <v>-9746.6666666666661</v>
       </c>
       <c r="X27" s="11">
-        <f>W27-$B$33</f>
-        <v>-8644.8526077097522</v>
+        <f t="shared" si="4"/>
+        <v>-11193.333333333332</v>
       </c>
       <c r="Y27" s="11">
-        <f>X27-$B$33</f>
-        <v>-8817.2789115646283</v>
+        <f t="shared" si="4"/>
+        <v>-12639.999999999998</v>
       </c>
       <c r="Z27" s="11">
-        <f>Y27-$B$33</f>
-        <v>-8989.7052154195044</v>
+        <f t="shared" si="4"/>
+        <v>-14086.666666666664</v>
       </c>
       <c r="AA27" s="11">
-        <f>Z27-$B$33</f>
-        <v>-9162.1315192743805</v>
+        <f t="shared" si="4"/>
+        <v>-15533.33333333333</v>
       </c>
       <c r="AB27" s="11">
-        <f>AA27-$B$33</f>
-        <v>-9334.5578231292566</v>
+        <f t="shared" si="4"/>
+        <v>-16979.999999999996</v>
       </c>
       <c r="AC27" s="11">
-        <f>AB27-$B$33</f>
-        <v>-9506.9841269841327</v>
+        <f t="shared" si="4"/>
+        <v>-18426.666666666664</v>
       </c>
       <c r="AD27" s="11">
-        <f>AC27-$B$33</f>
-        <v>-9679.4104308390088</v>
+        <f t="shared" si="4"/>
+        <v>-19873.333333333332</v>
       </c>
       <c r="AE27" s="11">
-        <f>AD27-$B$33</f>
-        <v>-9851.8367346938849</v>
+        <f t="shared" si="4"/>
+        <v>-21320</v>
       </c>
       <c r="AF27" s="11">
-        <f>AE27-$B$33</f>
-        <v>-10024.263038548761</v>
+        <f t="shared" si="4"/>
+        <v>-22766.666666666668</v>
       </c>
       <c r="AG27" s="11">
-        <f>AF27-$B$33</f>
-        <v>-10196.689342403637</v>
+        <f t="shared" si="4"/>
+        <v>-24213.333333333336</v>
       </c>
       <c r="AH27" s="11">
-        <f>AG27-$B$33</f>
-        <v>-10369.115646258513</v>
+        <f t="shared" si="4"/>
+        <v>-25660.000000000004</v>
       </c>
       <c r="AI27" s="11">
-        <f>AH27-$B$33</f>
-        <v>-10541.541950113389</v>
+        <f t="shared" si="4"/>
+        <v>-27106.666666666672</v>
       </c>
       <c r="AJ27" s="11">
-        <f>AI27-$B$33</f>
-        <v>-10713.968253968265</v>
+        <f t="shared" si="4"/>
+        <v>-28553.333333333339</v>
       </c>
       <c r="AK27" s="11">
         <v>-10886.394557823136</v>
@@ -8049,59 +9348,59 @@
       </c>
       <c r="W28">
         <f>W27*(10^9)</f>
-        <v>-8472426303854.876</v>
+        <v>-9746666666666.666</v>
       </c>
       <c r="X28">
         <f>X27*(10^9)</f>
-        <v>-8644852607709.752</v>
+        <v>-11193333333333.332</v>
       </c>
       <c r="Y28">
-        <f t="shared" ref="X28:AK28" si="6">Y27*(10^9)</f>
-        <v>-8817278911564.6289</v>
+        <f t="shared" ref="Y28:AK28" si="6">Y27*(10^9)</f>
+        <v>-12639999999999.998</v>
       </c>
       <c r="Z28">
         <f t="shared" si="6"/>
-        <v>-8989705215419.5039</v>
+        <v>-14086666666666.664</v>
       </c>
       <c r="AA28">
         <f t="shared" si="6"/>
-        <v>-9162131519274.3809</v>
+        <v>-15533333333333.33</v>
       </c>
       <c r="AB28">
         <f t="shared" si="6"/>
-        <v>-9334557823129.2559</v>
+        <v>-16979999999999.996</v>
       </c>
       <c r="AC28">
         <f t="shared" si="6"/>
-        <v>-9506984126984.1328</v>
+        <v>-18426666666666.664</v>
       </c>
       <c r="AD28">
         <f t="shared" si="6"/>
-        <v>-9679410430839.0078</v>
+        <v>-19873333333333.332</v>
       </c>
       <c r="AE28">
         <f t="shared" si="6"/>
-        <v>-9851836734693.8848</v>
+        <v>-21320000000000</v>
       </c>
       <c r="AF28">
         <f t="shared" si="6"/>
-        <v>-10024263038548.762</v>
+        <v>-22766666666666.668</v>
       </c>
       <c r="AG28">
         <f t="shared" si="6"/>
-        <v>-10196689342403.637</v>
+        <v>-24213333333333.336</v>
       </c>
       <c r="AH28">
         <f t="shared" si="6"/>
-        <v>-10369115646258.514</v>
+        <v>-25660000000000.004</v>
       </c>
       <c r="AI28">
         <f t="shared" si="6"/>
-        <v>-10541541950113.389</v>
+        <v>-27106666666666.672</v>
       </c>
       <c r="AJ28">
         <f t="shared" si="6"/>
-        <v>-10713968253968.266</v>
+        <v>-28553333333333.34</v>
       </c>
       <c r="AK28">
         <f t="shared" si="6"/>
@@ -8110,7 +9409,7 @@
     </row>
     <row r="31" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:37" x14ac:dyDescent="0.25">
@@ -8119,7 +9418,7 @@
       </c>
       <c r="B32" s="4">
         <f>K7-AK2</f>
-        <v>2586.394557823136</v>
+        <v>21700</v>
       </c>
     </row>
     <row r="33" spans="1:37" ht="30" x14ac:dyDescent="0.25">
@@ -8128,7 +9427,7 @@
       </c>
       <c r="B33" s="4">
         <f>B32/15</f>
-        <v>172.42630385487573</v>
+        <v>1446.6666666666667</v>
       </c>
     </row>
     <row r="47" spans="1:37" x14ac:dyDescent="0.25">
@@ -8524,6 +9823,391 @@
       <c r="AK49">
         <f t="shared" si="7"/>
         <v>-10886394557823.137</v>
+      </c>
+    </row>
+    <row r="71" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>22</v>
+      </c>
+      <c r="B71">
+        <v>2015</v>
+      </c>
+      <c r="C71">
+        <v>2016</v>
+      </c>
+      <c r="D71">
+        <v>2017</v>
+      </c>
+      <c r="E71">
+        <v>2018</v>
+      </c>
+      <c r="F71">
+        <v>2019</v>
+      </c>
+      <c r="G71">
+        <v>2020</v>
+      </c>
+      <c r="H71">
+        <v>2021</v>
+      </c>
+      <c r="I71">
+        <v>2022</v>
+      </c>
+      <c r="J71">
+        <v>2023</v>
+      </c>
+      <c r="K71">
+        <v>2024</v>
+      </c>
+      <c r="L71">
+        <v>2025</v>
+      </c>
+      <c r="M71">
+        <v>2026</v>
+      </c>
+      <c r="N71">
+        <v>2027</v>
+      </c>
+      <c r="O71">
+        <v>2028</v>
+      </c>
+      <c r="P71">
+        <v>2029</v>
+      </c>
+      <c r="Q71">
+        <v>2030</v>
+      </c>
+      <c r="R71">
+        <v>2031</v>
+      </c>
+      <c r="S71">
+        <v>2032</v>
+      </c>
+      <c r="T71">
+        <v>2033</v>
+      </c>
+      <c r="U71">
+        <v>2034</v>
+      </c>
+      <c r="V71">
+        <v>2035</v>
+      </c>
+      <c r="W71">
+        <v>2036</v>
+      </c>
+      <c r="X71">
+        <v>2037</v>
+      </c>
+      <c r="Y71">
+        <v>2038</v>
+      </c>
+      <c r="Z71">
+        <v>2039</v>
+      </c>
+      <c r="AA71">
+        <v>2040</v>
+      </c>
+      <c r="AB71">
+        <v>2041</v>
+      </c>
+      <c r="AC71">
+        <v>2042</v>
+      </c>
+      <c r="AD71">
+        <v>2043</v>
+      </c>
+      <c r="AE71">
+        <v>2044</v>
+      </c>
+      <c r="AF71">
+        <v>2045</v>
+      </c>
+      <c r="AG71">
+        <v>2046</v>
+      </c>
+      <c r="AH71">
+        <v>2047</v>
+      </c>
+      <c r="AI71">
+        <v>2048</v>
+      </c>
+      <c r="AJ71">
+        <v>2049</v>
+      </c>
+      <c r="AK71">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="72" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>23</v>
+      </c>
+      <c r="B72">
+        <v>1100</v>
+      </c>
+      <c r="C72">
+        <v>-9500</v>
+      </c>
+      <c r="D72">
+        <v>-16000</v>
+      </c>
+      <c r="E72">
+        <v>-7200</v>
+      </c>
+      <c r="F72">
+        <v>-15000</v>
+      </c>
+      <c r="G72" s="4">
+        <f>F72-$F$12</f>
+        <v>-16363.636363636364</v>
+      </c>
+      <c r="H72" s="4">
+        <f>G72-$F$12</f>
+        <v>-17727.272727272728</v>
+      </c>
+      <c r="I72" s="4">
+        <f>H72-$F$12</f>
+        <v>-19090.909090909092</v>
+      </c>
+      <c r="J72" s="4">
+        <f>I72-$F$12</f>
+        <v>-20454.545454545456</v>
+      </c>
+      <c r="K72" s="4">
+        <f>J72-$F$12</f>
+        <v>-21818.18181818182</v>
+      </c>
+      <c r="L72" s="4">
+        <f>K72-$F$12</f>
+        <v>-23181.818181818184</v>
+      </c>
+      <c r="M72" s="4">
+        <f>L72-$F$12</f>
+        <v>-24545.454545454548</v>
+      </c>
+      <c r="N72" s="4">
+        <f>M72-$F$12</f>
+        <v>-25909.090909090912</v>
+      </c>
+      <c r="O72" s="4">
+        <f>N72-$F$12</f>
+        <v>-27272.727272727276</v>
+      </c>
+      <c r="P72" s="4">
+        <f>O72-$F$12</f>
+        <v>-28636.36363636364</v>
+      </c>
+      <c r="Q72">
+        <v>-30000</v>
+      </c>
+      <c r="R72">
+        <v>-30000</v>
+      </c>
+      <c r="S72">
+        <v>-30000</v>
+      </c>
+      <c r="T72">
+        <v>-30000</v>
+      </c>
+      <c r="U72">
+        <v>-30000</v>
+      </c>
+      <c r="V72">
+        <v>-30000</v>
+      </c>
+      <c r="W72">
+        <v>-30000</v>
+      </c>
+      <c r="X72">
+        <v>-30000</v>
+      </c>
+      <c r="Y72">
+        <v>-30000</v>
+      </c>
+      <c r="Z72">
+        <v>-30000</v>
+      </c>
+      <c r="AA72">
+        <v>-30000</v>
+      </c>
+      <c r="AB72">
+        <v>-30000</v>
+      </c>
+      <c r="AC72">
+        <v>-30000</v>
+      </c>
+      <c r="AD72">
+        <v>-30000</v>
+      </c>
+      <c r="AE72">
+        <v>-30000</v>
+      </c>
+      <c r="AF72">
+        <v>-30000</v>
+      </c>
+      <c r="AG72">
+        <v>-30000</v>
+      </c>
+      <c r="AH72">
+        <v>-30000</v>
+      </c>
+      <c r="AI72">
+        <v>-30000</v>
+      </c>
+      <c r="AJ72">
+        <v>-30000</v>
+      </c>
+      <c r="AK72">
+        <v>-30000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>24</v>
+      </c>
+      <c r="B73">
+        <f>B72*(10^9)</f>
+        <v>1100000000000</v>
+      </c>
+      <c r="C73">
+        <f t="shared" ref="C73:AK73" si="8">C72*(10^9)</f>
+        <v>-9500000000000</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="8"/>
+        <v>-16000000000000</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="8"/>
+        <v>-7200000000000</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="8"/>
+        <v>-15000000000000</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="8"/>
+        <v>-16363636363636.363</v>
+      </c>
+      <c r="H73">
+        <f t="shared" si="8"/>
+        <v>-17727272727272.727</v>
+      </c>
+      <c r="I73">
+        <f t="shared" si="8"/>
+        <v>-19090909090909.094</v>
+      </c>
+      <c r="J73">
+        <f t="shared" si="8"/>
+        <v>-20454545454545.457</v>
+      </c>
+      <c r="K73">
+        <f t="shared" si="8"/>
+        <v>-21818181818181.82</v>
+      </c>
+      <c r="L73">
+        <f t="shared" si="8"/>
+        <v>-23181818181818.184</v>
+      </c>
+      <c r="M73">
+        <f t="shared" si="8"/>
+        <v>-24545454545454.547</v>
+      </c>
+      <c r="N73">
+        <f t="shared" si="8"/>
+        <v>-25909090909090.91</v>
+      </c>
+      <c r="O73">
+        <f t="shared" si="8"/>
+        <v>-27272727272727.277</v>
+      </c>
+      <c r="P73">
+        <f t="shared" si="8"/>
+        <v>-28636363636363.641</v>
+      </c>
+      <c r="Q73">
+        <f t="shared" si="8"/>
+        <v>-30000000000000</v>
+      </c>
+      <c r="R73">
+        <f t="shared" si="8"/>
+        <v>-30000000000000</v>
+      </c>
+      <c r="S73">
+        <f t="shared" si="8"/>
+        <v>-30000000000000</v>
+      </c>
+      <c r="T73">
+        <f t="shared" si="8"/>
+        <v>-30000000000000</v>
+      </c>
+      <c r="U73">
+        <f t="shared" si="8"/>
+        <v>-30000000000000</v>
+      </c>
+      <c r="V73">
+        <f t="shared" si="8"/>
+        <v>-30000000000000</v>
+      </c>
+      <c r="W73">
+        <f t="shared" si="8"/>
+        <v>-30000000000000</v>
+      </c>
+      <c r="X73">
+        <f t="shared" si="8"/>
+        <v>-30000000000000</v>
+      </c>
+      <c r="Y73">
+        <f t="shared" si="8"/>
+        <v>-30000000000000</v>
+      </c>
+      <c r="Z73">
+        <f t="shared" si="8"/>
+        <v>-30000000000000</v>
+      </c>
+      <c r="AA73">
+        <f t="shared" si="8"/>
+        <v>-30000000000000</v>
+      </c>
+      <c r="AB73">
+        <f t="shared" si="8"/>
+        <v>-30000000000000</v>
+      </c>
+      <c r="AC73">
+        <f t="shared" si="8"/>
+        <v>-30000000000000</v>
+      </c>
+      <c r="AD73">
+        <f t="shared" si="8"/>
+        <v>-30000000000000</v>
+      </c>
+      <c r="AE73">
+        <f t="shared" si="8"/>
+        <v>-30000000000000</v>
+      </c>
+      <c r="AF73">
+        <f t="shared" si="8"/>
+        <v>-30000000000000</v>
+      </c>
+      <c r="AG73">
+        <f t="shared" si="8"/>
+        <v>-30000000000000</v>
+      </c>
+      <c r="AH73">
+        <f t="shared" si="8"/>
+        <v>-30000000000000</v>
+      </c>
+      <c r="AI73">
+        <f t="shared" si="8"/>
+        <v>-30000000000000</v>
+      </c>
+      <c r="AJ73">
+        <f t="shared" si="8"/>
+        <v>-30000000000000</v>
+      </c>
+      <c r="AK73">
+        <f t="shared" si="8"/>
+        <v>-30000000000000</v>
       </c>
     </row>
   </sheetData>
@@ -8689,127 +10373,127 @@
       </c>
       <c r="G2">
         <f>Calculations!G3</f>
-        <v>-5700000000000</v>
+        <v>-16363636363636.363</v>
       </c>
       <c r="H2">
         <f>Calculations!H3</f>
-        <v>-6130000000000</v>
+        <v>-17727272727272.727</v>
       </c>
       <c r="I2">
         <f>Calculations!I3</f>
-        <v>-6560000000000</v>
+        <v>-19090909090909.094</v>
       </c>
       <c r="J2">
         <f>Calculations!J3</f>
-        <v>-6990000000000</v>
+        <v>-20454545454545.457</v>
       </c>
       <c r="K2">
         <f>Calculations!K3</f>
-        <v>-7420000000000</v>
+        <v>-21818181818181.82</v>
       </c>
       <c r="L2">
         <f>Calculations!L3</f>
-        <v>-7850000000000</v>
+        <v>-23181818181818.184</v>
       </c>
       <c r="M2">
         <f>Calculations!M3</f>
-        <v>-8280000000000</v>
+        <v>-24545454545454.547</v>
       </c>
       <c r="N2">
         <f>Calculations!N3</f>
-        <v>-8710000000000</v>
+        <v>-25909090909090.91</v>
       </c>
       <c r="O2">
         <f>Calculations!O3</f>
-        <v>-9140000000000</v>
+        <v>-27272727272727.277</v>
       </c>
       <c r="P2">
         <f>Calculations!P3</f>
-        <v>-9570000000000</v>
+        <v>-28636363636363.641</v>
       </c>
       <c r="Q2">
         <f>Calculations!Q3</f>
-        <v>-10000000000000</v>
+        <v>-30000000000000</v>
       </c>
       <c r="R2">
         <f>Calculations!R3</f>
-        <v>-9660000000000</v>
+        <v>-30000000000000</v>
       </c>
       <c r="S2">
         <f>Calculations!S3</f>
-        <v>-9320000000000</v>
+        <v>-30000000000000</v>
       </c>
       <c r="T2">
         <f>Calculations!T3</f>
-        <v>-8980000000000</v>
+        <v>-30000000000000</v>
       </c>
       <c r="U2">
         <f>Calculations!U3</f>
-        <v>-8640000000000</v>
+        <v>-30000000000000</v>
       </c>
       <c r="V2">
         <f>Calculations!V3</f>
-        <v>-8300000000000</v>
+        <v>-30000000000000</v>
       </c>
       <c r="W2">
         <f>Calculations!W3</f>
-        <v>-9882585034013.6094</v>
+        <v>-30000000000000</v>
       </c>
       <c r="X2">
         <f>Calculations!X3</f>
-        <v>-9954285714285.7109</v>
+        <v>-30000000000000</v>
       </c>
       <c r="Y2">
         <f>Calculations!Y3</f>
-        <v>-10025986394557.811</v>
+        <v>-30000000000000</v>
       </c>
       <c r="Z2">
         <f>Calculations!Z3</f>
-        <v>-10097687074829.912</v>
+        <v>-30000000000000</v>
       </c>
       <c r="AA2">
         <f>Calculations!AA3</f>
-        <v>-10169387755102.041</v>
+        <v>-30000000000000</v>
       </c>
       <c r="AB2">
         <f>Calculations!AB3</f>
-        <v>-10241088435374.143</v>
+        <v>-30000000000000</v>
       </c>
       <c r="AC2">
         <f>Calculations!AC3</f>
-        <v>-10312789115646.242</v>
+        <v>-30000000000000</v>
       </c>
       <c r="AD2">
         <f>Calculations!AD3</f>
-        <v>-10384489795918.373</v>
+        <v>-30000000000000</v>
       </c>
       <c r="AE2">
         <f>Calculations!AE3</f>
-        <v>-10456190476190.473</v>
+        <v>-30000000000000</v>
       </c>
       <c r="AF2">
         <f>Calculations!AF3</f>
-        <v>-10527891156462.574</v>
+        <v>-30000000000000</v>
       </c>
       <c r="AG2">
         <f>Calculations!AG3</f>
-        <v>-10599591836734.676</v>
+        <v>-30000000000000</v>
       </c>
       <c r="AH2">
         <f>Calculations!AH3</f>
-        <v>-10671292517006.805</v>
+        <v>-30000000000000</v>
       </c>
       <c r="AI2">
         <f>Calculations!AI3</f>
-        <v>-10742993197278.906</v>
+        <v>-30000000000000</v>
       </c>
       <c r="AJ2">
         <f>Calculations!AJ3</f>
-        <v>-10814693877551.006</v>
+        <v>-30000000000000</v>
       </c>
       <c r="AK2">
         <f>Calculations!AK3</f>
-        <v>-10886394557823.137</v>
+        <v>-30000000000000</v>
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
@@ -10061,6 +11745,35 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <of2ed5e60f3c4f8984f283882cb94320 xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </of2ed5e60f3c4f8984f283882cb94320>
+    <ff7c4ad8664a4671b57370e258acad6a xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ff7c4ad8664a4671b57370e258acad6a>
+    <l787e5950a9249679d0130235a9a791b xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </l787e5950a9249679d0130235a9a791b>
+    <TaxCatchAll xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="de340059-046a-4f1a-8b62-ade039df3700">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="21" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b14dc5c440242a7f7d08dacad5c84df8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="71a713f9ca42e4f2f02aa83a9b465f65" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
@@ -10326,36 +12039,33 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA861F6F-5B78-491C-8A8D-F667F1C3C913}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="de340059-046a-4f1a-8b62-ade039df3700"/>
+    <ds:schemaRef ds:uri="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <of2ed5e60f3c4f8984f283882cb94320 xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </of2ed5e60f3c4f8984f283882cb94320>
-    <ff7c4ad8664a4671b57370e258acad6a xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ff7c4ad8664a4671b57370e258acad6a>
-    <l787e5950a9249679d0130235a9a791b xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </l787e5950a9249679d0130235a9a791b>
-    <TaxCatchAll xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="de340059-046a-4f1a-8b62-ade039df3700">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18F5C38C-50C9-42E7-8E43-7E5467D45C6B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B19BA2D7-6A7B-4801-AF36-6A025FF1D347}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10373,30 +12083,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18F5C38C-50C9-42E7-8E43-7E5467D45C6B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA861F6F-5B78-491C-8A8D-F667F1C3C913}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="de340059-046a-4f1a-8b62-ade039df3700"/>
-    <ds:schemaRef ds:uri="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/InputData/land/BLAPE/BAU LULUCF Anthro Pollutant Emis.xlsx
+++ b/InputData/land/BLAPE/BAU LULUCF Anthro Pollutant Emis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26412"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pembinainstitute.sharepoint.com/sites/PRO-EnergyPolicySimulator2021/Shared Documents/Research and Analysis/CANADA-inputData/land/BLAPE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="506" documentId="11_5405EDD4148383FD4B3BD6143CB5EE8768C9057E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DE2352FC-B9A9-4F8E-8497-974452311E0D}"/>
+  <xr:revisionPtr revIDLastSave="541" documentId="11_5405EDD4148383FD4B3BD6143CB5EE8768C9057E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{29543F6C-6AD1-44CF-80AB-1864F9397350}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -28,36 +28,15 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="80">
   <si>
     <t>BLAPE BAU LULUCF Anthropogenic Pollutant Emissions</t>
   </si>
@@ -68,234 +47,243 @@
     <t>CO2 Sequestration Start Year</t>
   </si>
   <si>
-    <t>https://publications.gc.ca/collections/collection_2021/eccc/En1-78-2020-eng.pdf</t>
-  </si>
-  <si>
-    <t>Table A.35</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>Canada’s Greenhouse Gas and Air Pollutant Emissions Projections 2020</t>
-  </si>
-  <si>
-    <t>kt CO2 eq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">⁰ Historical estimates and projections do not include net emissions from drainage, as these projections are not yet available. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">¹ Negative sign indicates net removals of CO₂ from the atmosphere. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">² Historical estimates and projections do not include net emissions from agricultural woody biomass, as these projections are not yet </t>
-  </si>
-  <si>
-    <t xml:space="preserve">available. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">³ Historical estimates and projections are only for Forest Land converted to Cropland. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">⁴ No projections are available for grasslands. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">⁵ Historical estimates and projections are only for Forest Land converted to Wetlands. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">⁶ Historical estimates and projections are only for Forest Land converted to Settlements. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">⁷ Totals may not add up to due to rounding. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">⁸ Shown for information only. Forest Conversion overlaps with the sub-sectors of Cropland remaining Cropland (CLCL), Land converted to </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cropland (LCL), Wetlands remaining Wetlands (WLWL), Land converted to Wetlands (LWL), Land converted to Settlements (LSL) and </t>
-  </si>
-  <si>
-    <t>Harvested Wood Products (HWP).</t>
-  </si>
-  <si>
-    <t>For reference:</t>
-  </si>
-  <si>
-    <t>Table 6-1, NIR 2021</t>
-  </si>
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>CO2 (kt)</t>
-  </si>
-  <si>
-    <t>CO2 (g)</t>
-  </si>
-  <si>
-    <t>straight line calculation from 2020 to 2030</t>
-  </si>
-  <si>
-    <t>step 1</t>
-  </si>
-  <si>
-    <t>change each year</t>
-  </si>
-  <si>
-    <t>conversion</t>
-  </si>
-  <si>
-    <t>1 kt =  10^9 g</t>
-  </si>
-  <si>
-    <t>VOCs (g)</t>
-  </si>
-  <si>
-    <t>CO (g)</t>
-  </si>
-  <si>
-    <t>NOx (g)</t>
-  </si>
-  <si>
-    <t>PM10 (g)</t>
-  </si>
-  <si>
-    <t>PM25 (g)</t>
-  </si>
-  <si>
-    <t>SOx (g)</t>
-  </si>
-  <si>
-    <t>BC (g)</t>
-  </si>
-  <si>
-    <t>OC (g)</t>
-  </si>
-  <si>
-    <t>CH4 (g)</t>
-  </si>
-  <si>
-    <t>N2O (g)</t>
-  </si>
-  <si>
-    <t>F gases (g CO2e)</t>
-  </si>
-  <si>
-    <t>Mt CO2 eq</t>
-  </si>
-  <si>
-    <t>Table 5A-57, Canada's 8th National Communication and 5th biennial report, 2022</t>
-  </si>
-  <si>
-    <t>Table ES-2, NATIONAL INVENTORY REPORT 1990 –2020: GREENHOUSE GAS SOURCES AND SINKS IN CANADA</t>
-  </si>
-  <si>
-    <t>Table A.35, Canada's Greenhouse Gas and Air Pollutant Emissions Projections 2021</t>
-  </si>
-  <si>
-    <t>a) Negative sign indicates net removals of CO2 from the atmosphere.</t>
-  </si>
-  <si>
-    <t>b) Historical estimates and projections do not include net emissions from drainage, as these projections are not yet</t>
-  </si>
-  <si>
-    <t>available.</t>
-  </si>
-  <si>
-    <t>c) Historical estimates and projections do not include net emissions from agricultural woody biomass, as these projections</t>
-  </si>
-  <si>
-    <t>are not yet available.</t>
-  </si>
-  <si>
-    <t>d) Historical estimates and projections are only for Forest Land converted to Cropland.</t>
-  </si>
-  <si>
-    <t>e) No projections are available for grasslands.</t>
-  </si>
-  <si>
-    <t>f) Historical estimates and projections are only for Forest Land converted to Wetlands.</t>
-  </si>
-  <si>
-    <t>g) Historical estimates and projections are only for Forest Land converted to Settlements.</t>
-  </si>
-  <si>
-    <t>h) Emissions for different components shown separately for information and because the accounting approach differs</t>
-  </si>
-  <si>
-    <t>between “HWP from FLFL” (Reference Level) and “HWP from Forest Conversion” (Net-Net).</t>
-  </si>
-  <si>
-    <t>i) This series represents HWP emissions from Residential Firewood coming from Cropland and Settlements only, for</t>
-  </si>
-  <si>
-    <t>which projections are not currently available. HWP emissions from Residential Firewood coming from Forest Land is</t>
-  </si>
-  <si>
-    <t>included in the “HWP from FLFL series”.</t>
-  </si>
-  <si>
-    <t>j) Totals may not add up due to rounding.</t>
-  </si>
-  <si>
-    <t>k) Shown for information only. Forest Conversion overlaps with the sub-sectors of “Cropland remaining Cropland (CLCL)”,</t>
-  </si>
-  <si>
-    <t>“Land converted to Cropland (LCL)”, “Wetlands remaining Wetlands (WLWL)”, “Land converted to Wetlands (LWL)”, “Land</t>
-  </si>
-  <si>
-    <t>converted to Settlements (LSL)”, and “Harvested Wood Products (HWP)”.</t>
-  </si>
-  <si>
-    <t>Notes:</t>
-  </si>
-  <si>
     <t>Government of Canada</t>
   </si>
   <si>
     <t>CANADA’S 8th NATIONAL COMMUNICATION AND 5th BIENNIAL REPORT</t>
+  </si>
+  <si>
+    <t>https://unfccc.int/sites/default/files/resource/Canada%20NC8%20BR5%20EN.pdf</t>
   </si>
   <si>
     <t>Table 5A-57: Net GHG flux estimates for selected years from LULUCF sub-sectors for which
 projections are currently available</t>
   </si>
   <si>
-    <t>https://unfccc.int/sites/default/files/resource/Canada%20NC8%20BR5%20EN.pdf</t>
+    <t>Environment and Climate Change Canada</t>
+  </si>
+  <si>
+    <t>2030 Emissions Reduction Plan</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/content/dam/eccc/documents/pdf/climate-change/erp/Canada-2030-Emissions-Reduction-Plan-eng.pdf</t>
+  </si>
+  <si>
+    <t>Section 3.2 Canada's 2030 Trajectory</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>We only have projections up to 2020, 2030 and 2035.</t>
+  </si>
+  <si>
+    <t>We used a straight line method to fill values from 2019 to 2030, using the -30 Mt CO2e reduction from the Canada's 2030 ERP plan for the 2030 value.</t>
+  </si>
+  <si>
+    <t>We held the land use value of -30 Mt CO2e after 2030 up to 2050.</t>
+  </si>
+  <si>
+    <t>The biennial report was selected due to projecting the furthest for the land use. Different data sets are found in the "data" tab.</t>
+  </si>
+  <si>
+    <t>Table A.35</t>
+  </si>
+  <si>
+    <t>Canada’s Greenhouse Gas and Air Pollutant Emissions Projections 2020</t>
+  </si>
+  <si>
+    <t>https://publications.gc.ca/collections/collection_2021/eccc/En1-78-2020-eng.pdf</t>
+  </si>
+  <si>
+    <t>kt CO2 eq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">⁰ Historical estimates and projections do not include net emissions from drainage, as these projections are not yet available. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">¹ Negative sign indicates net removals of CO₂ from the atmosphere. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">² Historical estimates and projections do not include net emissions from agricultural woody biomass, as these projections are not yet </t>
+  </si>
+  <si>
+    <t xml:space="preserve">available. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">³ Historical estimates and projections are only for Forest Land converted to Cropland. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">⁴ No projections are available for grasslands. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">⁵ Historical estimates and projections are only for Forest Land converted to Wetlands. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">⁶ Historical estimates and projections are only for Forest Land converted to Settlements. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">⁷ Totals may not add up to due to rounding. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">⁸ Shown for information only. Forest Conversion overlaps with the sub-sectors of Cropland remaining Cropland (CLCL), Land converted to </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cropland (LCL), Wetlands remaining Wetlands (WLWL), Land converted to Wetlands (LWL), Land converted to Settlements (LSL) and </t>
+  </si>
+  <si>
+    <t>Harvested Wood Products (HWP).</t>
+  </si>
+  <si>
+    <t>For reference:</t>
+  </si>
+  <si>
+    <t>Table 6-1, NIR 2021</t>
+  </si>
+  <si>
+    <t>Table ES-2, NATIONAL INVENTORY REPORT 1990 –2020: GREENHOUSE GAS SOURCES AND SINKS IN CANADA</t>
+  </si>
+  <si>
+    <t>Mt CO2 eq</t>
+  </si>
+  <si>
+    <t>Table A.35, Canada's Greenhouse Gas and Air Pollutant Emissions Projections 2021</t>
+  </si>
+  <si>
+    <t>Table 5A-57, Canada's 8th National Communication and 5th biennial report, 2022</t>
+  </si>
+  <si>
+    <t>Notes:</t>
+  </si>
+  <si>
+    <t>a) Negative sign indicates net removals of CO2 from the atmosphere.</t>
+  </si>
+  <si>
+    <t>b) Historical estimates and projections do not include net emissions from drainage, as these projections are not yet</t>
+  </si>
+  <si>
+    <t>available.</t>
+  </si>
+  <si>
+    <t>c) Historical estimates and projections do not include net emissions from agricultural woody biomass, as these projections</t>
+  </si>
+  <si>
+    <t>Remove the Forestry harvesting from dataset</t>
+  </si>
+  <si>
+    <t>are not yet available.</t>
+  </si>
+  <si>
+    <t>d) Historical estimates and projections are only for Forest Land converted to Cropland.</t>
+  </si>
+  <si>
+    <t>e) No projections are available for grasslands.</t>
+  </si>
+  <si>
+    <t>f) Historical estimates and projections are only for Forest Land converted to Wetlands.</t>
+  </si>
+  <si>
+    <t>g) Historical estimates and projections are only for Forest Land converted to Settlements.</t>
+  </si>
+  <si>
+    <t>h) Emissions for different components shown separately for information and because the accounting approach differs</t>
+  </si>
+  <si>
+    <t>between “HWP from FLFL” (Reference Level) and “HWP from Forest Conversion” (Net-Net).</t>
+  </si>
+  <si>
+    <t>i) This series represents HWP emissions from Residential Firewood coming from Cropland and Settlements only, for</t>
+  </si>
+  <si>
+    <t>which projections are not currently available. HWP emissions from Residential Firewood coming from Forest Land is</t>
+  </si>
+  <si>
+    <t>included in the “HWP from FLFL series”.</t>
+  </si>
+  <si>
+    <t>j) Totals may not add up due to rounding.</t>
+  </si>
+  <si>
+    <t>k) Shown for information only. Forest Conversion overlaps with the sub-sectors of “Cropland remaining Cropland (CLCL)”,</t>
+  </si>
+  <si>
+    <t>“Land converted to Cropland (LCL)”, “Wetlands remaining Wetlands (WLWL)”, “Land converted to Wetlands (LWL)”, “Land</t>
+  </si>
+  <si>
+    <t>converted to Settlements (LSL)”, and “Harvested Wood Products (HWP)”.</t>
+  </si>
+  <si>
+    <t>Natural Climate Solutions for Canada</t>
+  </si>
+  <si>
+    <t>https://nature4climate.org/nature-in-action/canada-ncs-mapper/</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>CO2 (kt)</t>
+  </si>
+  <si>
+    <t>CO2 (g)</t>
   </si>
   <si>
     <t>Filled values between 2020-2030, and 2030-2035</t>
   </si>
   <si>
-    <t>Remove the Forestry harvesting from dataset</t>
-  </si>
-  <si>
-    <t>We used the available 2015-2035 available data to project forward to 2050.</t>
-  </si>
-  <si>
-    <t>We only have projections up to 2020, 2030 and 2035. We used a straight line method to fill values for 2020-2035 for the missing values.</t>
-  </si>
-  <si>
-    <t>Different data sets are found in the "data" tab, the biennial report was selected due to projecting the furthest for the land use.</t>
-  </si>
-  <si>
-    <t>https://nature4climate.org/nature-in-action/canada-ncs-mapper/</t>
-  </si>
-  <si>
-    <t>Natural Climate Solutions for Canada</t>
-  </si>
-  <si>
-    <t>straight line calculation from 2035 to 2050</t>
-  </si>
-  <si>
-    <t>Straight line calculation applied to smooth out trend from 2035 to 2050, based on average</t>
+    <t>straight line calculation from 2020 to 2030</t>
+  </si>
+  <si>
+    <t>step 1</t>
+  </si>
+  <si>
+    <t>change each year</t>
+  </si>
+  <si>
+    <t>conversion</t>
+  </si>
+  <si>
+    <t>1 kt =  10^9 g</t>
+  </si>
+  <si>
+    <t>VOCs (g)</t>
+  </si>
+  <si>
+    <t>CO (g)</t>
+  </si>
+  <si>
+    <t>NOx (g)</t>
+  </si>
+  <si>
+    <t>PM10 (g)</t>
+  </si>
+  <si>
+    <t>PM25 (g)</t>
+  </si>
+  <si>
+    <t>SOx (g)</t>
+  </si>
+  <si>
+    <t>BC (g)</t>
+  </si>
+  <si>
+    <t>OC (g)</t>
+  </si>
+  <si>
+    <t>CH4 (g)</t>
+  </si>
+  <si>
+    <t>N2O (g)</t>
+  </si>
+  <si>
+    <t>F gases (g CO2e)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1790,2169 +1778,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Calculations!$A$27</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>CO2 (kt)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Calculations!$F$26:$AK$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
-                <c:pt idx="0">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2022</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2023</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2024</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2025</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2026</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2027</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2028</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2029</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2030</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2031</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2032</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2033</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2034</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2035</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2036</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2037</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2038</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2039</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2040</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2041</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2042</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2043</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2044</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2045</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2046</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2047</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2049</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2050</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Calculations!$F$27:$AK$27</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
-                <c:pt idx="0">
-                  <c:v>-15000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-5700</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-6130</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-6560</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-6990</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-7420</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-7850</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-8280</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-8710</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-9140</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-9570</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-10000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-9660</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-9320</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-8980</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-8640</c:v>
-                </c:pt>
-                <c:pt idx="16" formatCode="#,##0">
-                  <c:v>-8300</c:v>
-                </c:pt>
-                <c:pt idx="17" formatCode="#,##0">
-                  <c:v>-9746.6666666666661</c:v>
-                </c:pt>
-                <c:pt idx="18" formatCode="#,##0">
-                  <c:v>-11193.333333333332</c:v>
-                </c:pt>
-                <c:pt idx="19" formatCode="#,##0">
-                  <c:v>-12639.999999999998</c:v>
-                </c:pt>
-                <c:pt idx="20" formatCode="#,##0">
-                  <c:v>-14086.666666666664</c:v>
-                </c:pt>
-                <c:pt idx="21" formatCode="#,##0">
-                  <c:v>-15533.33333333333</c:v>
-                </c:pt>
-                <c:pt idx="22" formatCode="#,##0">
-                  <c:v>-16979.999999999996</c:v>
-                </c:pt>
-                <c:pt idx="23" formatCode="#,##0">
-                  <c:v>-18426.666666666664</c:v>
-                </c:pt>
-                <c:pt idx="24" formatCode="#,##0">
-                  <c:v>-19873.333333333332</c:v>
-                </c:pt>
-                <c:pt idx="25" formatCode="#,##0">
-                  <c:v>-21320</c:v>
-                </c:pt>
-                <c:pt idx="26" formatCode="#,##0">
-                  <c:v>-22766.666666666668</c:v>
-                </c:pt>
-                <c:pt idx="27" formatCode="#,##0">
-                  <c:v>-24213.333333333336</c:v>
-                </c:pt>
-                <c:pt idx="28" formatCode="#,##0">
-                  <c:v>-25660.000000000004</c:v>
-                </c:pt>
-                <c:pt idx="29" formatCode="#,##0">
-                  <c:v>-27106.666666666672</c:v>
-                </c:pt>
-                <c:pt idx="30" formatCode="#,##0">
-                  <c:v>-28553.333333333339</c:v>
-                </c:pt>
-                <c:pt idx="31" formatCode="#,##0">
-                  <c:v>-10886.394557823136</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-00C6-4E85-8C44-B075FFD19194}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Calculations!$A$28</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>CO2 (g)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Calculations!$F$26:$AK$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
-                <c:pt idx="0">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2022</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2023</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2024</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2025</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2026</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2027</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2028</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2029</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2030</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2031</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2032</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2033</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2034</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2035</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2036</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2037</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2038</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2039</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2040</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2041</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2042</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2043</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2044</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2045</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2046</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2047</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2049</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2050</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Calculations!$F$28:$AK$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
-                <c:pt idx="0">
-                  <c:v>-15000000000000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-5700000000000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-6130000000000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-6560000000000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-6990000000000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-7420000000000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-7850000000000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-8280000000000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-8710000000000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-9140000000000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-9570000000000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-10000000000000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-9660000000000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-9320000000000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-8980000000000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-8640000000000</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-8300000000000</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-9746666666666.666</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-11193333333333.332</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-12639999999999.998</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-14086666666666.664</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-15533333333333.33</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-16979999999999.996</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-18426666666666.664</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-19873333333333.332</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-21320000000000</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-22766666666666.668</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-24213333333333.336</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-25660000000000.004</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-27106666666666.672</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-28553333333333.34</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-10886394557823.137</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-00C6-4E85-8C44-B075FFD19194}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="448963840"/>
-        <c:axId val="448988800"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="448963840"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="448988800"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="448988800"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="448963840"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Calculations!$A$48</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>CO2 (kt)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Calculations!$F$47:$AK$47</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
-                <c:pt idx="0">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2022</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2023</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2024</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2025</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2026</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2027</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2028</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2029</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2030</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2031</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2032</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2033</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2034</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2035</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2036</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2037</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2038</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2039</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2040</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2041</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2042</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2043</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2044</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2045</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2046</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2047</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2049</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2050</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Calculations!$F$48:$AK$48</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
-                <c:pt idx="0">
-                  <c:v>-15000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-5700</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-6130</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-6560</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-6990</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-7420</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-7850</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-8280</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-8710</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-9140</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-9570</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-10000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-9524.0816326530476</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-9595.7823129251774</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-9667.4829931972781</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-9739.1836734693788</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-9810.8843537414796</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-9882.5850340136094</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-9954.2857142857101</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-10025.986394557811</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-10097.687074829912</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-10169.387755102041</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-10241.088435374142</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-10312.789115646243</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-10384.489795918373</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-10456.190476190473</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-10527.891156462574</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-10599.591836734675</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-10671.292517006805</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-10742.993197278905</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-10814.693877551006</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-10886.394557823136</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-AE99-4532-BEEE-FDF01157AC04}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Calculations!$A$49</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>CO2 (g)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Calculations!$F$47:$AK$47</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
-                <c:pt idx="0">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2022</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2023</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2024</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2025</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2026</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2027</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2028</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2029</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2030</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2031</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2032</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2033</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2034</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2035</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2036</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2037</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2038</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2039</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2040</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2041</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2042</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2043</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2044</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2045</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2046</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2047</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2049</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2050</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Calculations!$F$49:$AK$49</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
-                <c:pt idx="0">
-                  <c:v>-15000000000000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-5700000000000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-6130000000000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-6560000000000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-6990000000000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-7420000000000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-7850000000000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-8280000000000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-8710000000000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-9140000000000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-9570000000000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-10000000000000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-9524081632653.0469</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-9595782312925.1777</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-9667482993197.2773</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-9739183673469.3789</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-9810884353741.4805</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-9882585034013.6094</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-9954285714285.7109</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-10025986394557.811</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-10097687074829.912</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-10169387755102.041</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-10241088435374.143</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-10312789115646.242</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-10384489795918.373</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-10456190476190.473</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-10527891156462.574</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-10599591836734.676</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-10671292517006.805</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-10742993197278.906</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-10814693877551.006</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-10886394557823.137</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-AE99-4532-BEEE-FDF01157AC04}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="1085389503"/>
-        <c:axId val="1085385183"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1085389503"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1085385183"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1085385183"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1085389503"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Calculations!$A$72</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>CO2 (kt)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Calculations!$F$71:$AK$71</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
-                <c:pt idx="0">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2022</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2023</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2024</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2025</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2026</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2027</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2028</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2029</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2030</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2031</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2032</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2033</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2034</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2035</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2036</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2037</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2038</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2039</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2040</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2041</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2042</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2043</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2044</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2045</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2046</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2047</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2049</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2050</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Calculations!$F$72:$AK$72</c:f>
-              <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="32"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>-15000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-16363.636363636364</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-17727.272727272728</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-19090.909090909092</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-20454.545454545456</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-21818.18181818182</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-23181.818181818184</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-24545.454545454548</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-25909.090909090912</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-27272.727272727276</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-28636.36363636364</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="General">
-                  <c:v>-30000</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="General">
-                  <c:v>-30000</c:v>
-                </c:pt>
-                <c:pt idx="13" formatCode="General">
-                  <c:v>-30000</c:v>
-                </c:pt>
-                <c:pt idx="14" formatCode="General">
-                  <c:v>-30000</c:v>
-                </c:pt>
-                <c:pt idx="15" formatCode="General">
-                  <c:v>-30000</c:v>
-                </c:pt>
-                <c:pt idx="16" formatCode="General">
-                  <c:v>-30000</c:v>
-                </c:pt>
-                <c:pt idx="17" formatCode="General">
-                  <c:v>-30000</c:v>
-                </c:pt>
-                <c:pt idx="18" formatCode="General">
-                  <c:v>-30000</c:v>
-                </c:pt>
-                <c:pt idx="19" formatCode="General">
-                  <c:v>-30000</c:v>
-                </c:pt>
-                <c:pt idx="20" formatCode="General">
-                  <c:v>-30000</c:v>
-                </c:pt>
-                <c:pt idx="21" formatCode="General">
-                  <c:v>-30000</c:v>
-                </c:pt>
-                <c:pt idx="22" formatCode="General">
-                  <c:v>-30000</c:v>
-                </c:pt>
-                <c:pt idx="23" formatCode="General">
-                  <c:v>-30000</c:v>
-                </c:pt>
-                <c:pt idx="24" formatCode="General">
-                  <c:v>-30000</c:v>
-                </c:pt>
-                <c:pt idx="25" formatCode="General">
-                  <c:v>-30000</c:v>
-                </c:pt>
-                <c:pt idx="26" formatCode="General">
-                  <c:v>-30000</c:v>
-                </c:pt>
-                <c:pt idx="27" formatCode="General">
-                  <c:v>-30000</c:v>
-                </c:pt>
-                <c:pt idx="28" formatCode="General">
-                  <c:v>-30000</c:v>
-                </c:pt>
-                <c:pt idx="29" formatCode="General">
-                  <c:v>-30000</c:v>
-                </c:pt>
-                <c:pt idx="30" formatCode="General">
-                  <c:v>-30000</c:v>
-                </c:pt>
-                <c:pt idx="31" formatCode="General">
-                  <c:v>-30000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-161B-4CB2-B64C-B54224D549B1}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Calculations!$A$73</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>CO2 (g)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Calculations!$F$71:$AK$71</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
-                <c:pt idx="0">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2022</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2023</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2024</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2025</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2026</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2027</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2028</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2029</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2030</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2031</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2032</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2033</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2034</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2035</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2036</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2037</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2038</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2039</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2040</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2041</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2042</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2043</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2044</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2045</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2046</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2047</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2049</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2050</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Calculations!$F$73:$AK$73</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
-                <c:pt idx="0">
-                  <c:v>-15000000000000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-16363636363636.363</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-17727272727272.727</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-19090909090909.094</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-20454545454545.457</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-21818181818181.82</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-23181818181818.184</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-24545454545454.547</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-25909090909090.91</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-27272727272727.277</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-28636363636363.641</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-30000000000000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-30000000000000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-30000000000000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-30000000000000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-30000000000000</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-30000000000000</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-30000000000000</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-30000000000000</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-30000000000000</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-30000000000000</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-30000000000000</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-30000000000000</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-30000000000000</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-30000000000000</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-30000000000000</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-30000000000000</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-30000000000000</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-30000000000000</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-30000000000000</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-30000000000000</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-30000000000000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-161B-4CB2-B64C-B54224D549B1}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="863951408"/>
-        <c:axId val="863952368"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="863951408"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="863952368"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="863952368"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="863951408"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -4073,126 +1898,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -5226,1554 +2931,6 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7330,15 +3487,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7346,6 +3503,9 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C595A660-1C00-C5CE-4293-49D0386CC1E3}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{2C08D349-7022-6C55-818C-9204F5276E63}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7399,114 +3559,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3953C987-DE57-E70C-C3D9-5599271FC9B3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5046B429-150A-D6FA-CD00-52CB79BB2CA9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52BB4DD2-8FB5-55B1-DEFB-7E0503CF5AED}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7836,24 +3888,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.42578125" customWidth="1"/>
     <col min="2" max="2" width="51.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -7861,57 +3913,88 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="B4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="B5" s="6">
         <v>2022</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="B6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="B7" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="B8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>72</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="B11" s="6">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="B13" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{37D219DF-5681-430F-9467-A190A88DAF77}"/>
+    <hyperlink ref="B13" r:id="rId2" xr:uid="{9489F33C-8A91-4CDE-8467-DA764410F908}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -7919,31 +4002,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDC65964-AC57-4F16-9CCC-2FF63904A811}">
   <dimension ref="A2:O72"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="L55" sqref="L55"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L53" sqref="L53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="B6" s="7">
         <v>1990</v>
       </c>
@@ -7975,9 +4058,9 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B7" s="7">
         <v>-58000</v>
@@ -8010,82 +4093,82 @@
         <v>-9500</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="B30">
         <v>1990</v>
       </c>
@@ -8111,9 +4194,9 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B31" s="11">
         <v>-57000</v>
@@ -8140,12 +4223,12 @@
         <v>9900</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11">
       <c r="A33" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="B34">
         <v>2005</v>
       </c>
@@ -8168,9 +4251,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11">
       <c r="A35" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B35">
         <v>-4.2</v>
@@ -8194,84 +4277,84 @@
         <v>-6.8</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B42">
+    <row r="38" spans="1:11">
+      <c r="A38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="B39">
         <v>1990</v>
       </c>
-      <c r="C42">
+      <c r="C39">
         <v>2005</v>
       </c>
-      <c r="D42">
+      <c r="D39">
         <v>2014</v>
       </c>
-      <c r="E42">
+      <c r="E39">
         <v>2015</v>
       </c>
-      <c r="F42">
+      <c r="F39">
         <v>2016</v>
       </c>
-      <c r="G42">
+      <c r="G39">
         <v>2017</v>
       </c>
-      <c r="H42">
+      <c r="H39">
         <v>2018</v>
       </c>
-      <c r="I42">
+      <c r="I39">
         <v>2019</v>
       </c>
-      <c r="J42">
+      <c r="J39">
         <v>2020</v>
       </c>
-      <c r="K42">
+      <c r="K39">
         <v>2030</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>7</v>
-      </c>
-      <c r="B43" s="11">
+    <row r="40" spans="1:11">
+      <c r="A40" t="s">
+        <v>19</v>
+      </c>
+      <c r="B40" s="11">
         <v>-56000</v>
       </c>
-      <c r="C43" s="11">
+      <c r="C40" s="11">
         <v>9500</v>
       </c>
-      <c r="D43" s="11">
+      <c r="D40" s="11">
         <v>-2400</v>
       </c>
-      <c r="E43" s="11">
+      <c r="E40" s="11">
         <v>5000</v>
       </c>
-      <c r="F43" s="11">
+      <c r="F40" s="11">
         <v>950</v>
       </c>
-      <c r="G43" s="11">
+      <c r="G40" s="11">
         <v>1500</v>
       </c>
-      <c r="H43" s="11">
+      <c r="H40" s="11">
         <v>9300</v>
       </c>
-      <c r="I43" s="11">
+      <c r="I40" s="11">
         <v>11000</v>
       </c>
-      <c r="J43" s="11">
+      <c r="J40" s="11">
         <v>12000</v>
       </c>
-      <c r="K43" s="11">
+      <c r="K40" s="11">
         <v>1900</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11">
       <c r="A46" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="B47">
         <v>1990</v>
       </c>
@@ -8303,9 +4386,9 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11">
       <c r="A48" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B48" s="11">
         <v>-62000</v>
@@ -8338,120 +4421,120 @@
         <v>-8300</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15">
       <c r="A49" t="s">
         <v>1</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
       <c r="A51" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
       <c r="A52" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
+      <c r="A53" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
+      <c r="A54" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
+      <c r="A55" t="s">
+        <v>42</v>
+      </c>
+      <c r="O55" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
+      <c r="A56" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
+      <c r="A57" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+    <row r="58" spans="1:15">
+      <c r="A58" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+    <row r="59" spans="1:15">
+      <c r="A59" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+    <row r="60" spans="1:15">
+      <c r="A60" t="s">
         <v>48</v>
       </c>
-      <c r="O55" s="13" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+    </row>
+    <row r="61" spans="1:15">
+      <c r="A61" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+    <row r="62" spans="1:15">
+      <c r="A62" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+    <row r="63" spans="1:15">
+      <c r="A63" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+    <row r="64" spans="1:15">
+      <c r="A64" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+    <row r="65" spans="1:1">
+      <c r="A65" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+    <row r="66" spans="1:1">
+      <c r="A66" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+    <row r="67" spans="1:1">
+      <c r="A67" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+    <row r="68" spans="1:1">
+      <c r="A68" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+    <row r="69" spans="1:1">
+      <c r="A69" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+    <row r="71" spans="1:1">
+      <c r="A71" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+    <row r="72" spans="1:1">
+      <c r="A72" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -8467,20 +4550,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F50C48F9-6946-F243-8F07-D84A3D2FE82A}">
-  <dimension ref="A1:AK73"/>
+  <dimension ref="A1:AK72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:P2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="23" max="24" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="B1">
         <v>2015</v>
@@ -8591,9 +4674,9 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="B2" s="4">
         <f t="shared" ref="B2:G2" si="0">D7</f>
@@ -8616,43 +4699,43 @@
         <v>-15000</v>
       </c>
       <c r="G2" s="5">
-        <f>F2-$F$12</f>
+        <f>F2-$B$12</f>
         <v>-16363.636363636364</v>
       </c>
       <c r="H2" s="5">
-        <f t="shared" ref="H2:P2" si="1">G2-$F$12</f>
+        <f>G2-$B$12</f>
         <v>-17727.272727272728</v>
       </c>
       <c r="I2" s="5">
-        <f t="shared" si="1"/>
+        <f>H2-$B$12</f>
         <v>-19090.909090909092</v>
       </c>
       <c r="J2" s="5">
-        <f t="shared" si="1"/>
+        <f>I2-$B$12</f>
         <v>-20454.545454545456</v>
       </c>
       <c r="K2" s="5">
-        <f t="shared" si="1"/>
+        <f>J2-$B$12</f>
         <v>-21818.18181818182</v>
       </c>
       <c r="L2" s="5">
-        <f t="shared" si="1"/>
+        <f>K2-$B$12</f>
         <v>-23181.818181818184</v>
       </c>
       <c r="M2" s="5">
-        <f t="shared" si="1"/>
+        <f>L2-$B$12</f>
         <v>-24545.454545454548</v>
       </c>
       <c r="N2" s="5">
-        <f t="shared" si="1"/>
+        <f>M2-$B$12</f>
         <v>-25909.090909090912</v>
       </c>
       <c r="O2" s="5">
-        <f t="shared" si="1"/>
+        <f>N2-$B$12</f>
         <v>-27272.727272727276</v>
       </c>
       <c r="P2" s="5">
-        <f t="shared" si="1"/>
+        <f>O2-$B$12</f>
         <v>-28636.36363636364</v>
       </c>
       <c r="Q2" s="4">
@@ -8719,72 +4802,72 @@
         <v>-30000</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37">
       <c r="A3" s="7" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="B3" s="9">
         <f>B2*(10^9)</f>
         <v>1100000000000</v>
       </c>
       <c r="C3" s="9">
-        <f t="shared" ref="C3:V3" si="2">C2*(10^9)</f>
+        <f t="shared" ref="C3:V3" si="1">C2*(10^9)</f>
         <v>-9500000000000</v>
       </c>
       <c r="D3" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-16000000000000</v>
       </c>
       <c r="E3" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-7200000000000</v>
       </c>
       <c r="F3" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-15000000000000</v>
       </c>
       <c r="G3" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-16363636363636.363</v>
       </c>
       <c r="H3" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-17727272727272.727</v>
       </c>
       <c r="I3" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-19090909090909.094</v>
       </c>
       <c r="J3" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-20454545454545.457</v>
       </c>
       <c r="K3" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-21818181818181.82</v>
       </c>
       <c r="L3" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-23181818181818.184</v>
       </c>
       <c r="M3" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-24545454545454.547</v>
       </c>
       <c r="N3" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-25909090909090.91</v>
       </c>
       <c r="O3" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-27272727272727.277</v>
       </c>
       <c r="P3" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-28636363636363.641</v>
       </c>
       <c r="Q3" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-30000000000000</v>
       </c>
       <c r="R3" s="9">
@@ -8792,90 +4875,90 @@
         <v>-30000000000000</v>
       </c>
       <c r="S3" s="9">
+        <f t="shared" si="1"/>
+        <v>-30000000000000</v>
+      </c>
+      <c r="T3" s="9">
+        <f t="shared" si="1"/>
+        <v>-30000000000000</v>
+      </c>
+      <c r="U3" s="9">
+        <f t="shared" si="1"/>
+        <v>-30000000000000</v>
+      </c>
+      <c r="V3" s="9">
+        <f t="shared" si="1"/>
+        <v>-30000000000000</v>
+      </c>
+      <c r="W3" s="9">
+        <f t="shared" ref="W3:AK3" si="2">W2*(10^9)</f>
+        <v>-30000000000000</v>
+      </c>
+      <c r="X3" s="9">
         <f t="shared" si="2"/>
         <v>-30000000000000</v>
       </c>
-      <c r="T3" s="9">
+      <c r="Y3" s="9">
         <f t="shared" si="2"/>
         <v>-30000000000000</v>
       </c>
-      <c r="U3" s="9">
+      <c r="Z3" s="9">
         <f t="shared" si="2"/>
         <v>-30000000000000</v>
       </c>
-      <c r="V3" s="9">
+      <c r="AA3" s="9">
         <f t="shared" si="2"/>
         <v>-30000000000000</v>
       </c>
-      <c r="W3" s="9">
-        <f t="shared" ref="W3:AK3" si="3">W2*(10^9)</f>
+      <c r="AB3" s="9">
+        <f t="shared" si="2"/>
         <v>-30000000000000</v>
       </c>
-      <c r="X3" s="9">
-        <f t="shared" si="3"/>
+      <c r="AC3" s="9">
+        <f t="shared" si="2"/>
         <v>-30000000000000</v>
       </c>
-      <c r="Y3" s="9">
-        <f t="shared" si="3"/>
+      <c r="AD3" s="9">
+        <f t="shared" si="2"/>
         <v>-30000000000000</v>
       </c>
-      <c r="Z3" s="9">
-        <f t="shared" si="3"/>
+      <c r="AE3" s="9">
+        <f t="shared" si="2"/>
         <v>-30000000000000</v>
       </c>
-      <c r="AA3" s="9">
-        <f t="shared" si="3"/>
+      <c r="AF3" s="9">
+        <f t="shared" si="2"/>
         <v>-30000000000000</v>
       </c>
-      <c r="AB3" s="9">
-        <f t="shared" si="3"/>
+      <c r="AG3" s="9">
+        <f t="shared" si="2"/>
         <v>-30000000000000</v>
       </c>
-      <c r="AC3" s="9">
-        <f t="shared" si="3"/>
+      <c r="AH3" s="9">
+        <f t="shared" si="2"/>
         <v>-30000000000000</v>
       </c>
-      <c r="AD3" s="9">
-        <f t="shared" si="3"/>
+      <c r="AI3" s="9">
+        <f t="shared" si="2"/>
         <v>-30000000000000</v>
       </c>
-      <c r="AE3" s="9">
-        <f t="shared" si="3"/>
+      <c r="AJ3" s="9">
+        <f t="shared" si="2"/>
         <v>-30000000000000</v>
       </c>
-      <c r="AF3" s="9">
-        <f t="shared" si="3"/>
+      <c r="AK3" s="9">
+        <f t="shared" si="2"/>
         <v>-30000000000000</v>
       </c>
-      <c r="AG3" s="9">
-        <f t="shared" si="3"/>
-        <v>-30000000000000</v>
-      </c>
-      <c r="AH3" s="9">
-        <f t="shared" si="3"/>
-        <v>-30000000000000</v>
-      </c>
-      <c r="AI3" s="9">
-        <f t="shared" si="3"/>
-        <v>-30000000000000</v>
-      </c>
-      <c r="AJ3" s="9">
-        <f t="shared" si="3"/>
-        <v>-30000000000000</v>
-      </c>
-      <c r="AK3" s="9">
-        <f t="shared" si="3"/>
-        <v>-30000000000000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:37">
       <c r="A4" s="13" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="B6">
         <f>Data!B47</f>
@@ -8918,9 +5001,9 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B7" s="11">
         <f>Data!B48</f>
@@ -8963,1252 +5046,75 @@
         <v>-8300</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37">
       <c r="A9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="B11" s="4">
-        <f>I7-J7</f>
-        <v>4300</v>
-      </c>
-      <c r="E11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="4">
         <f>F2-Q2</f>
         <v>15000</v>
       </c>
     </row>
-    <row r="12" spans="1:37" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" ht="30.75">
       <c r="A12" s="10" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="B12" s="4">
-        <f>B11/10</f>
-        <v>430</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" s="4">
-        <f>F11/11</f>
+        <f>B11/11</f>
         <v>1363.6363636363637</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37">
       <c r="A14" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37">
       <c r="A16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>22</v>
-      </c>
-      <c r="B26">
-        <v>2015</v>
-      </c>
-      <c r="C26">
-        <v>2016</v>
-      </c>
-      <c r="D26">
-        <v>2017</v>
-      </c>
-      <c r="E26">
-        <v>2018</v>
-      </c>
-      <c r="F26">
-        <v>2019</v>
-      </c>
-      <c r="G26">
-        <v>2020</v>
-      </c>
-      <c r="H26">
-        <v>2021</v>
-      </c>
-      <c r="I26">
-        <v>2022</v>
-      </c>
-      <c r="J26">
-        <v>2023</v>
-      </c>
-      <c r="K26">
-        <v>2024</v>
-      </c>
-      <c r="L26">
-        <v>2025</v>
-      </c>
-      <c r="M26">
-        <v>2026</v>
-      </c>
-      <c r="N26">
-        <v>2027</v>
-      </c>
-      <c r="O26">
-        <v>2028</v>
-      </c>
-      <c r="P26">
-        <v>2029</v>
-      </c>
-      <c r="Q26">
-        <v>2030</v>
-      </c>
-      <c r="R26">
-        <v>2031</v>
-      </c>
-      <c r="S26">
-        <v>2032</v>
-      </c>
-      <c r="T26">
-        <v>2033</v>
-      </c>
-      <c r="U26">
-        <v>2034</v>
-      </c>
-      <c r="V26">
-        <v>2035</v>
-      </c>
-      <c r="W26">
-        <v>2036</v>
-      </c>
-      <c r="X26">
-        <v>2037</v>
-      </c>
-      <c r="Y26">
-        <v>2038</v>
-      </c>
-      <c r="Z26">
-        <v>2039</v>
-      </c>
-      <c r="AA26">
-        <v>2040</v>
-      </c>
-      <c r="AB26">
-        <v>2041</v>
-      </c>
-      <c r="AC26">
-        <v>2042</v>
-      </c>
-      <c r="AD26">
-        <v>2043</v>
-      </c>
-      <c r="AE26">
-        <v>2044</v>
-      </c>
-      <c r="AF26">
-        <v>2045</v>
-      </c>
-      <c r="AG26">
-        <v>2046</v>
-      </c>
-      <c r="AH26">
-        <v>2047</v>
-      </c>
-      <c r="AI26">
-        <v>2048</v>
-      </c>
-      <c r="AJ26">
-        <v>2049</v>
-      </c>
-      <c r="AK26">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27">
-        <v>1100</v>
-      </c>
-      <c r="C27">
-        <v>-9500</v>
-      </c>
-      <c r="D27">
-        <v>-16000</v>
-      </c>
-      <c r="E27">
-        <v>-7200</v>
-      </c>
-      <c r="F27">
-        <v>-15000</v>
-      </c>
-      <c r="G27">
-        <v>-5700</v>
-      </c>
-      <c r="H27">
-        <v>-6130</v>
-      </c>
-      <c r="I27">
-        <v>-6560</v>
-      </c>
-      <c r="J27">
-        <v>-6990</v>
-      </c>
-      <c r="K27">
-        <v>-7420</v>
-      </c>
-      <c r="L27">
-        <v>-7850</v>
-      </c>
-      <c r="M27">
-        <v>-8280</v>
-      </c>
-      <c r="N27">
-        <v>-8710</v>
-      </c>
-      <c r="O27">
-        <v>-9140</v>
-      </c>
-      <c r="P27">
-        <v>-9570</v>
-      </c>
-      <c r="Q27">
-        <v>-10000</v>
-      </c>
-      <c r="R27">
-        <v>-9660</v>
-      </c>
-      <c r="S27">
-        <v>-9320</v>
-      </c>
-      <c r="T27">
-        <v>-8980</v>
-      </c>
-      <c r="U27">
-        <v>-8640</v>
-      </c>
-      <c r="V27" s="11">
-        <v>-8300</v>
-      </c>
-      <c r="W27" s="11">
-        <f t="shared" ref="W27:AJ27" si="4">V27-$B$33</f>
-        <v>-9746.6666666666661</v>
-      </c>
-      <c r="X27" s="11">
-        <f t="shared" si="4"/>
-        <v>-11193.333333333332</v>
-      </c>
-      <c r="Y27" s="11">
-        <f t="shared" si="4"/>
-        <v>-12639.999999999998</v>
-      </c>
-      <c r="Z27" s="11">
-        <f t="shared" si="4"/>
-        <v>-14086.666666666664</v>
-      </c>
-      <c r="AA27" s="11">
-        <f t="shared" si="4"/>
-        <v>-15533.33333333333</v>
-      </c>
-      <c r="AB27" s="11">
-        <f t="shared" si="4"/>
-        <v>-16979.999999999996</v>
-      </c>
-      <c r="AC27" s="11">
-        <f t="shared" si="4"/>
-        <v>-18426.666666666664</v>
-      </c>
-      <c r="AD27" s="11">
-        <f t="shared" si="4"/>
-        <v>-19873.333333333332</v>
-      </c>
-      <c r="AE27" s="11">
-        <f t="shared" si="4"/>
-        <v>-21320</v>
-      </c>
-      <c r="AF27" s="11">
-        <f t="shared" si="4"/>
-        <v>-22766.666666666668</v>
-      </c>
-      <c r="AG27" s="11">
-        <f t="shared" si="4"/>
-        <v>-24213.333333333336</v>
-      </c>
-      <c r="AH27" s="11">
-        <f t="shared" si="4"/>
-        <v>-25660.000000000004</v>
-      </c>
-      <c r="AI27" s="11">
-        <f t="shared" si="4"/>
-        <v>-27106.666666666672</v>
-      </c>
-      <c r="AJ27" s="11">
-        <f t="shared" si="4"/>
-        <v>-28553.333333333339</v>
-      </c>
-      <c r="AK27" s="11">
-        <v>-10886.394557823136</v>
-      </c>
-    </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28">
-        <f t="shared" ref="B28:V28" si="5">B27*(10^9)</f>
-        <v>1100000000000</v>
-      </c>
-      <c r="C28">
-        <f t="shared" si="5"/>
-        <v>-9500000000000</v>
-      </c>
-      <c r="D28">
-        <f t="shared" si="5"/>
-        <v>-16000000000000</v>
-      </c>
-      <c r="E28">
-        <f t="shared" si="5"/>
-        <v>-7200000000000</v>
-      </c>
-      <c r="F28">
-        <f t="shared" si="5"/>
-        <v>-15000000000000</v>
-      </c>
-      <c r="G28">
-        <f t="shared" si="5"/>
-        <v>-5700000000000</v>
-      </c>
-      <c r="H28">
-        <f t="shared" si="5"/>
-        <v>-6130000000000</v>
-      </c>
-      <c r="I28">
-        <f t="shared" si="5"/>
-        <v>-6560000000000</v>
-      </c>
-      <c r="J28">
-        <f t="shared" si="5"/>
-        <v>-6990000000000</v>
-      </c>
-      <c r="K28">
-        <f t="shared" si="5"/>
-        <v>-7420000000000</v>
-      </c>
-      <c r="L28">
-        <f t="shared" si="5"/>
-        <v>-7850000000000</v>
-      </c>
-      <c r="M28">
-        <f t="shared" si="5"/>
-        <v>-8280000000000</v>
-      </c>
-      <c r="N28">
-        <f t="shared" si="5"/>
-        <v>-8710000000000</v>
-      </c>
-      <c r="O28">
-        <f t="shared" si="5"/>
-        <v>-9140000000000</v>
-      </c>
-      <c r="P28">
-        <f t="shared" si="5"/>
-        <v>-9570000000000</v>
-      </c>
-      <c r="Q28">
-        <f t="shared" si="5"/>
-        <v>-10000000000000</v>
-      </c>
-      <c r="R28">
-        <f t="shared" si="5"/>
-        <v>-9660000000000</v>
-      </c>
-      <c r="S28">
-        <f t="shared" si="5"/>
-        <v>-9320000000000</v>
-      </c>
-      <c r="T28">
-        <f t="shared" si="5"/>
-        <v>-8980000000000</v>
-      </c>
-      <c r="U28">
-        <f t="shared" si="5"/>
-        <v>-8640000000000</v>
-      </c>
-      <c r="V28">
-        <f t="shared" si="5"/>
-        <v>-8300000000000</v>
-      </c>
-      <c r="W28">
-        <f>W27*(10^9)</f>
-        <v>-9746666666666.666</v>
-      </c>
-      <c r="X28">
-        <f>X27*(10^9)</f>
-        <v>-11193333333333.332</v>
-      </c>
-      <c r="Y28">
-        <f t="shared" ref="Y28:AK28" si="6">Y27*(10^9)</f>
-        <v>-12639999999999.998</v>
-      </c>
-      <c r="Z28">
-        <f t="shared" si="6"/>
-        <v>-14086666666666.664</v>
-      </c>
-      <c r="AA28">
-        <f t="shared" si="6"/>
-        <v>-15533333333333.33</v>
-      </c>
-      <c r="AB28">
-        <f t="shared" si="6"/>
-        <v>-16979999999999.996</v>
-      </c>
-      <c r="AC28">
-        <f t="shared" si="6"/>
-        <v>-18426666666666.664</v>
-      </c>
-      <c r="AD28">
-        <f t="shared" si="6"/>
-        <v>-19873333333333.332</v>
-      </c>
-      <c r="AE28">
-        <f t="shared" si="6"/>
-        <v>-21320000000000</v>
-      </c>
-      <c r="AF28">
-        <f t="shared" si="6"/>
-        <v>-22766666666666.668</v>
-      </c>
-      <c r="AG28">
-        <f t="shared" si="6"/>
-        <v>-24213333333333.336</v>
-      </c>
-      <c r="AH28">
-        <f t="shared" si="6"/>
-        <v>-25660000000000.004</v>
-      </c>
-      <c r="AI28">
-        <f t="shared" si="6"/>
-        <v>-27106666666666.672</v>
-      </c>
-      <c r="AJ28">
-        <f t="shared" si="6"/>
-        <v>-28553333333333.34</v>
-      </c>
-      <c r="AK28">
-        <f t="shared" si="6"/>
-        <v>-10886394557823.137</v>
-      </c>
-    </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>26</v>
-      </c>
-      <c r="B32" s="4">
-        <f>K7-AK2</f>
-        <v>21700</v>
-      </c>
-    </row>
-    <row r="33" spans="1:37" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B33" s="4">
-        <f>B32/15</f>
-        <v>1446.6666666666667</v>
-      </c>
-    </row>
-    <row r="47" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>22</v>
-      </c>
-      <c r="B47">
-        <v>2015</v>
-      </c>
-      <c r="C47">
-        <v>2016</v>
-      </c>
-      <c r="D47">
-        <v>2017</v>
-      </c>
-      <c r="E47">
-        <v>2018</v>
-      </c>
-      <c r="F47">
-        <v>2019</v>
-      </c>
-      <c r="G47">
-        <v>2020</v>
-      </c>
-      <c r="H47">
-        <v>2021</v>
-      </c>
-      <c r="I47">
-        <v>2022</v>
-      </c>
-      <c r="J47">
-        <v>2023</v>
-      </c>
-      <c r="K47">
-        <v>2024</v>
-      </c>
-      <c r="L47">
-        <v>2025</v>
-      </c>
-      <c r="M47">
-        <v>2026</v>
-      </c>
-      <c r="N47">
-        <v>2027</v>
-      </c>
-      <c r="O47">
-        <v>2028</v>
-      </c>
-      <c r="P47">
-        <v>2029</v>
-      </c>
-      <c r="Q47">
-        <v>2030</v>
-      </c>
-      <c r="R47">
-        <v>2031</v>
-      </c>
-      <c r="S47">
-        <v>2032</v>
-      </c>
-      <c r="T47">
-        <v>2033</v>
-      </c>
-      <c r="U47">
-        <v>2034</v>
-      </c>
-      <c r="V47">
-        <v>2035</v>
-      </c>
-      <c r="W47">
-        <v>2036</v>
-      </c>
-      <c r="X47">
-        <v>2037</v>
-      </c>
-      <c r="Y47">
-        <v>2038</v>
-      </c>
-      <c r="Z47">
-        <v>2039</v>
-      </c>
-      <c r="AA47">
-        <v>2040</v>
-      </c>
-      <c r="AB47">
-        <v>2041</v>
-      </c>
-      <c r="AC47">
-        <v>2042</v>
-      </c>
-      <c r="AD47">
-        <v>2043</v>
-      </c>
-      <c r="AE47">
-        <v>2044</v>
-      </c>
-      <c r="AF47">
-        <v>2045</v>
-      </c>
-      <c r="AG47">
-        <v>2046</v>
-      </c>
-      <c r="AH47">
-        <v>2047</v>
-      </c>
-      <c r="AI47">
-        <v>2048</v>
-      </c>
-      <c r="AJ47">
-        <v>2049</v>
-      </c>
-      <c r="AK47">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="48" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>23</v>
-      </c>
-      <c r="B48">
-        <v>1100</v>
-      </c>
-      <c r="C48">
-        <v>-9500</v>
-      </c>
-      <c r="D48">
-        <v>-16000</v>
-      </c>
-      <c r="E48">
-        <v>-7200</v>
-      </c>
-      <c r="F48">
-        <v>-15000</v>
-      </c>
-      <c r="G48">
-        <v>-5700</v>
-      </c>
-      <c r="H48">
-        <v>-6130</v>
-      </c>
-      <c r="I48">
-        <v>-6560</v>
-      </c>
-      <c r="J48">
-        <v>-6990</v>
-      </c>
-      <c r="K48">
-        <v>-7420</v>
-      </c>
-      <c r="L48">
-        <v>-7850</v>
-      </c>
-      <c r="M48">
-        <v>-8280</v>
-      </c>
-      <c r="N48">
-        <v>-8710</v>
-      </c>
-      <c r="O48">
-        <v>-9140</v>
-      </c>
-      <c r="P48">
-        <v>-9570</v>
-      </c>
-      <c r="Q48">
-        <v>-10000</v>
-      </c>
-      <c r="R48" cm="1">
-        <f t="array" ref="R48">TREND($D7:$K7,$D$6:$K$6,R$47)</f>
-        <v>-9524.0816326530476</v>
-      </c>
-      <c r="S48" cm="1">
-        <f t="array" ref="S48">TREND($D7:$K7,$D$6:$K$6,S$47)</f>
-        <v>-9595.7823129251774</v>
-      </c>
-      <c r="T48" cm="1">
-        <f t="array" ref="T48">TREND($D7:$K7,$D$6:$K$6,T$47)</f>
-        <v>-9667.4829931972781</v>
-      </c>
-      <c r="U48" cm="1">
-        <f t="array" ref="U48">TREND($D7:$K7,$D$6:$K$6,U$47)</f>
-        <v>-9739.1836734693788</v>
-      </c>
-      <c r="V48" cm="1">
-        <f t="array" ref="V48">TREND($D7:$K7,$D$6:$K$6,V$47)</f>
-        <v>-9810.8843537414796</v>
-      </c>
-      <c r="W48" cm="1">
-        <f t="array" ref="W48">TREND($D7:$K7,$D$6:$K$6,W$47)</f>
-        <v>-9882.5850340136094</v>
-      </c>
-      <c r="X48" cm="1">
-        <f t="array" ref="X48">TREND($D7:$K7,$D$6:$K$6,X$47)</f>
-        <v>-9954.2857142857101</v>
-      </c>
-      <c r="Y48" cm="1">
-        <f t="array" ref="Y48">TREND($D7:$K7,$D$6:$K$6,Y$47)</f>
-        <v>-10025.986394557811</v>
-      </c>
-      <c r="Z48" cm="1">
-        <f t="array" ref="Z48">TREND($D7:$K7,$D$6:$K$6,Z$47)</f>
-        <v>-10097.687074829912</v>
-      </c>
-      <c r="AA48" cm="1">
-        <f t="array" ref="AA48">TREND($D7:$K7,$D$6:$K$6,AA$47)</f>
-        <v>-10169.387755102041</v>
-      </c>
-      <c r="AB48" cm="1">
-        <f t="array" ref="AB48">TREND($D7:$K7,$D$6:$K$6,AB$47)</f>
-        <v>-10241.088435374142</v>
-      </c>
-      <c r="AC48" cm="1">
-        <f t="array" ref="AC48">TREND($D7:$K7,$D$6:$K$6,AC$47)</f>
-        <v>-10312.789115646243</v>
-      </c>
-      <c r="AD48" cm="1">
-        <f t="array" ref="AD48">TREND($D7:$K7,$D$6:$K$6,AD$47)</f>
-        <v>-10384.489795918373</v>
-      </c>
-      <c r="AE48" cm="1">
-        <f t="array" ref="AE48">TREND($D7:$K7,$D$6:$K$6,AE$47)</f>
-        <v>-10456.190476190473</v>
-      </c>
-      <c r="AF48" cm="1">
-        <f t="array" ref="AF48">TREND($D7:$K7,$D$6:$K$6,AF$47)</f>
-        <v>-10527.891156462574</v>
-      </c>
-      <c r="AG48" cm="1">
-        <f t="array" ref="AG48">TREND($D7:$K7,$D$6:$K$6,AG$47)</f>
-        <v>-10599.591836734675</v>
-      </c>
-      <c r="AH48" cm="1">
-        <f t="array" ref="AH48">TREND($D7:$K7,$D$6:$K$6,AH$47)</f>
-        <v>-10671.292517006805</v>
-      </c>
-      <c r="AI48" cm="1">
-        <f t="array" ref="AI48">TREND($D7:$K7,$D$6:$K$6,AI$47)</f>
-        <v>-10742.993197278905</v>
-      </c>
-      <c r="AJ48" cm="1">
-        <f t="array" ref="AJ48">TREND($D7:$K7,$D$6:$K$6,AJ$47)</f>
-        <v>-10814.693877551006</v>
-      </c>
-      <c r="AK48" cm="1">
-        <f t="array" ref="AK48">TREND($D7:$K7,$D$6:$K$6,AK$47)</f>
-        <v>-10886.394557823136</v>
-      </c>
-    </row>
-    <row r="49" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>24</v>
-      </c>
-      <c r="B49">
-        <f>B48*(10^9)</f>
-        <v>1100000000000</v>
-      </c>
-      <c r="C49">
-        <f t="shared" ref="C49:AK49" si="7">C48*(10^9)</f>
-        <v>-9500000000000</v>
-      </c>
-      <c r="D49">
-        <f t="shared" si="7"/>
-        <v>-16000000000000</v>
-      </c>
-      <c r="E49">
-        <f t="shared" si="7"/>
-        <v>-7200000000000</v>
-      </c>
-      <c r="F49">
-        <f t="shared" si="7"/>
-        <v>-15000000000000</v>
-      </c>
-      <c r="G49">
-        <f t="shared" si="7"/>
-        <v>-5700000000000</v>
-      </c>
-      <c r="H49">
-        <f t="shared" si="7"/>
-        <v>-6130000000000</v>
-      </c>
-      <c r="I49">
-        <f t="shared" si="7"/>
-        <v>-6560000000000</v>
-      </c>
-      <c r="J49">
-        <f t="shared" si="7"/>
-        <v>-6990000000000</v>
-      </c>
-      <c r="K49">
-        <f t="shared" si="7"/>
-        <v>-7420000000000</v>
-      </c>
-      <c r="L49">
-        <f t="shared" si="7"/>
-        <v>-7850000000000</v>
-      </c>
-      <c r="M49">
-        <f t="shared" si="7"/>
-        <v>-8280000000000</v>
-      </c>
-      <c r="N49">
-        <f t="shared" si="7"/>
-        <v>-8710000000000</v>
-      </c>
-      <c r="O49">
-        <f t="shared" si="7"/>
-        <v>-9140000000000</v>
-      </c>
-      <c r="P49">
-        <f t="shared" si="7"/>
-        <v>-9570000000000</v>
-      </c>
-      <c r="Q49">
-        <f t="shared" si="7"/>
-        <v>-10000000000000</v>
-      </c>
-      <c r="R49">
-        <f t="shared" si="7"/>
-        <v>-9524081632653.0469</v>
-      </c>
-      <c r="S49">
-        <f t="shared" si="7"/>
-        <v>-9595782312925.1777</v>
-      </c>
-      <c r="T49">
-        <f t="shared" si="7"/>
-        <v>-9667482993197.2773</v>
-      </c>
-      <c r="U49">
-        <f t="shared" si="7"/>
-        <v>-9739183673469.3789</v>
-      </c>
-      <c r="V49">
-        <f t="shared" si="7"/>
-        <v>-9810884353741.4805</v>
-      </c>
-      <c r="W49">
-        <f t="shared" si="7"/>
-        <v>-9882585034013.6094</v>
-      </c>
-      <c r="X49">
-        <f t="shared" si="7"/>
-        <v>-9954285714285.7109</v>
-      </c>
-      <c r="Y49">
-        <f t="shared" si="7"/>
-        <v>-10025986394557.811</v>
-      </c>
-      <c r="Z49">
-        <f t="shared" si="7"/>
-        <v>-10097687074829.912</v>
-      </c>
-      <c r="AA49">
-        <f t="shared" si="7"/>
-        <v>-10169387755102.041</v>
-      </c>
-      <c r="AB49">
-        <f t="shared" si="7"/>
-        <v>-10241088435374.143</v>
-      </c>
-      <c r="AC49">
-        <f t="shared" si="7"/>
-        <v>-10312789115646.242</v>
-      </c>
-      <c r="AD49">
-        <f t="shared" si="7"/>
-        <v>-10384489795918.373</v>
-      </c>
-      <c r="AE49">
-        <f t="shared" si="7"/>
-        <v>-10456190476190.473</v>
-      </c>
-      <c r="AF49">
-        <f t="shared" si="7"/>
-        <v>-10527891156462.574</v>
-      </c>
-      <c r="AG49">
-        <f t="shared" si="7"/>
-        <v>-10599591836734.676</v>
-      </c>
-      <c r="AH49">
-        <f t="shared" si="7"/>
-        <v>-10671292517006.805</v>
-      </c>
-      <c r="AI49">
-        <f t="shared" si="7"/>
-        <v>-10742993197278.906</v>
-      </c>
-      <c r="AJ49">
-        <f t="shared" si="7"/>
-        <v>-10814693877551.006</v>
-      </c>
-      <c r="AK49">
-        <f t="shared" si="7"/>
-        <v>-10886394557823.137</v>
-      </c>
-    </row>
-    <row r="71" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>22</v>
-      </c>
-      <c r="B71">
-        <v>2015</v>
-      </c>
-      <c r="C71">
-        <v>2016</v>
-      </c>
-      <c r="D71">
-        <v>2017</v>
-      </c>
-      <c r="E71">
-        <v>2018</v>
-      </c>
-      <c r="F71">
-        <v>2019</v>
-      </c>
-      <c r="G71">
-        <v>2020</v>
-      </c>
-      <c r="H71">
-        <v>2021</v>
-      </c>
-      <c r="I71">
-        <v>2022</v>
-      </c>
-      <c r="J71">
-        <v>2023</v>
-      </c>
-      <c r="K71">
-        <v>2024</v>
-      </c>
-      <c r="L71">
-        <v>2025</v>
-      </c>
-      <c r="M71">
-        <v>2026</v>
-      </c>
-      <c r="N71">
-        <v>2027</v>
-      </c>
-      <c r="O71">
-        <v>2028</v>
-      </c>
-      <c r="P71">
-        <v>2029</v>
-      </c>
-      <c r="Q71">
-        <v>2030</v>
-      </c>
-      <c r="R71">
-        <v>2031</v>
-      </c>
-      <c r="S71">
-        <v>2032</v>
-      </c>
-      <c r="T71">
-        <v>2033</v>
-      </c>
-      <c r="U71">
-        <v>2034</v>
-      </c>
-      <c r="V71">
-        <v>2035</v>
-      </c>
-      <c r="W71">
-        <v>2036</v>
-      </c>
-      <c r="X71">
-        <v>2037</v>
-      </c>
-      <c r="Y71">
-        <v>2038</v>
-      </c>
-      <c r="Z71">
-        <v>2039</v>
-      </c>
-      <c r="AA71">
-        <v>2040</v>
-      </c>
-      <c r="AB71">
-        <v>2041</v>
-      </c>
-      <c r="AC71">
-        <v>2042</v>
-      </c>
-      <c r="AD71">
-        <v>2043</v>
-      </c>
-      <c r="AE71">
-        <v>2044</v>
-      </c>
-      <c r="AF71">
-        <v>2045</v>
-      </c>
-      <c r="AG71">
-        <v>2046</v>
-      </c>
-      <c r="AH71">
-        <v>2047</v>
-      </c>
-      <c r="AI71">
-        <v>2048</v>
-      </c>
-      <c r="AJ71">
-        <v>2049</v>
-      </c>
-      <c r="AK71">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="72" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>23</v>
-      </c>
-      <c r="B72">
-        <v>1100</v>
-      </c>
-      <c r="C72">
-        <v>-9500</v>
-      </c>
-      <c r="D72">
-        <v>-16000</v>
-      </c>
-      <c r="E72">
-        <v>-7200</v>
-      </c>
-      <c r="F72">
-        <v>-15000</v>
-      </c>
-      <c r="G72" s="4">
-        <f>F72-$F$12</f>
-        <v>-16363.636363636364</v>
-      </c>
-      <c r="H72" s="4">
-        <f>G72-$F$12</f>
-        <v>-17727.272727272728</v>
-      </c>
-      <c r="I72" s="4">
-        <f>H72-$F$12</f>
-        <v>-19090.909090909092</v>
-      </c>
-      <c r="J72" s="4">
-        <f>I72-$F$12</f>
-        <v>-20454.545454545456</v>
-      </c>
-      <c r="K72" s="4">
-        <f>J72-$F$12</f>
-        <v>-21818.18181818182</v>
-      </c>
-      <c r="L72" s="4">
-        <f>K72-$F$12</f>
-        <v>-23181.818181818184</v>
-      </c>
-      <c r="M72" s="4">
-        <f>L72-$F$12</f>
-        <v>-24545.454545454548</v>
-      </c>
-      <c r="N72" s="4">
-        <f>M72-$F$12</f>
-        <v>-25909.090909090912</v>
-      </c>
-      <c r="O72" s="4">
-        <f>N72-$F$12</f>
-        <v>-27272.727272727276</v>
-      </c>
-      <c r="P72" s="4">
-        <f>O72-$F$12</f>
-        <v>-28636.36363636364</v>
-      </c>
-      <c r="Q72">
-        <v>-30000</v>
-      </c>
-      <c r="R72">
-        <v>-30000</v>
-      </c>
-      <c r="S72">
-        <v>-30000</v>
-      </c>
-      <c r="T72">
-        <v>-30000</v>
-      </c>
-      <c r="U72">
-        <v>-30000</v>
-      </c>
-      <c r="V72">
-        <v>-30000</v>
-      </c>
-      <c r="W72">
-        <v>-30000</v>
-      </c>
-      <c r="X72">
-        <v>-30000</v>
-      </c>
-      <c r="Y72">
-        <v>-30000</v>
-      </c>
-      <c r="Z72">
-        <v>-30000</v>
-      </c>
-      <c r="AA72">
-        <v>-30000</v>
-      </c>
-      <c r="AB72">
-        <v>-30000</v>
-      </c>
-      <c r="AC72">
-        <v>-30000</v>
-      </c>
-      <c r="AD72">
-        <v>-30000</v>
-      </c>
-      <c r="AE72">
-        <v>-30000</v>
-      </c>
-      <c r="AF72">
-        <v>-30000</v>
-      </c>
-      <c r="AG72">
-        <v>-30000</v>
-      </c>
-      <c r="AH72">
-        <v>-30000</v>
-      </c>
-      <c r="AI72">
-        <v>-30000</v>
-      </c>
-      <c r="AJ72">
-        <v>-30000</v>
-      </c>
-      <c r="AK72">
-        <v>-30000</v>
-      </c>
-    </row>
-    <row r="73" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>24</v>
-      </c>
-      <c r="B73">
-        <f>B72*(10^9)</f>
-        <v>1100000000000</v>
-      </c>
-      <c r="C73">
-        <f t="shared" ref="C73:AK73" si="8">C72*(10^9)</f>
-        <v>-9500000000000</v>
-      </c>
-      <c r="D73">
-        <f t="shared" si="8"/>
-        <v>-16000000000000</v>
-      </c>
-      <c r="E73">
-        <f t="shared" si="8"/>
-        <v>-7200000000000</v>
-      </c>
-      <c r="F73">
-        <f t="shared" si="8"/>
-        <v>-15000000000000</v>
-      </c>
-      <c r="G73">
-        <f t="shared" si="8"/>
-        <v>-16363636363636.363</v>
-      </c>
-      <c r="H73">
-        <f t="shared" si="8"/>
-        <v>-17727272727272.727</v>
-      </c>
-      <c r="I73">
-        <f t="shared" si="8"/>
-        <v>-19090909090909.094</v>
-      </c>
-      <c r="J73">
-        <f t="shared" si="8"/>
-        <v>-20454545454545.457</v>
-      </c>
-      <c r="K73">
-        <f t="shared" si="8"/>
-        <v>-21818181818181.82</v>
-      </c>
-      <c r="L73">
-        <f t="shared" si="8"/>
-        <v>-23181818181818.184</v>
-      </c>
-      <c r="M73">
-        <f t="shared" si="8"/>
-        <v>-24545454545454.547</v>
-      </c>
-      <c r="N73">
-        <f t="shared" si="8"/>
-        <v>-25909090909090.91</v>
-      </c>
-      <c r="O73">
-        <f t="shared" si="8"/>
-        <v>-27272727272727.277</v>
-      </c>
-      <c r="P73">
-        <f t="shared" si="8"/>
-        <v>-28636363636363.641</v>
-      </c>
-      <c r="Q73">
-        <f t="shared" si="8"/>
-        <v>-30000000000000</v>
-      </c>
-      <c r="R73">
-        <f t="shared" si="8"/>
-        <v>-30000000000000</v>
-      </c>
-      <c r="S73">
-        <f t="shared" si="8"/>
-        <v>-30000000000000</v>
-      </c>
-      <c r="T73">
-        <f t="shared" si="8"/>
-        <v>-30000000000000</v>
-      </c>
-      <c r="U73">
-        <f t="shared" si="8"/>
-        <v>-30000000000000</v>
-      </c>
-      <c r="V73">
-        <f t="shared" si="8"/>
-        <v>-30000000000000</v>
-      </c>
-      <c r="W73">
-        <f t="shared" si="8"/>
-        <v>-30000000000000</v>
-      </c>
-      <c r="X73">
-        <f t="shared" si="8"/>
-        <v>-30000000000000</v>
-      </c>
-      <c r="Y73">
-        <f t="shared" si="8"/>
-        <v>-30000000000000</v>
-      </c>
-      <c r="Z73">
-        <f t="shared" si="8"/>
-        <v>-30000000000000</v>
-      </c>
-      <c r="AA73">
-        <f t="shared" si="8"/>
-        <v>-30000000000000</v>
-      </c>
-      <c r="AB73">
-        <f t="shared" si="8"/>
-        <v>-30000000000000</v>
-      </c>
-      <c r="AC73">
-        <f t="shared" si="8"/>
-        <v>-30000000000000</v>
-      </c>
-      <c r="AD73">
-        <f t="shared" si="8"/>
-        <v>-30000000000000</v>
-      </c>
-      <c r="AE73">
-        <f t="shared" si="8"/>
-        <v>-30000000000000</v>
-      </c>
-      <c r="AF73">
-        <f t="shared" si="8"/>
-        <v>-30000000000000</v>
-      </c>
-      <c r="AG73">
-        <f t="shared" si="8"/>
-        <v>-30000000000000</v>
-      </c>
-      <c r="AH73">
-        <f t="shared" si="8"/>
-        <v>-30000000000000</v>
-      </c>
-      <c r="AI73">
-        <f t="shared" si="8"/>
-        <v>-30000000000000</v>
-      </c>
-      <c r="AJ73">
-        <f t="shared" si="8"/>
-        <v>-30000000000000</v>
-      </c>
-      <c r="AK73">
-        <f t="shared" si="8"/>
-        <v>-30000000000000</v>
-      </c>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="2:37">
+      <c r="V27" s="11"/>
+      <c r="W27" s="11"/>
+      <c r="X27" s="11"/>
+      <c r="Y27" s="11"/>
+      <c r="Z27" s="11"/>
+      <c r="AA27" s="11"/>
+      <c r="AB27" s="11"/>
+      <c r="AC27" s="11"/>
+      <c r="AD27" s="11"/>
+      <c r="AE27" s="11"/>
+      <c r="AF27" s="11"/>
+      <c r="AG27" s="11"/>
+      <c r="AH27" s="11"/>
+      <c r="AI27" s="11"/>
+      <c r="AJ27" s="11"/>
+      <c r="AK27" s="11"/>
+    </row>
+    <row r="32" spans="2:37">
+      <c r="B32" s="4"/>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="10"/>
+      <c r="B33" s="4"/>
+    </row>
+    <row r="72" spans="7:16">
+      <c r="G72" s="4"/>
+      <c r="H72" s="4"/>
+      <c r="I72" s="4"/>
+      <c r="J72" s="4"/>
+      <c r="K72" s="4"/>
+      <c r="L72" s="4"/>
+      <c r="M72" s="4"/>
+      <c r="N72" s="4"/>
+      <c r="O72" s="4"/>
+      <c r="P72" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10228,15 +5134,15 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.7109375" customWidth="1"/>
     <col min="2" max="17" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="B1">
         <v>2015</v>
@@ -10347,9 +5253,9 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="B2">
         <f>Calculations!B3</f>
@@ -10496,9 +5402,9 @@
         <v>-30000000000000</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -10609,9 +5515,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -10722,9 +5628,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -10835,9 +5741,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -10948,9 +5854,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -11061,9 +5967,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -11174,9 +6080,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -11287,9 +6193,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -11400,9 +6306,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -11513,9 +6419,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -11626,9 +6532,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -11745,35 +6651,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <of2ed5e60f3c4f8984f283882cb94320 xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </of2ed5e60f3c4f8984f283882cb94320>
-    <ff7c4ad8664a4671b57370e258acad6a xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ff7c4ad8664a4671b57370e258acad6a>
-    <l787e5950a9249679d0130235a9a791b xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </l787e5950a9249679d0130235a9a791b>
-    <TaxCatchAll xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="de340059-046a-4f1a-8b62-ade039df3700">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="21" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b14dc5c440242a7f7d08dacad5c84df8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="71a713f9ca42e4f2f02aa83a9b465f65" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
@@ -12039,48 +6916,43 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <of2ed5e60f3c4f8984f283882cb94320 xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </of2ed5e60f3c4f8984f283882cb94320>
+    <ff7c4ad8664a4671b57370e258acad6a xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ff7c4ad8664a4671b57370e258acad6a>
+    <l787e5950a9249679d0130235a9a791b xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </l787e5950a9249679d0130235a9a791b>
+    <TaxCatchAll xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="de340059-046a-4f1a-8b62-ade039df3700">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA861F6F-5B78-491C-8A8D-F667F1C3C913}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="de340059-046a-4f1a-8b62-ade039df3700"/>
-    <ds:schemaRef ds:uri="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B19BA2D7-6A7B-4801-AF36-6A025FF1D347}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18F5C38C-50C9-42E7-8E43-7E5467D45C6B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18F5C38C-50C9-42E7-8E43-7E5467D45C6B}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B19BA2D7-6A7B-4801-AF36-6A025FF1D347}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
-    <ds:schemaRef ds:uri="de340059-046a-4f1a-8b62-ade039df3700"/>
-    <ds:schemaRef ds:uri="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA861F6F-5B78-491C-8A8D-F667F1C3C913}"/>
 </file>